--- a/tests/reader/full_5_0_6.xlsx
+++ b/tests/reader/full_5_0_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0. Intro" sheetId="1" state="visible" r:id="rId2"/>
@@ -15216,7 +15216,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15312,7 +15312,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.000799999999999985</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -15321,11 +15321,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94617126"/>
-        <c:axId val="54163501"/>
+        <c:axId val="17776772"/>
+        <c:axId val="35119663"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="94617126"/>
+        <c:axId val="17776772"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -15365,7 +15365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54163501"/>
+        <c:crossAx val="35119663"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15373,7 +15373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54163501"/>
+        <c:axId val="35119663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15417,7 +15417,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94617126"/>
+        <c:crossAx val="17776772"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15446,7 +15446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15557,11 +15557,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="34841155"/>
-        <c:axId val="80809894"/>
+        <c:axId val="64396805"/>
+        <c:axId val="17460509"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="34841155"/>
+        <c:axId val="64396805"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -15601,7 +15601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80809894"/>
+        <c:crossAx val="17460509"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15609,7 +15609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80809894"/>
+        <c:axId val="17460509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15653,7 +15653,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34841155"/>
+        <c:crossAx val="64396805"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15682,7 +15682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15874,7 +15874,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.05</c:v>
@@ -15883,11 +15883,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="4909214"/>
-        <c:axId val="8453503"/>
+        <c:axId val="12999416"/>
+        <c:axId val="72741211"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="4909214"/>
+        <c:axId val="12999416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -15927,7 +15927,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8453503"/>
+        <c:crossAx val="72741211"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15935,7 +15935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8453503"/>
+        <c:axId val="72741211"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15979,7 +15979,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4909214"/>
+        <c:crossAx val="12999416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -16357,8 +16357,8 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41550,8 +41550,8 @@
   </sheetPr>
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42197,10 +42197,10 @@
   </sheetPr>
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42280,11 +42280,11 @@
       <c r="G4" s="73"/>
       <c r="H4" s="74" t="n">
         <f aca="false">I4/J4</f>
-        <v>-0.389047619047619</v>
+        <v>-0.377619047619048</v>
       </c>
       <c r="I4" s="75" t="n">
         <f aca="false">IF(SUM(I9+I23+I38+I59+I76)*1000/SUM(J9+J23+J38+J59+J76)&lt;-3600,-3600,SUM(I9+I23+I38+I59+I76)*1000/SUM(J9+J23+J38+J59+J76))</f>
-        <v>-389.047619047619</v>
+        <v>-377.619047619048</v>
       </c>
       <c r="J4" s="76" t="n">
         <f aca="false">SUM(J9+J23+J38+J59+J76)*1000/SUM(J9+J23+J38+J59+J76)</f>
@@ -45474,11 +45474,11 @@
       <c r="G76" s="116"/>
       <c r="H76" s="93" t="n">
         <f aca="false">IFERROR(I76/J76,0)</f>
-        <v>-0.50875</v>
+        <v>-0.44875</v>
       </c>
       <c r="I76" s="94" t="n">
         <f aca="false">I77+I81+I86+I90</f>
-        <v>-96.9047619047619</v>
+        <v>-85.4761904761905</v>
       </c>
       <c r="J76" s="94" t="n">
         <f aca="false">J77+J81+J86+J90</f>
@@ -45913,11 +45913,11 @@
       <c r="G86" s="112"/>
       <c r="H86" s="101" t="n">
         <f aca="false">IF(J86&lt;&gt;0,SUM(I87:I89)/J86,"-")</f>
-        <v>-0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I86" s="102" t="n">
         <f aca="false">IF(J86=0,0,H86*J86)</f>
-        <v>-2.85714285714286</v>
+        <v>8.57142857142857</v>
       </c>
       <c r="J86" s="102" t="n">
         <f aca="false">'9. Weighting'!O42</f>
@@ -45973,7 +45973,7 @@
       </c>
       <c r="J87" s="110" t="n">
         <f aca="false">IFERROR(J86*K87/SUM($K$87:$K$88),0)</f>
-        <v>23.8095238095238</v>
+        <v>19.047619047619</v>
       </c>
       <c r="K87" s="1" t="n">
         <f aca="false">VLOOKUP(D87,$C$102:$E$106,3,FALSE())</f>
@@ -46006,30 +46006,31 @@
         <v>Relative impact</v>
       </c>
       <c r="D88" s="104" t="n">
-        <f aca="false">C104</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E88" s="113" t="str">
         <f aca="false">VLOOKUP(D88,$C$102:$D$106,2,FALSE())</f>
-        <v>medium</v>
+        <v>high</v>
       </c>
       <c r="F88" s="106" t="str">
         <f aca="false">'12.lan'!$D$329</f>
         <v>Introduce value between 0 and 10</v>
       </c>
       <c r="G88" s="107"/>
-      <c r="H88" s="108"/>
+      <c r="H88" s="108" t="n">
+        <v>4</v>
+      </c>
       <c r="I88" s="109" t="n">
         <f aca="false">IFERROR(J88*H88/10,0)</f>
-        <v>0</v>
+        <v>11.4285714285714</v>
       </c>
       <c r="J88" s="110" t="n">
         <f aca="false">IFERROR(J86*K88/SUM($K$87:$K$88),0)</f>
-        <v>23.8095238095238</v>
+        <v>28.5714285714286</v>
       </c>
       <c r="K88" s="1" t="n">
         <f aca="false">VLOOKUP(D88,$C$102:$E$106,3,FALSE())</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L88" s="1" t="n">
         <f aca="false">VLOOKUP(O88,$C$102:$E$106,3,FALSE())</f>
@@ -46037,11 +46038,11 @@
       </c>
       <c r="M88" s="1" t="n">
         <f aca="false">VLOOKUP(D88,$C$102:$E$106,3,FALSE())</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="N88" s="46" t="str">
         <f aca="false">IF(L88=M88,"",'12.lan'!$D$240&amp;VLOOKUP(L88,$C$102:$D$106,2,FALSE())&amp;" ("&amp;L88&amp;")")</f>
-        <v/>
+        <v>Weighting changed. Original medium (1)</v>
       </c>
       <c r="O88" s="1" t="n">
         <f aca="false">C104</f>
@@ -46284,11 +46285,11 @@
       <c r="G95" s="130"/>
       <c r="H95" s="131" t="n">
         <f aca="false">H4</f>
-        <v>-0.389047619047619</v>
+        <v>-0.377619047619048</v>
       </c>
       <c r="I95" s="132" t="n">
         <f aca="false">I4</f>
-        <v>-389.047619047619</v>
+        <v>-377.619047619048</v>
       </c>
       <c r="J95" s="132" t="n">
         <f aca="false">J4</f>
@@ -49932,7 +49933,7 @@
       <c r="J4" s="317"/>
       <c r="K4" s="318" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-389.047619047619</v>
+        <v>-377.619047619048</v>
       </c>
       <c r="L4" s="318"/>
       <c r="M4" s="319" t="str">
@@ -50508,7 +50509,7 @@
       </c>
       <c r="K17" s="327" t="n">
         <f aca="false">'3. Calc'!I86</f>
-        <v>-2.85714285714286</v>
+        <v>8.57142857142857</v>
       </c>
       <c r="L17" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50520,7 +50521,7 @@
       </c>
       <c r="N17" s="330" t="n">
         <f aca="false">'3. Calc'!H86</f>
-        <v>-0.06</v>
+        <v>0.18</v>
       </c>
       <c r="O17" s="327" t="n">
         <f aca="false">'3. Calc'!I90</f>
@@ -50830,7 +50831,7 @@
       </c>
       <c r="C20" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!K9+'4. ECG-Matrix'!K11+'4. ECG-Matrix'!K13+'4. ECG-Matrix'!K15+'4. ECG-Matrix'!K17</f>
-        <v>-11.1904761904762</v>
+        <v>0.238095238095234</v>
       </c>
       <c r="D20" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50842,11 +50843,11 @@
       </c>
       <c r="F20" s="353" t="n">
         <f aca="false">C20/E20</f>
-        <v>-0.0376</v>
+        <v>0.000799999999999985</v>
       </c>
       <c r="G20" s="354" t="n">
         <f aca="false">IF(F20&lt;0,0,F20)</f>
-        <v>0</v>
+        <v>0.000799999999999985</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -50884,7 +50885,7 @@
       </c>
       <c r="C22" s="356" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-389.047619047619</v>
+        <v>-377.619047619048</v>
       </c>
       <c r="D22" s="357" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50896,7 +50897,7 @@
       </c>
       <c r="F22" s="359" t="n">
         <f aca="false">C22/E22</f>
-        <v>-0.389047619047619</v>
+        <v>-0.377619047619048</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -51220,7 +51221,7 @@
       </c>
       <c r="C22" s="350" t="n">
         <f aca="false">'3. Calc'!I76</f>
-        <v>-96.9047619047619</v>
+        <v>-85.4761904761905</v>
       </c>
       <c r="D22" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51232,7 +51233,7 @@
       </c>
       <c r="F22" s="353" t="n">
         <f aca="false">C22/E22</f>
-        <v>-0.50875</v>
+        <v>-0.44875</v>
       </c>
       <c r="G22" s="354" t="n">
         <f aca="false">IF(F22&lt;0,0,F22)</f>
@@ -51247,7 +51248,7 @@
       </c>
       <c r="C23" s="356" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-389.047619047619</v>
+        <v>-377.619047619048</v>
       </c>
       <c r="D23" s="357" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51259,7 +51260,7 @@
       </c>
       <c r="F23" s="359" t="n">
         <f aca="false">C23/E23</f>
-        <v>-0.389047619047619</v>
+        <v>-0.377619047619048</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -51982,7 +51983,7 @@
       </c>
       <c r="C36" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!K17</f>
-        <v>-2.85714285714286</v>
+        <v>8.57142857142857</v>
       </c>
       <c r="D36" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51994,11 +51995,11 @@
       </c>
       <c r="F36" s="360" t="n">
         <f aca="false">C36/E36</f>
-        <v>-0.06</v>
+        <v>0.18</v>
       </c>
       <c r="G36" s="354" t="n">
         <f aca="false">IF(F36&lt;0,0,F36)</f>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AI36" s="361"/>
       <c r="AM36" s="361"/>
@@ -52039,7 +52040,7 @@
       </c>
       <c r="C38" s="356" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-389.047619047619</v>
+        <v>-377.619047619048</v>
       </c>
       <c r="D38" s="362" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -52051,7 +52052,7 @@
       </c>
       <c r="F38" s="363" t="n">
         <f aca="false">C38/E38</f>
-        <v>-0.389047619047619</v>
+        <v>-0.377619047619048</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/tests/reader/full_5_0_6.xlsx
+++ b/tests/reader/full_5_0_6.xlsx
@@ -15216,7 +15216,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15321,11 +15321,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="17776772"/>
-        <c:axId val="35119663"/>
+        <c:axId val="61695323"/>
+        <c:axId val="70556186"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="17776772"/>
+        <c:axId val="61695323"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -15365,7 +15365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35119663"/>
+        <c:crossAx val="70556186"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15373,7 +15373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35119663"/>
+        <c:axId val="70556186"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15417,7 +15417,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17776772"/>
+        <c:crossAx val="61695323"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15446,7 +15446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15557,11 +15557,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64396805"/>
-        <c:axId val="17460509"/>
+        <c:axId val="39071451"/>
+        <c:axId val="72181052"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="64396805"/>
+        <c:axId val="39071451"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -15601,7 +15601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17460509"/>
+        <c:crossAx val="72181052"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15609,7 +15609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17460509"/>
+        <c:axId val="72181052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15653,7 +15653,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64396805"/>
+        <c:crossAx val="39071451"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15682,7 +15682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15883,11 +15883,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="12999416"/>
-        <c:axId val="72741211"/>
+        <c:axId val="87593250"/>
+        <c:axId val="40113606"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="12999416"/>
+        <c:axId val="87593250"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -15927,7 +15927,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72741211"/>
+        <c:crossAx val="40113606"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15935,7 +15935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72741211"/>
+        <c:axId val="40113606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15979,7 +15979,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12999416"/>
+        <c:crossAx val="87593250"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -16357,8 +16357,8 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42197,10 +42197,10 @@
   </sheetPr>
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="N88" activeCellId="0" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/reader/full_5_0_6.xlsx
+++ b/tests/reader/full_5_0_6.xlsx
@@ -15216,7 +15216,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15228,10 +15228,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.388488134918661"/>
-          <c:y val="0.338577546080804"/>
-          <c:w val="0.221332272026267"/>
-          <c:h val="0.320983057158816"/>
+          <c:x val="0.388493505200816"/>
+          <c:y val="0.338515966855972"/>
+          <c:w val="0.221320858010252"/>
+          <c:h val="0.320919839865934"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -15312,7 +15312,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000799999999999985</c:v>
+                  <c:v>0.000799999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -15321,13 +15321,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="61695323"/>
-        <c:axId val="70556186"/>
+        <c:axId val="75288386"/>
+        <c:axId val="92790180"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="61695323"/>
+        <c:axId val="75288386"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15365,7 +15365,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70556186"/>
+        <c:crossAx val="92790180"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15373,7 +15373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70556186"/>
+        <c:axId val="92790180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15417,7 +15417,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61695323"/>
+        <c:crossAx val="75288386"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15446,7 +15446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15458,10 +15458,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.372119434060474"/>
-          <c:y val="0.375320486312133"/>
-          <c:w val="0.231391662329059"/>
-          <c:h val="0.3125465222066"/>
+          <c:x val="0.372118343195266"/>
+          <c:y val="0.375268817204301"/>
+          <c:w val="0.231384615384615"/>
+          <c:h val="0.312489660876758"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -15557,13 +15557,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="39071451"/>
-        <c:axId val="72181052"/>
+        <c:axId val="89467451"/>
+        <c:axId val="29595171"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="39071451"/>
+        <c:axId val="89467451"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15601,7 +15601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72181052"/>
+        <c:crossAx val="29595171"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15609,7 +15609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72181052"/>
+        <c:axId val="29595171"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15653,7 +15653,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39071451"/>
+        <c:crossAx val="89467451"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -15682,7 +15682,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -15694,10 +15694,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.290547061512673"/>
-          <c:y val="0.237298115746972"/>
-          <c:w val="0.403565804845837"/>
-          <c:h val="0.520945491251682"/>
+          <c:x val="0.290548780487805"/>
+          <c:y val="0.237318078573231"/>
+          <c:w val="0.403556910569106"/>
+          <c:h val="0.520905190544292"/>
         </c:manualLayout>
       </c:layout>
       <c:radarChart>
@@ -15828,9 +15828,6 @@
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.166666666666667</c:v>
                 </c:pt>
@@ -15883,13 +15880,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87593250"/>
-        <c:axId val="40113606"/>
+        <c:axId val="27546419"/>
+        <c:axId val="22542462"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="87593250"/>
+        <c:axId val="27546419"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15927,7 +15924,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40113606"/>
+        <c:crossAx val="22542462"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15935,7 +15932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40113606"/>
+        <c:axId val="22542462"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -15979,7 +15976,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87593250"/>
+        <c:crossAx val="27546419"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
@@ -16019,9 +16016,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4428720</xdr:colOff>
+      <xdr:colOff>4428360</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16034,8 +16031,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4216320" y="0"/>
-          <a:ext cx="3018960" cy="923400"/>
+          <a:off x="4215960" y="0"/>
+          <a:ext cx="3018600" cy="923040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16061,9 +16058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16076,8 +16073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10728000" y="228600"/>
-          <a:ext cx="2489760" cy="571320"/>
+          <a:off x="10726920" y="228600"/>
+          <a:ext cx="2489040" cy="570960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16103,9 +16100,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>856800</xdr:colOff>
+      <xdr:colOff>856440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>761760</xdr:rowOff>
+      <xdr:rowOff>761400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16114,7 +16111,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="9360" y="704880"/>
-        <a:ext cx="7236000" cy="3866760"/>
+        <a:ext cx="7233120" cy="3866400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16133,9 +16130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>504360</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16148,8 +16145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241200" y="209520"/>
-          <a:ext cx="504360" cy="371160"/>
+          <a:off x="240840" y="209520"/>
+          <a:ext cx="504000" cy="370800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16175,9 +16172,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>977400</xdr:colOff>
+      <xdr:colOff>977040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1066320</xdr:rowOff>
+      <xdr:rowOff>1065960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16186,7 +16183,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="152280" y="523800"/>
-        <a:ext cx="7607520" cy="4352400"/>
+        <a:ext cx="7604640" cy="4352040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16205,9 +16202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16221,7 +16218,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="142920" y="123840"/>
-          <a:ext cx="536040" cy="361440"/>
+          <a:ext cx="535320" cy="361080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16247,9 +16244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>977760</xdr:colOff>
+      <xdr:colOff>977400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1002960</xdr:rowOff>
+      <xdr:rowOff>1002600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -16257,8 +16254,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="279360" y="533520"/>
-        <a:ext cx="7086960" cy="4279320"/>
+        <a:off x="279000" y="533520"/>
+        <a:ext cx="7084440" cy="4278960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -16277,9 +16274,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16293,7 +16290,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="133200" y="123840"/>
-          <a:ext cx="564840" cy="361440"/>
+          <a:ext cx="564120" cy="361080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16319,9 +16316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5676480</xdr:colOff>
+      <xdr:colOff>5676120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16335,7 +16332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8741520" y="152280"/>
-          <a:ext cx="9000" cy="418680"/>
+          <a:ext cx="8640" cy="418320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16881,18 +16878,18 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="364" width="32.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="364" width="2.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="365" width="94.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="365" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="365" width="4.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="365" width="10.28"/>
   </cols>
   <sheetData>
@@ -16932,7 +16929,7 @@
       <c r="B4" s="367"/>
       <c r="C4" s="368" t="str">
         <f aca="false">'12.lan'!D244</f>
-        <v>The allocation of equal and fixed scores for all companies has been the subject of much discussion within the Matrix-development team during the past few years. Outside sources have also raised many questions and provided feedback. Untill now, the way points are distributed for themes has been the same for all companies (with the exception of one-person companies), regardless of company size, industry and other parameters (regional background, B2B versus B2C, etc.). However, these variables may well have an effect on the relevance to and effect on the common good.For example, the supply chain of an electronics trading company (A1-A4) is more significant than for a mining company, which, in turn, leaves a huge, direct environmental impact, amongst other things (E3). The new weighting model addresses these issues and highlights the significant factors. A survey on the changes was conducted, with feedback clearly favouring a new approach. </v>
+        <v>The allocation of equal and fixed scores for all companies has been the subject of much discussion within the Matrix-development team during the past few years. Outside sources have also raised many questions and provided feedback. Untill now, the way points are distributed for themes has been the same for all companies (with the exception of one-person companies), regardless of company size, industry and other parameters (regional background, B2B versus B2C, etc.). However, these variables may well have an effect on the relevance to and effect on the common good.For example, the supply chain of an electronics trading company (A1-A4) is more significant than for a mining company, which, in turn, leaves a huge, direct environmental impact, amongst other things (E3). The new weighting model addresses these issues and highlights the significant factors. A survey on the changes was conducted, with feedback clearly favouring a new approach.</v>
       </c>
       <c r="D4" s="366"/>
       <c r="E4" s="366"/>
@@ -17065,7 +17062,7 @@
       <c r="B17" s="373"/>
       <c r="C17" s="370" t="str">
         <f aca="false">'12.lan'!D257</f>
-        <v>The weighting of this theme is dependent on the existence of a canteen for most of the employees as well as an (estimated) average commute to work. </v>
+        <v>The weighting of this theme is dependent on the existence of a canteen for most of the employees as well as an (estimated) average commute to work.</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17267,7 +17264,7 @@
       <selection pane="bottomRight" activeCell="K33" activeCellId="0" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="9.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="9.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="382" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="382" width="43.28"/>
@@ -18395,7 +18392,7 @@
     <row r="34" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="440" t="str">
         <f aca="false">'9. Weighting'!H35</f>
-        <v>J </v>
+        <v>J</v>
       </c>
       <c r="B34" s="441" t="s">
         <v>242</v>
@@ -18578,7 +18575,7 @@
       <selection pane="bottomLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="9.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="9.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="456" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="457" width="16.28"/>
@@ -18683,7 +18680,7 @@
       </c>
       <c r="J3" s="475" t="str">
         <f aca="false">'9. Weighting'!E13</f>
-        <v>A </v>
+        <v>A</v>
       </c>
       <c r="K3" s="456" t="n">
         <f aca="false">'9. Weighting'!G13</f>
@@ -18809,7 +18806,7 @@
       </c>
       <c r="J5" s="475" t="str">
         <f aca="false">'9. Weighting'!E15</f>
-        <v>A </v>
+        <v>A</v>
       </c>
       <c r="K5" s="456" t="n">
         <f aca="false">'9. Weighting'!G15</f>
@@ -18872,7 +18869,7 @@
       </c>
       <c r="J6" s="475" t="str">
         <f aca="false">'9. Weighting'!E16</f>
-        <v>A </v>
+        <v>A</v>
       </c>
       <c r="K6" s="456" t="n">
         <f aca="false">'9. Weighting'!G16</f>
@@ -19232,7 +19229,7 @@
     <row r="22" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="506" t="str">
         <f aca="false">'12.lan'!D339</f>
-        <v>ABW Aruba </v>
+        <v>ABW Aruba</v>
       </c>
       <c r="B22" s="506" t="s">
         <v>278</v>
@@ -19261,7 +19258,7 @@
     <row r="23" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="506" t="str">
         <f aca="false">'12.lan'!D340</f>
-        <v>AFG Afghanistan </v>
+        <v>AFG Afghanistan</v>
       </c>
       <c r="B23" s="506" t="s">
         <v>282</v>
@@ -19290,7 +19287,7 @@
     <row r="24" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="506" t="str">
         <f aca="false">'12.lan'!D341</f>
-        <v>AGO Angola </v>
+        <v>AGO Angola</v>
       </c>
       <c r="B24" s="506" t="s">
         <v>285</v>
@@ -19317,7 +19314,7 @@
     <row r="25" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="506" t="str">
         <f aca="false">'12.lan'!D342</f>
-        <v>ALB Albania </v>
+        <v>ALB Albania</v>
       </c>
       <c r="B25" s="506" t="s">
         <v>288</v>
@@ -19344,7 +19341,7 @@
     <row r="26" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="506" t="str">
         <f aca="false">'12.lan'!D343</f>
-        <v>AND Andorra </v>
+        <v>AND Andorra</v>
       </c>
       <c r="B26" s="506" t="s">
         <v>291</v>
@@ -19373,7 +19370,7 @@
     <row r="27" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="506" t="str">
         <f aca="false">'12.lan'!D344</f>
-        <v>ARE United Arab Emirates </v>
+        <v>ARE United Arab Emirates</v>
       </c>
       <c r="B27" s="506" t="s">
         <v>293</v>
@@ -19400,7 +19397,7 @@
     <row r="28" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="506" t="str">
         <f aca="false">'12.lan'!D345</f>
-        <v>ARG Argentina </v>
+        <v>ARG Argentina</v>
       </c>
       <c r="B28" s="506" t="s">
         <v>295</v>
@@ -19426,7 +19423,7 @@
     <row r="29" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="506" t="str">
         <f aca="false">'12.lan'!D346</f>
-        <v>ARM Armenia </v>
+        <v>ARM Armenia</v>
       </c>
       <c r="B29" s="506" t="s">
         <v>297</v>
@@ -19454,7 +19451,7 @@
     <row r="30" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="506" t="str">
         <f aca="false">'12.lan'!D347</f>
-        <v>ASM American Samoa </v>
+        <v>ASM American Samoa</v>
       </c>
       <c r="B30" s="506" t="s">
         <v>299</v>
@@ -19480,7 +19477,7 @@
     <row r="31" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="506" t="str">
         <f aca="false">'12.lan'!D348</f>
-        <v>ATG Antigua and Barbuda </v>
+        <v>ATG Antigua and Barbuda</v>
       </c>
       <c r="B31" s="506" t="s">
         <v>302</v>
@@ -19508,7 +19505,7 @@
     <row r="32" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="506" t="str">
         <f aca="false">'12.lan'!D349</f>
-        <v>AUS Australia </v>
+        <v>AUS Australia</v>
       </c>
       <c r="B32" s="506" t="s">
         <v>304</v>
@@ -19536,7 +19533,7 @@
     <row r="33" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="506" t="str">
         <f aca="false">'12.lan'!D350</f>
-        <v>AUT Austria </v>
+        <v>AUT Austria</v>
       </c>
       <c r="B33" s="506" t="s">
         <v>306</v>
@@ -19562,7 +19559,7 @@
     <row r="34" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="506" t="str">
         <f aca="false">'12.lan'!D351</f>
-        <v>AZE Azerbaijan </v>
+        <v>AZE Azerbaijan</v>
       </c>
       <c r="B34" s="506" t="s">
         <v>308</v>
@@ -19590,7 +19587,7 @@
     <row r="35" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="506" t="str">
         <f aca="false">'12.lan'!D352</f>
-        <v>BDI Burundi </v>
+        <v>BDI Burundi</v>
       </c>
       <c r="B35" s="506" t="s">
         <v>310</v>
@@ -19618,7 +19615,7 @@
     <row r="36" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="506" t="str">
         <f aca="false">'12.lan'!D353</f>
-        <v>BEL Belgium </v>
+        <v>BEL Belgium</v>
       </c>
       <c r="B36" s="506" t="s">
         <v>312</v>
@@ -19644,7 +19641,7 @@
     <row r="37" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="506" t="str">
         <f aca="false">'12.lan'!D354</f>
-        <v>BEN Benin </v>
+        <v>BEN Benin</v>
       </c>
       <c r="B37" s="506" t="s">
         <v>314</v>
@@ -19672,7 +19669,7 @@
     <row r="38" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="506" t="str">
         <f aca="false">'12.lan'!D355</f>
-        <v>BFA Burkina Faso </v>
+        <v>BFA Burkina Faso</v>
       </c>
       <c r="B38" s="506" t="s">
         <v>316</v>
@@ -19700,7 +19697,7 @@
     <row r="39" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="506" t="str">
         <f aca="false">'12.lan'!D356</f>
-        <v>BGD Bangladesh </v>
+        <v>BGD Bangladesh</v>
       </c>
       <c r="B39" s="506" t="s">
         <v>318</v>
@@ -19726,7 +19723,7 @@
     <row r="40" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="506" t="str">
         <f aca="false">'12.lan'!D357</f>
-        <v>BGR Bulgaria </v>
+        <v>BGR Bulgaria</v>
       </c>
       <c r="B40" s="506" t="s">
         <v>320</v>
@@ -19752,7 +19749,7 @@
     <row r="41" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="506" t="str">
         <f aca="false">'12.lan'!D358</f>
-        <v>BHR Bahrain </v>
+        <v>BHR Bahrain</v>
       </c>
       <c r="B41" s="506" t="s">
         <v>322</v>
@@ -19778,7 +19775,7 @@
     <row r="42" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="506" t="str">
         <f aca="false">'12.lan'!D359</f>
-        <v>BHS Bahamas </v>
+        <v>BHS Bahamas</v>
       </c>
       <c r="B42" s="506" t="s">
         <v>324</v>
@@ -19806,7 +19803,7 @@
     <row r="43" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="506" t="str">
         <f aca="false">'12.lan'!D360</f>
-        <v>BIH Bosnia and Herzegovina </v>
+        <v>BIH Bosnia and Herzegovina</v>
       </c>
       <c r="B43" s="506" t="s">
         <v>326</v>
@@ -19832,7 +19829,7 @@
     <row r="44" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="506" t="str">
         <f aca="false">'12.lan'!D361</f>
-        <v>BLR Belarus </v>
+        <v>BLR Belarus</v>
       </c>
       <c r="B44" s="506" t="s">
         <v>328</v>
@@ -19858,7 +19855,7 @@
     <row r="45" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="506" t="str">
         <f aca="false">'12.lan'!D362</f>
-        <v>BLZ Belize </v>
+        <v>BLZ Belize</v>
       </c>
       <c r="B45" s="506" t="s">
         <v>330</v>
@@ -19886,7 +19883,7 @@
     <row r="46" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="506" t="str">
         <f aca="false">'12.lan'!D363</f>
-        <v>BMU Bermuda </v>
+        <v>BMU Bermuda</v>
       </c>
       <c r="B46" s="506" t="s">
         <v>332</v>
@@ -19914,7 +19911,7 @@
     <row r="47" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="506" t="str">
         <f aca="false">'12.lan'!D364</f>
-        <v>BOL Bolivia, Plurinational State of </v>
+        <v>BOL Bolivia, Plurinational State of</v>
       </c>
       <c r="B47" s="506" t="s">
         <v>334</v>
@@ -19940,7 +19937,7 @@
     <row r="48" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="506" t="str">
         <f aca="false">'12.lan'!D365</f>
-        <v>BRA Brazil </v>
+        <v>BRA Brazil</v>
       </c>
       <c r="B48" s="506" t="s">
         <v>336</v>
@@ -19966,7 +19963,7 @@
     <row r="49" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="506" t="str">
         <f aca="false">'12.lan'!D366</f>
-        <v>BRB Barbados </v>
+        <v>BRB Barbados</v>
       </c>
       <c r="B49" s="506" t="s">
         <v>338</v>
@@ -19994,7 +19991,7 @@
     <row r="50" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="506" t="str">
         <f aca="false">'12.lan'!D367</f>
-        <v>BRN Brunei Darussalam </v>
+        <v>BRN Brunei Darussalam</v>
       </c>
       <c r="B50" s="506" t="s">
         <v>340</v>
@@ -20022,7 +20019,7 @@
     <row r="51" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="506" t="str">
         <f aca="false">'12.lan'!D368</f>
-        <v>BTN Bhutan </v>
+        <v>BTN Bhutan</v>
       </c>
       <c r="B51" s="506" t="s">
         <v>342</v>
@@ -20050,7 +20047,7 @@
     <row r="52" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="506" t="str">
         <f aca="false">'12.lan'!D369</f>
-        <v>BWA Botswana </v>
+        <v>BWA Botswana</v>
       </c>
       <c r="B52" s="506" t="s">
         <v>344</v>
@@ -20076,7 +20073,7 @@
     <row r="53" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="506" t="str">
         <f aca="false">'12.lan'!D370</f>
-        <v>CAF Central African Republic </v>
+        <v>CAF Central African Republic</v>
       </c>
       <c r="B53" s="506" t="s">
         <v>346</v>
@@ -20104,7 +20101,7 @@
     <row r="54" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="506" t="str">
         <f aca="false">'12.lan'!D371</f>
-        <v>CAN Canada </v>
+        <v>CAN Canada</v>
       </c>
       <c r="B54" s="506" t="s">
         <v>348</v>
@@ -20131,7 +20128,7 @@
     <row r="55" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="506" t="str">
         <f aca="false">'12.lan'!D372</f>
-        <v>CHE Switzerland </v>
+        <v>CHE Switzerland</v>
       </c>
       <c r="B55" s="506" t="s">
         <v>350</v>
@@ -20159,7 +20156,7 @@
     <row r="56" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="506" t="str">
         <f aca="false">'12.lan'!D373</f>
-        <v>CHL Chile </v>
+        <v>CHL Chile</v>
       </c>
       <c r="B56" s="506" t="s">
         <v>352</v>
@@ -20185,7 +20182,7 @@
     <row r="57" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="506" t="str">
         <f aca="false">'12.lan'!D374</f>
-        <v>CHN China </v>
+        <v>CHN China</v>
       </c>
       <c r="B57" s="506" t="s">
         <v>354</v>
@@ -20211,7 +20208,7 @@
     <row r="58" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="506" t="str">
         <f aca="false">'12.lan'!D375</f>
-        <v>CIV Côte d'Ivoire </v>
+        <v>CIV Côte d'Ivoire</v>
       </c>
       <c r="B58" s="506" t="s">
         <v>356</v>
@@ -20237,7 +20234,7 @@
     <row r="59" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="506" t="str">
         <f aca="false">'12.lan'!D376</f>
-        <v>CMR Cameroon </v>
+        <v>CMR Cameroon</v>
       </c>
       <c r="B59" s="506" t="s">
         <v>358</v>
@@ -20263,7 +20260,7 @@
     <row r="60" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="506" t="str">
         <f aca="false">'12.lan'!D377</f>
-        <v>COD Congo, the Democratic Republic of the </v>
+        <v>COD Congo, the Democratic Republic of the</v>
       </c>
       <c r="B60" s="506" t="s">
         <v>360</v>
@@ -20289,7 +20286,7 @@
     <row r="61" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="506" t="str">
         <f aca="false">'12.lan'!D378</f>
-        <v>COG Congo </v>
+        <v>COG Congo</v>
       </c>
       <c r="B61" s="506" t="s">
         <v>362</v>
@@ -20315,7 +20312,7 @@
     <row r="62" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="506" t="str">
         <f aca="false">'12.lan'!D379</f>
-        <v>COL Colombia </v>
+        <v>COL Colombia</v>
       </c>
       <c r="B62" s="506" t="s">
         <v>364</v>
@@ -20341,7 +20338,7 @@
     <row r="63" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="506" t="str">
         <f aca="false">'12.lan'!D380</f>
-        <v>COM Comoros </v>
+        <v>COM Comoros</v>
       </c>
       <c r="B63" s="506" t="s">
         <v>366</v>
@@ -20369,7 +20366,7 @@
     <row r="64" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="506" t="str">
         <f aca="false">'12.lan'!D381</f>
-        <v>CPV Cape Verde </v>
+        <v>CPV Cape Verde</v>
       </c>
       <c r="B64" s="506" t="s">
         <v>368</v>
@@ -20397,7 +20394,7 @@
     <row r="65" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="506" t="str">
         <f aca="false">'12.lan'!D382</f>
-        <v>CRI Costa Rica </v>
+        <v>CRI Costa Rica</v>
       </c>
       <c r="B65" s="506" t="s">
         <v>370</v>
@@ -20423,7 +20420,7 @@
     <row r="66" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="506" t="str">
         <f aca="false">'12.lan'!D383</f>
-        <v>CUB Cuba </v>
+        <v>CUB Cuba</v>
       </c>
       <c r="B66" s="506" t="s">
         <v>372</v>
@@ -20451,7 +20448,7 @@
     <row r="67" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="506" t="str">
         <f aca="false">'12.lan'!D384</f>
-        <v>CUW Curaçao </v>
+        <v>CUW Curaçao</v>
       </c>
       <c r="B67" s="506" t="s">
         <v>374</v>
@@ -20479,7 +20476,7 @@
     <row r="68" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="506" t="str">
         <f aca="false">'12.lan'!D385</f>
-        <v>CYM Cayman Islands </v>
+        <v>CYM Cayman Islands</v>
       </c>
       <c r="B68" s="506" t="s">
         <v>376</v>
@@ -20507,7 +20504,7 @@
     <row r="69" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="506" t="str">
         <f aca="false">'12.lan'!D386</f>
-        <v>CYP Cyprus </v>
+        <v>CYP Cyprus</v>
       </c>
       <c r="B69" s="506" t="s">
         <v>378</v>
@@ -20535,7 +20532,7 @@
     <row r="70" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="506" t="str">
         <f aca="false">'12.lan'!D387</f>
-        <v>CZE Czech Republic </v>
+        <v>CZE Czech Republic</v>
       </c>
       <c r="B70" s="506" t="s">
         <v>380</v>
@@ -20561,7 +20558,7 @@
     <row r="71" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="506" t="str">
         <f aca="false">'12.lan'!D388</f>
-        <v>DEU Germany </v>
+        <v>DEU Germany</v>
       </c>
       <c r="B71" s="506" t="s">
         <v>382</v>
@@ -20587,7 +20584,7 @@
     <row r="72" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="506" t="str">
         <f aca="false">'12.lan'!D389</f>
-        <v>DJI Djibouti </v>
+        <v>DJI Djibouti</v>
       </c>
       <c r="B72" s="506" t="s">
         <v>384</v>
@@ -20615,7 +20612,7 @@
     <row r="73" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="506" t="str">
         <f aca="false">'12.lan'!D390</f>
-        <v>DMA Dominica </v>
+        <v>DMA Dominica</v>
       </c>
       <c r="B73" s="506" t="s">
         <v>386</v>
@@ -20643,7 +20640,7 @@
     <row r="74" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="506" t="str">
         <f aca="false">'12.lan'!D391</f>
-        <v>DNK Denmark </v>
+        <v>DNK Denmark</v>
       </c>
       <c r="B74" s="506" t="s">
         <v>388</v>
@@ -20669,7 +20666,7 @@
     <row r="75" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="506" t="str">
         <f aca="false">'12.lan'!D392</f>
-        <v>DOM Dominican Republic </v>
+        <v>DOM Dominican Republic</v>
       </c>
       <c r="B75" s="506" t="s">
         <v>390</v>
@@ -20695,7 +20692,7 @@
     <row r="76" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="506" t="str">
         <f aca="false">'12.lan'!D393</f>
-        <v>DZA Algeria </v>
+        <v>DZA Algeria</v>
       </c>
       <c r="B76" s="506" t="s">
         <v>392</v>
@@ -20721,7 +20718,7 @@
     <row r="77" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="506" t="str">
         <f aca="false">'12.lan'!D394</f>
-        <v>ECU Ecuador </v>
+        <v>ECU Ecuador</v>
       </c>
       <c r="B77" s="506" t="s">
         <v>394</v>
@@ -20747,7 +20744,7 @@
     <row r="78" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="506" t="str">
         <f aca="false">'12.lan'!D395</f>
-        <v>EGY Egypt </v>
+        <v>EGY Egypt</v>
       </c>
       <c r="B78" s="506" t="s">
         <v>396</v>
@@ -20773,7 +20770,7 @@
     <row r="79" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="506" t="str">
         <f aca="false">'12.lan'!D396</f>
-        <v>ERI Eritrea </v>
+        <v>ERI Eritrea</v>
       </c>
       <c r="B79" s="506" t="s">
         <v>398</v>
@@ -20801,7 +20798,7 @@
     <row r="80" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="506" t="str">
         <f aca="false">'12.lan'!D397</f>
-        <v>ESP Spain </v>
+        <v>ESP Spain</v>
       </c>
       <c r="B80" s="506" t="s">
         <v>400</v>
@@ -20827,7 +20824,7 @@
     <row r="81" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="506" t="str">
         <f aca="false">'12.lan'!D398</f>
-        <v>EST Estonia </v>
+        <v>EST Estonia</v>
       </c>
       <c r="B81" s="506" t="s">
         <v>402</v>
@@ -20853,7 +20850,7 @@
     <row r="82" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="506" t="str">
         <f aca="false">'12.lan'!D399</f>
-        <v>ETH Ethiopia </v>
+        <v>ETH Ethiopia</v>
       </c>
       <c r="B82" s="506" t="s">
         <v>404</v>
@@ -20879,7 +20876,7 @@
     <row r="83" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="506" t="str">
         <f aca="false">'12.lan'!D400</f>
-        <v>FIN Finland </v>
+        <v>FIN Finland</v>
       </c>
       <c r="B83" s="506" t="s">
         <v>406</v>
@@ -20905,7 +20902,7 @@
     <row r="84" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="506" t="str">
         <f aca="false">'12.lan'!D401</f>
-        <v>FJI Fiji </v>
+        <v>FJI Fiji</v>
       </c>
       <c r="B84" s="506" t="s">
         <v>408</v>
@@ -20933,7 +20930,7 @@
     <row r="85" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="506" t="str">
         <f aca="false">'12.lan'!D402</f>
-        <v>FRA France </v>
+        <v>FRA France</v>
       </c>
       <c r="B85" s="506" t="s">
         <v>410</v>
@@ -20959,7 +20956,7 @@
     <row r="86" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="506" t="str">
         <f aca="false">'12.lan'!D403</f>
-        <v>FRO Faroe Islands </v>
+        <v>FRO Faroe Islands</v>
       </c>
       <c r="B86" s="506" t="s">
         <v>412</v>
@@ -20987,7 +20984,7 @@
     <row r="87" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="506" t="str">
         <f aca="false">'12.lan'!D404</f>
-        <v>FSM Micronesia, Federated States of </v>
+        <v>FSM Micronesia, Federated States of</v>
       </c>
       <c r="B87" s="506" t="s">
         <v>414</v>
@@ -21015,7 +21012,7 @@
     <row r="88" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="506" t="str">
         <f aca="false">'12.lan'!D405</f>
-        <v>GAB Gabon </v>
+        <v>GAB Gabon</v>
       </c>
       <c r="B88" s="506" t="s">
         <v>416</v>
@@ -21043,7 +21040,7 @@
     <row r="89" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="506" t="str">
         <f aca="false">'12.lan'!D406</f>
-        <v>GBR United Kingdom </v>
+        <v>GBR United Kingdom</v>
       </c>
       <c r="B89" s="506" t="s">
         <v>418</v>
@@ -21069,7 +21066,7 @@
     <row r="90" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="506" t="str">
         <f aca="false">'12.lan'!D407</f>
-        <v>GEO Georgia </v>
+        <v>GEO Georgia</v>
       </c>
       <c r="B90" s="506" t="s">
         <v>420</v>
@@ -21095,7 +21092,7 @@
     <row r="91" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="506" t="str">
         <f aca="false">'12.lan'!D408</f>
-        <v>GHA Ghana </v>
+        <v>GHA Ghana</v>
       </c>
       <c r="B91" s="506" t="s">
         <v>422</v>
@@ -21121,7 +21118,7 @@
     <row r="92" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="506" t="str">
         <f aca="false">'12.lan'!D409</f>
-        <v>GIB Gibraltar </v>
+        <v>GIB Gibraltar</v>
       </c>
       <c r="B92" s="506" t="s">
         <v>424</v>
@@ -21149,7 +21146,7 @@
     <row r="93" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="506" t="str">
         <f aca="false">'12.lan'!D410</f>
-        <v>GIN Guinea </v>
+        <v>GIN Guinea</v>
       </c>
       <c r="B93" s="506" t="s">
         <v>426</v>
@@ -21177,7 +21174,7 @@
     <row r="94" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="506" t="str">
         <f aca="false">'12.lan'!D411</f>
-        <v>GMB Gambia </v>
+        <v>GMB Gambia</v>
       </c>
       <c r="B94" s="506" t="s">
         <v>428</v>
@@ -21205,7 +21202,7 @@
     <row r="95" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="506" t="str">
         <f aca="false">'12.lan'!D412</f>
-        <v>GNB Guinea-Bissau </v>
+        <v>GNB Guinea-Bissau</v>
       </c>
       <c r="B95" s="506" t="s">
         <v>430</v>
@@ -21234,7 +21231,7 @@
     <row r="96" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="506" t="str">
         <f aca="false">'12.lan'!D413</f>
-        <v>GNQ Equatorial Guinea </v>
+        <v>GNQ Equatorial Guinea</v>
       </c>
       <c r="B96" s="506" t="s">
         <v>432</v>
@@ -21262,7 +21259,7 @@
     <row r="97" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="506" t="str">
         <f aca="false">'12.lan'!D414</f>
-        <v>GRC Greece </v>
+        <v>GRC Greece</v>
       </c>
       <c r="B97" s="506" t="s">
         <v>434</v>
@@ -21288,7 +21285,7 @@
     <row r="98" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="506" t="str">
         <f aca="false">'12.lan'!D415</f>
-        <v>GRD Grenada </v>
+        <v>GRD Grenada</v>
       </c>
       <c r="B98" s="506" t="s">
         <v>436</v>
@@ -21316,7 +21313,7 @@
     <row r="99" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="506" t="str">
         <f aca="false">'12.lan'!D416</f>
-        <v>GRL Greenland </v>
+        <v>GRL Greenland</v>
       </c>
       <c r="B99" s="506" t="s">
         <v>438</v>
@@ -21344,7 +21341,7 @@
     <row r="100" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="506" t="str">
         <f aca="false">'12.lan'!D417</f>
-        <v>GTM Guatemala </v>
+        <v>GTM Guatemala</v>
       </c>
       <c r="B100" s="506" t="s">
         <v>440</v>
@@ -21370,7 +21367,7 @@
     <row r="101" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="506" t="str">
         <f aca="false">'12.lan'!D418</f>
-        <v>GUM Guam </v>
+        <v>GUM Guam</v>
       </c>
       <c r="B101" s="506" t="s">
         <v>442</v>
@@ -21398,7 +21395,7 @@
     <row r="102" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="506" t="str">
         <f aca="false">'12.lan'!D419</f>
-        <v>GUY Guyana </v>
+        <v>GUY Guyana</v>
       </c>
       <c r="B102" s="506" t="s">
         <v>444</v>
@@ -21426,7 +21423,7 @@
     <row r="103" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="506" t="str">
         <f aca="false">'12.lan'!D420</f>
-        <v>HKG Hong Kong </v>
+        <v>HKG Hong Kong</v>
       </c>
       <c r="B103" s="506" t="s">
         <v>446</v>
@@ -21452,7 +21449,7 @@
     <row r="104" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="506" t="str">
         <f aca="false">'12.lan'!D421</f>
-        <v>HND Honduras </v>
+        <v>HND Honduras</v>
       </c>
       <c r="B104" s="506" t="s">
         <v>448</v>
@@ -21478,7 +21475,7 @@
     <row r="105" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="506" t="str">
         <f aca="false">'12.lan'!D422</f>
-        <v>HRV Croatia </v>
+        <v>HRV Croatia</v>
       </c>
       <c r="B105" s="506" t="s">
         <v>450</v>
@@ -21504,7 +21501,7 @@
     <row r="106" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="506" t="str">
         <f aca="false">'12.lan'!D423</f>
-        <v>HTI Haiti </v>
+        <v>HTI Haiti</v>
       </c>
       <c r="B106" s="506" t="s">
         <v>452</v>
@@ -21532,7 +21529,7 @@
     <row r="107" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="506" t="str">
         <f aca="false">'12.lan'!D424</f>
-        <v>HUN Hungary </v>
+        <v>HUN Hungary</v>
       </c>
       <c r="B107" s="506" t="s">
         <v>454</v>
@@ -21558,7 +21555,7 @@
     <row r="108" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="506" t="str">
         <f aca="false">'12.lan'!D425</f>
-        <v>IDN Indonesia </v>
+        <v>IDN Indonesia</v>
       </c>
       <c r="B108" s="506" t="s">
         <v>456</v>
@@ -21584,7 +21581,7 @@
     <row r="109" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="506" t="str">
         <f aca="false">'12.lan'!D426</f>
-        <v>IMN Isle of Man </v>
+        <v>IMN Isle of Man</v>
       </c>
       <c r="B109" s="506" t="s">
         <v>458</v>
@@ -21612,7 +21609,7 @@
     <row r="110" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="506" t="str">
         <f aca="false">'12.lan'!D427</f>
-        <v>IND India </v>
+        <v>IND India</v>
       </c>
       <c r="B110" s="506" t="s">
         <v>460</v>
@@ -21638,7 +21635,7 @@
     <row r="111" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="506" t="str">
         <f aca="false">'12.lan'!D428</f>
-        <v>IRL Ireland </v>
+        <v>IRL Ireland</v>
       </c>
       <c r="B111" s="506" t="s">
         <v>462</v>
@@ -21664,7 +21661,7 @@
     <row r="112" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="506" t="str">
         <f aca="false">'12.lan'!D429</f>
-        <v>IRN Iran, Islamic Republic of </v>
+        <v>IRN Iran, Islamic Republic of</v>
       </c>
       <c r="B112" s="506" t="s">
         <v>464</v>
@@ -21690,7 +21687,7 @@
     <row r="113" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="506" t="str">
         <f aca="false">'12.lan'!D430</f>
-        <v>IRQ Iraq </v>
+        <v>IRQ Iraq</v>
       </c>
       <c r="B113" s="506" t="s">
         <v>466</v>
@@ -21717,7 +21714,7 @@
     <row r="114" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="506" t="str">
         <f aca="false">'12.lan'!D431</f>
-        <v>ISL Iceland </v>
+        <v>ISL Iceland</v>
       </c>
       <c r="B114" s="506" t="s">
         <v>468</v>
@@ -21743,7 +21740,7 @@
     <row r="115" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="506" t="str">
         <f aca="false">'12.lan'!D432</f>
-        <v>ISR Israel </v>
+        <v>ISR Israel</v>
       </c>
       <c r="B115" s="506" t="s">
         <v>470</v>
@@ -21769,7 +21766,7 @@
     <row r="116" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="506" t="str">
         <f aca="false">'12.lan'!D433</f>
-        <v>ITA Italy </v>
+        <v>ITA Italy</v>
       </c>
       <c r="B116" s="506" t="s">
         <v>472</v>
@@ -21795,7 +21792,7 @@
     <row r="117" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="506" t="str">
         <f aca="false">'12.lan'!D434</f>
-        <v>JAM Jamaica </v>
+        <v>JAM Jamaica</v>
       </c>
       <c r="B117" s="506" t="s">
         <v>474</v>
@@ -21823,7 +21820,7 @@
     <row r="118" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="506" t="str">
         <f aca="false">'12.lan'!D435</f>
-        <v>JOR Jordan </v>
+        <v>JOR Jordan</v>
       </c>
       <c r="B118" s="506" t="s">
         <v>476</v>
@@ -21849,7 +21846,7 @@
     <row r="119" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="506" t="str">
         <f aca="false">'12.lan'!D436</f>
-        <v>JPN Japan </v>
+        <v>JPN Japan</v>
       </c>
       <c r="B119" s="506" t="s">
         <v>478</v>
@@ -21875,7 +21872,7 @@
     <row r="120" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="506" t="str">
         <f aca="false">'12.lan'!D437</f>
-        <v>KAZ Kazakhstan </v>
+        <v>KAZ Kazakhstan</v>
       </c>
       <c r="B120" s="506" t="s">
         <v>480</v>
@@ -21903,7 +21900,7 @@
     <row r="121" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="506" t="str">
         <f aca="false">'12.lan'!D438</f>
-        <v>KEN Kenya </v>
+        <v>KEN Kenya</v>
       </c>
       <c r="B121" s="506" t="s">
         <v>482</v>
@@ -21929,7 +21926,7 @@
     <row r="122" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="506" t="str">
         <f aca="false">'12.lan'!D439</f>
-        <v>KGZ Kyrgyzstan </v>
+        <v>KGZ Kyrgyzstan</v>
       </c>
       <c r="B122" s="506" t="s">
         <v>484</v>
@@ -21957,7 +21954,7 @@
     <row r="123" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="506" t="str">
         <f aca="false">'12.lan'!D440</f>
-        <v>KHM Cambodia </v>
+        <v>KHM Cambodia</v>
       </c>
       <c r="B123" s="506" t="s">
         <v>486</v>
@@ -21983,7 +21980,7 @@
     <row r="124" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="506" t="str">
         <f aca="false">'12.lan'!D441</f>
-        <v>KIR Kiribati </v>
+        <v>KIR Kiribati</v>
       </c>
       <c r="B124" s="506" t="s">
         <v>488</v>
@@ -22011,7 +22008,7 @@
     <row r="125" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="506" t="str">
         <f aca="false">'12.lan'!D442</f>
-        <v>KNA Saint Kitts and Nevis </v>
+        <v>KNA Saint Kitts and Nevis</v>
       </c>
       <c r="B125" s="506" t="s">
         <v>490</v>
@@ -22039,7 +22036,7 @@
     <row r="126" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="506" t="str">
         <f aca="false">'12.lan'!D443</f>
-        <v>KOR Korea, Republic of </v>
+        <v>KOR Korea, Republic of</v>
       </c>
       <c r="B126" s="506" t="s">
         <v>492</v>
@@ -22065,7 +22062,7 @@
     <row r="127" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="506" t="str">
         <f aca="false">'12.lan'!D444</f>
-        <v>KWT Kuwait </v>
+        <v>KWT Kuwait</v>
       </c>
       <c r="B127" s="506" t="s">
         <v>494</v>
@@ -22093,7 +22090,7 @@
     <row r="128" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="506" t="str">
         <f aca="false">'12.lan'!D445</f>
-        <v>LAO Lao People's Democratic Republic </v>
+        <v>LAO Lao People's Democratic Republic</v>
       </c>
       <c r="B128" s="506" t="s">
         <v>496</v>
@@ -22121,7 +22118,7 @@
     <row r="129" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="506" t="str">
         <f aca="false">'12.lan'!D446</f>
-        <v>LBN Lebanon </v>
+        <v>LBN Lebanon</v>
       </c>
       <c r="B129" s="506" t="s">
         <v>498</v>
@@ -22147,7 +22144,7 @@
     <row r="130" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="506" t="str">
         <f aca="false">'12.lan'!D447</f>
-        <v>LBR Liberia </v>
+        <v>LBR Liberia</v>
       </c>
       <c r="B130" s="506" t="s">
         <v>500</v>
@@ -22175,7 +22172,7 @@
     <row r="131" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="506" t="str">
         <f aca="false">'12.lan'!D448</f>
-        <v>LBY Libya </v>
+        <v>LBY Libya</v>
       </c>
       <c r="B131" s="506" t="s">
         <v>502</v>
@@ -22201,7 +22198,7 @@
     <row r="132" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="506" t="str">
         <f aca="false">'12.lan'!D449</f>
-        <v>LCA Saint Lucia </v>
+        <v>LCA Saint Lucia</v>
       </c>
       <c r="B132" s="506" t="s">
         <v>504</v>
@@ -22229,7 +22226,7 @@
     <row r="133" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="506" t="str">
         <f aca="false">'12.lan'!D450</f>
-        <v>LIE Liechtenstein </v>
+        <v>LIE Liechtenstein</v>
       </c>
       <c r="B133" s="506" t="s">
         <v>506</v>
@@ -22257,7 +22254,7 @@
     <row r="134" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="506" t="str">
         <f aca="false">'12.lan'!D451</f>
-        <v>LKA Sri Lanka </v>
+        <v>LKA Sri Lanka</v>
       </c>
       <c r="B134" s="506" t="s">
         <v>508</v>
@@ -22282,7 +22279,7 @@
     <row r="135" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="506" t="str">
         <f aca="false">'12.lan'!D452</f>
-        <v>LSO Lesotho </v>
+        <v>LSO Lesotho</v>
       </c>
       <c r="B135" s="506" t="s">
         <v>510</v>
@@ -22309,7 +22306,7 @@
     <row r="136" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="506" t="str">
         <f aca="false">'12.lan'!D453</f>
-        <v>LTU Lithuania </v>
+        <v>LTU Lithuania</v>
       </c>
       <c r="B136" s="506" t="s">
         <v>512</v>
@@ -22334,7 +22331,7 @@
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="506" t="str">
         <f aca="false">'12.lan'!D454</f>
-        <v>LUX Luxembourg </v>
+        <v>LUX Luxembourg</v>
       </c>
       <c r="B137" s="506" t="s">
         <v>514</v>
@@ -22363,7 +22360,7 @@
     <row r="138" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="506" t="str">
         <f aca="false">'12.lan'!D455</f>
-        <v>LVA Latvia </v>
+        <v>LVA Latvia</v>
       </c>
       <c r="B138" s="506" t="s">
         <v>516</v>
@@ -22389,7 +22386,7 @@
     <row r="139" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="506" t="str">
         <f aca="false">'12.lan'!D456</f>
-        <v>MAC Macao </v>
+        <v>MAC Macao</v>
       </c>
       <c r="B139" s="506" t="s">
         <v>518</v>
@@ -22417,7 +22414,7 @@
     <row r="140" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="506" t="str">
         <f aca="false">'12.lan'!D457</f>
-        <v>MAF Saint Martin (French part) </v>
+        <v>MAF Saint Martin (French part)</v>
       </c>
       <c r="B140" s="506" t="s">
         <v>520</v>
@@ -22445,7 +22442,7 @@
     <row r="141" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="506" t="str">
         <f aca="false">'12.lan'!D458</f>
-        <v>MAR Morocco </v>
+        <v>MAR Morocco</v>
       </c>
       <c r="B141" s="506" t="s">
         <v>522</v>
@@ -22471,7 +22468,7 @@
     <row r="142" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="506" t="str">
         <f aca="false">'12.lan'!D459</f>
-        <v>MCO Monaco </v>
+        <v>MCO Monaco</v>
       </c>
       <c r="B142" s="506" t="s">
         <v>524</v>
@@ -22499,7 +22496,7 @@
     <row r="143" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="506" t="str">
         <f aca="false">'12.lan'!D460</f>
-        <v>MDA Moldova, Republic of </v>
+        <v>MDA Moldova, Republic of</v>
       </c>
       <c r="B143" s="506" t="s">
         <v>526</v>
@@ -22527,7 +22524,7 @@
     <row r="144" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="506" t="str">
         <f aca="false">'12.lan'!D461</f>
-        <v>MDG Madagascar </v>
+        <v>MDG Madagascar</v>
       </c>
       <c r="B144" s="506" t="s">
         <v>528</v>
@@ -22555,7 +22552,7 @@
     <row r="145" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="506" t="str">
         <f aca="false">'12.lan'!D462</f>
-        <v>MDV Maldives </v>
+        <v>MDV Maldives</v>
       </c>
       <c r="B145" s="506" t="s">
         <v>530</v>
@@ -22583,7 +22580,7 @@
     <row r="146" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="506" t="str">
         <f aca="false">'12.lan'!D463</f>
-        <v>MEX Mexico </v>
+        <v>MEX Mexico</v>
       </c>
       <c r="B146" s="506" t="s">
         <v>532</v>
@@ -22609,7 +22606,7 @@
     <row r="147" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="506" t="str">
         <f aca="false">'12.lan'!D464</f>
-        <v>MHL Marshall Islands </v>
+        <v>MHL Marshall Islands</v>
       </c>
       <c r="B147" s="506" t="s">
         <v>534</v>
@@ -22637,7 +22634,7 @@
     <row r="148" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="506" t="str">
         <f aca="false">'12.lan'!D465</f>
-        <v>MKD Macedonia, The Former Yugoslav Republic of </v>
+        <v>MKD Macedonia, The Former Yugoslav Republic of</v>
       </c>
       <c r="B148" s="506" t="s">
         <v>536</v>
@@ -22665,7 +22662,7 @@
     <row r="149" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="506" t="str">
         <f aca="false">'12.lan'!D466</f>
-        <v>MLI Mali </v>
+        <v>MLI Mali</v>
       </c>
       <c r="B149" s="506" t="s">
         <v>538</v>
@@ -22693,7 +22690,7 @@
     <row r="150" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="506" t="str">
         <f aca="false">'12.lan'!D467</f>
-        <v>MLT Malta </v>
+        <v>MLT Malta</v>
       </c>
       <c r="B150" s="506" t="s">
         <v>540</v>
@@ -22721,7 +22718,7 @@
     <row r="151" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="506" t="str">
         <f aca="false">'12.lan'!D468</f>
-        <v>MMR Myanmar </v>
+        <v>MMR Myanmar</v>
       </c>
       <c r="B151" s="506" t="s">
         <v>542</v>
@@ -22747,7 +22744,7 @@
     <row r="152" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="506" t="str">
         <f aca="false">'12.lan'!D469</f>
-        <v>MNE Montenegro </v>
+        <v>MNE Montenegro</v>
       </c>
       <c r="B152" s="506" t="s">
         <v>544</v>
@@ -22775,7 +22772,7 @@
     <row r="153" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="506" t="str">
         <f aca="false">'12.lan'!D470</f>
-        <v>MNG Mongolia </v>
+        <v>MNG Mongolia</v>
       </c>
       <c r="B153" s="506" t="s">
         <v>546</v>
@@ -22803,7 +22800,7 @@
     <row r="154" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="506" t="str">
         <f aca="false">'12.lan'!D471</f>
-        <v>MNP Northern Mariana Islands </v>
+        <v>MNP Northern Mariana Islands</v>
       </c>
       <c r="B154" s="506" t="s">
         <v>548</v>
@@ -22831,7 +22828,7 @@
     <row r="155" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="506" t="str">
         <f aca="false">'12.lan'!D472</f>
-        <v>MOZ Mozambique </v>
+        <v>MOZ Mozambique</v>
       </c>
       <c r="B155" s="506" t="s">
         <v>550</v>
@@ -22857,7 +22854,7 @@
     <row r="156" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="506" t="str">
         <f aca="false">'12.lan'!D473</f>
-        <v>MRT Mauritania </v>
+        <v>MRT Mauritania</v>
       </c>
       <c r="B156" s="506" t="s">
         <v>552</v>
@@ -22885,7 +22882,7 @@
     <row r="157" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="506" t="str">
         <f aca="false">'12.lan'!D474</f>
-        <v>MUS Mauritius </v>
+        <v>MUS Mauritius</v>
       </c>
       <c r="B157" s="506" t="s">
         <v>554</v>
@@ -22913,7 +22910,7 @@
     <row r="158" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="506" t="str">
         <f aca="false">'12.lan'!D475</f>
-        <v>MWI Malawi </v>
+        <v>MWI Malawi</v>
       </c>
       <c r="B158" s="506" t="s">
         <v>556</v>
@@ -22941,7 +22938,7 @@
     <row r="159" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="506" t="str">
         <f aca="false">'12.lan'!D476</f>
-        <v>MYS Malaysia </v>
+        <v>MYS Malaysia</v>
       </c>
       <c r="B159" s="506" t="s">
         <v>558</v>
@@ -22967,7 +22964,7 @@
     <row r="160" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="506" t="str">
         <f aca="false">'12.lan'!D477</f>
-        <v>NAM Namibia </v>
+        <v>NAM Namibia</v>
       </c>
       <c r="B160" s="506" t="s">
         <v>560</v>
@@ -22993,7 +22990,7 @@
     <row r="161" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="506" t="str">
         <f aca="false">'12.lan'!D478</f>
-        <v>NCL New Caledonia </v>
+        <v>NCL New Caledonia</v>
       </c>
       <c r="B161" s="506" t="s">
         <v>562</v>
@@ -23021,7 +23018,7 @@
     <row r="162" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="506" t="str">
         <f aca="false">'12.lan'!D479</f>
-        <v>NER Niger </v>
+        <v>NER Niger</v>
       </c>
       <c r="B162" s="506" t="s">
         <v>564</v>
@@ -23049,7 +23046,7 @@
     <row r="163" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="506" t="str">
         <f aca="false">'12.lan'!D480</f>
-        <v>NGA Nigeria </v>
+        <v>NGA Nigeria</v>
       </c>
       <c r="B163" s="506" t="s">
         <v>566</v>
@@ -23075,7 +23072,7 @@
     <row r="164" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="506" t="str">
         <f aca="false">'12.lan'!D481</f>
-        <v>NIC Nicaragua </v>
+        <v>NIC Nicaragua</v>
       </c>
       <c r="B164" s="506" t="s">
         <v>568</v>
@@ -23103,7 +23100,7 @@
     <row r="165" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="506" t="str">
         <f aca="false">'12.lan'!D482</f>
-        <v>NLD Netherlands </v>
+        <v>NLD Netherlands</v>
       </c>
       <c r="B165" s="506" t="s">
         <v>570</v>
@@ -23129,7 +23126,7 @@
     <row r="166" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="506" t="str">
         <f aca="false">'12.lan'!D483</f>
-        <v>NOR Norway </v>
+        <v>NOR Norway</v>
       </c>
       <c r="B166" s="506" t="s">
         <v>572</v>
@@ -23155,7 +23152,7 @@
     <row r="167" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="506" t="str">
         <f aca="false">'12.lan'!D484</f>
-        <v>NPL Nepal </v>
+        <v>NPL Nepal</v>
       </c>
       <c r="B167" s="506" t="s">
         <v>574</v>
@@ -23181,7 +23178,7 @@
     <row r="168" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="506" t="str">
         <f aca="false">'12.lan'!D485</f>
-        <v>NRU Nauru </v>
+        <v>NRU Nauru</v>
       </c>
       <c r="B168" s="506" t="s">
         <v>576</v>
@@ -23209,7 +23206,7 @@
     <row r="169" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="506" t="str">
         <f aca="false">'12.lan'!D486</f>
-        <v>NZL New Zealand </v>
+        <v>NZL New Zealand</v>
       </c>
       <c r="B169" s="506" t="s">
         <v>578</v>
@@ -23237,7 +23234,7 @@
     <row r="170" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="506" t="str">
         <f aca="false">'12.lan'!D487</f>
-        <v>OMN Oman </v>
+        <v>OMN Oman</v>
       </c>
       <c r="B170" s="506" t="s">
         <v>580</v>
@@ -23263,7 +23260,7 @@
     <row r="171" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="506" t="str">
         <f aca="false">'12.lan'!D488</f>
-        <v>PAK Pakistan </v>
+        <v>PAK Pakistan</v>
       </c>
       <c r="B171" s="506" t="s">
         <v>582</v>
@@ -23289,7 +23286,7 @@
     <row r="172" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="506" t="str">
         <f aca="false">'12.lan'!D489</f>
-        <v>PAN Panama </v>
+        <v>PAN Panama</v>
       </c>
       <c r="B172" s="506" t="s">
         <v>584</v>
@@ -23315,7 +23312,7 @@
     <row r="173" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="506" t="str">
         <f aca="false">'12.lan'!D490</f>
-        <v>PER Peru </v>
+        <v>PER Peru</v>
       </c>
       <c r="B173" s="506" t="s">
         <v>586</v>
@@ -23341,7 +23338,7 @@
     <row r="174" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="506" t="str">
         <f aca="false">'12.lan'!D491</f>
-        <v>PHL Philippines </v>
+        <v>PHL Philippines</v>
       </c>
       <c r="B174" s="506" t="s">
         <v>588</v>
@@ -23367,7 +23364,7 @@
     <row r="175" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="506" t="str">
         <f aca="false">'12.lan'!D492</f>
-        <v>PLW Palau </v>
+        <v>PLW Palau</v>
       </c>
       <c r="B175" s="506" t="s">
         <v>590</v>
@@ -23395,7 +23392,7 @@
     <row r="176" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="506" t="str">
         <f aca="false">'12.lan'!D493</f>
-        <v>PNG Papua New Guinea </v>
+        <v>PNG Papua New Guinea</v>
       </c>
       <c r="B176" s="506" t="s">
         <v>592</v>
@@ -23423,7 +23420,7 @@
     <row r="177" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="506" t="str">
         <f aca="false">'12.lan'!D494</f>
-        <v>POL Poland </v>
+        <v>POL Poland</v>
       </c>
       <c r="B177" s="506" t="s">
         <v>594</v>
@@ -23449,7 +23446,7 @@
     <row r="178" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="506" t="str">
         <f aca="false">'12.lan'!D495</f>
-        <v>PRI Puerto Rico </v>
+        <v>PRI Puerto Rico</v>
       </c>
       <c r="B178" s="506" t="s">
         <v>596</v>
@@ -23477,7 +23474,7 @@
     <row r="179" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="506" t="str">
         <f aca="false">'12.lan'!D496</f>
-        <v>PRK Korea, Democratic People's Republic of </v>
+        <v>PRK Korea, Democratic People's Republic of</v>
       </c>
       <c r="B179" s="506" t="s">
         <v>598</v>
@@ -23505,7 +23502,7 @@
     <row r="180" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="506" t="str">
         <f aca="false">'12.lan'!D497</f>
-        <v>PRT Portugal </v>
+        <v>PRT Portugal</v>
       </c>
       <c r="B180" s="506" t="s">
         <v>600</v>
@@ -23531,7 +23528,7 @@
     <row r="181" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="506" t="str">
         <f aca="false">'12.lan'!D498</f>
-        <v>PRY Paraguay </v>
+        <v>PRY Paraguay</v>
       </c>
       <c r="B181" s="506" t="s">
         <v>602</v>
@@ -23557,7 +23554,7 @@
     <row r="182" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="506" t="str">
         <f aca="false">'12.lan'!D499</f>
-        <v>PSE Palestinian Territory, Occupied </v>
+        <v>PSE Palestinian Territory, Occupied</v>
       </c>
       <c r="B182" s="506" t="s">
         <v>604</v>
@@ -23585,7 +23582,7 @@
     <row r="183" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="506" t="str">
         <f aca="false">'12.lan'!D500</f>
-        <v>PYF French Polynesia </v>
+        <v>PYF French Polynesia</v>
       </c>
       <c r="B183" s="506" t="s">
         <v>606</v>
@@ -23614,7 +23611,7 @@
     <row r="184" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="506" t="str">
         <f aca="false">'12.lan'!D501</f>
-        <v>QAT Qatar </v>
+        <v>QAT Qatar</v>
       </c>
       <c r="B184" s="506" t="s">
         <v>608</v>
@@ -23640,7 +23637,7 @@
     <row r="185" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="506" t="str">
         <f aca="false">'12.lan'!D502</f>
-        <v>ROU Romania </v>
+        <v>ROU Romania</v>
       </c>
       <c r="B185" s="506" t="s">
         <v>610</v>
@@ -23666,7 +23663,7 @@
     <row r="186" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="506" t="str">
         <f aca="false">'12.lan'!D503</f>
-        <v>RUS Russian Federation </v>
+        <v>RUS Russian Federation</v>
       </c>
       <c r="B186" s="506" t="s">
         <v>612</v>
@@ -23692,7 +23689,7 @@
     <row r="187" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="506" t="str">
         <f aca="false">'12.lan'!D504</f>
-        <v>RWA Rwanda </v>
+        <v>RWA Rwanda</v>
       </c>
       <c r="B187" s="506" t="s">
         <v>614</v>
@@ -23720,7 +23717,7 @@
     <row r="188" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="506" t="str">
         <f aca="false">'12.lan'!D505</f>
-        <v>SAU Saudi Arabia </v>
+        <v>SAU Saudi Arabia</v>
       </c>
       <c r="B188" s="506" t="s">
         <v>616</v>
@@ -23746,7 +23743,7 @@
     <row r="189" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="506" t="str">
         <f aca="false">'12.lan'!D506</f>
-        <v>SDN Sudan </v>
+        <v>SDN Sudan</v>
       </c>
       <c r="B189" s="506" t="s">
         <v>618</v>
@@ -23772,7 +23769,7 @@
     <row r="190" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="506" t="str">
         <f aca="false">'12.lan'!D507</f>
-        <v>SEN Senegal </v>
+        <v>SEN Senegal</v>
       </c>
       <c r="B190" s="506" t="s">
         <v>620</v>
@@ -23798,7 +23795,7 @@
     <row r="191" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="506" t="str">
         <f aca="false">'12.lan'!D508</f>
-        <v>SGP Singapore </v>
+        <v>SGP Singapore</v>
       </c>
       <c r="B191" s="506" t="s">
         <v>622</v>
@@ -23824,7 +23821,7 @@
     <row r="192" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="506" t="str">
         <f aca="false">'12.lan'!D509</f>
-        <v>SLB Solomon Islands </v>
+        <v>SLB Solomon Islands</v>
       </c>
       <c r="B192" s="506" t="s">
         <v>624</v>
@@ -23852,7 +23849,7 @@
     <row r="193" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="506" t="str">
         <f aca="false">'12.lan'!D510</f>
-        <v>SLE Sierra Leone </v>
+        <v>SLE Sierra Leone</v>
       </c>
       <c r="B193" s="506" t="s">
         <v>626</v>
@@ -23880,7 +23877,7 @@
     <row r="194" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="506" t="str">
         <f aca="false">'12.lan'!D511</f>
-        <v>SLV El Salvador </v>
+        <v>SLV El Salvador</v>
       </c>
       <c r="B194" s="506" t="s">
         <v>628</v>
@@ -23906,7 +23903,7 @@
     <row r="195" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="506" t="str">
         <f aca="false">'12.lan'!D512</f>
-        <v>SMR San Marino </v>
+        <v>SMR San Marino</v>
       </c>
       <c r="B195" s="506" t="s">
         <v>630</v>
@@ -23934,7 +23931,7 @@
     <row r="196" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="506" t="str">
         <f aca="false">'12.lan'!D513</f>
-        <v>SOM Somalia </v>
+        <v>SOM Somalia</v>
       </c>
       <c r="B196" s="506" t="s">
         <v>632</v>
@@ -23962,7 +23959,7 @@
     <row r="197" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="506" t="str">
         <f aca="false">'12.lan'!D514</f>
-        <v>SRB Serbia </v>
+        <v>SRB Serbia</v>
       </c>
       <c r="B197" s="506" t="s">
         <v>634</v>
@@ -23988,7 +23985,7 @@
     <row r="198" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="506" t="str">
         <f aca="false">'12.lan'!D515</f>
-        <v>SSD South Sudan </v>
+        <v>SSD South Sudan</v>
       </c>
       <c r="B198" s="506" t="s">
         <v>636</v>
@@ -24016,7 +24013,7 @@
     <row r="199" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="506" t="str">
         <f aca="false">'12.lan'!D516</f>
-        <v>STP Sao Tome and Principe </v>
+        <v>STP Sao Tome and Principe</v>
       </c>
       <c r="B199" s="506" t="s">
         <v>638</v>
@@ -24044,7 +24041,7 @@
     <row r="200" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="506" t="str">
         <f aca="false">'12.lan'!D517</f>
-        <v>SUR Suriname </v>
+        <v>SUR Suriname</v>
       </c>
       <c r="B200" s="506" t="s">
         <v>640</v>
@@ -24072,7 +24069,7 @@
     <row r="201" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="506" t="str">
         <f aca="false">'12.lan'!D518</f>
-        <v>SVK Slovakia </v>
+        <v>SVK Slovakia</v>
       </c>
       <c r="B201" s="506" t="s">
         <v>642</v>
@@ -24098,7 +24095,7 @@
     <row r="202" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="506" t="str">
         <f aca="false">'12.lan'!D519</f>
-        <v>SVN Slovenia </v>
+        <v>SVN Slovenia</v>
       </c>
       <c r="B202" s="506" t="s">
         <v>644</v>
@@ -24124,7 +24121,7 @@
     <row r="203" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="506" t="str">
         <f aca="false">'12.lan'!D520</f>
-        <v>SWE Sweden </v>
+        <v>SWE Sweden</v>
       </c>
       <c r="B203" s="506" t="s">
         <v>646</v>
@@ -24150,7 +24147,7 @@
     <row r="204" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="506" t="str">
         <f aca="false">'12.lan'!D521</f>
-        <v>SWZ Swaziland </v>
+        <v>SWZ Swaziland</v>
       </c>
       <c r="B204" s="506" t="s">
         <v>648</v>
@@ -24178,7 +24175,7 @@
     <row r="205" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="506" t="str">
         <f aca="false">'12.lan'!D522</f>
-        <v>SXM Sint Maarten (Dutch part) </v>
+        <v>SXM Sint Maarten (Dutch part)</v>
       </c>
       <c r="B205" s="506" t="s">
         <v>650</v>
@@ -24207,7 +24204,7 @@
     <row r="206" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="506" t="str">
         <f aca="false">'12.lan'!D523</f>
-        <v>SYC Seychelles </v>
+        <v>SYC Seychelles</v>
       </c>
       <c r="B206" s="506" t="s">
         <v>652</v>
@@ -24235,7 +24232,7 @@
     <row r="207" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="506" t="str">
         <f aca="false">'12.lan'!D524</f>
-        <v>SYR Syrian Arab Republic </v>
+        <v>SYR Syrian Arab Republic</v>
       </c>
       <c r="B207" s="506" t="s">
         <v>654</v>
@@ -24263,7 +24260,7 @@
     <row r="208" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="506" t="str">
         <f aca="false">'12.lan'!D525</f>
-        <v>TCA Turks and Caicos Islands </v>
+        <v>TCA Turks and Caicos Islands</v>
       </c>
       <c r="B208" s="506" t="s">
         <v>656</v>
@@ -24291,7 +24288,7 @@
     <row r="209" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="506" t="str">
         <f aca="false">'12.lan'!D526</f>
-        <v>TCD Chad </v>
+        <v>TCD Chad</v>
       </c>
       <c r="B209" s="506" t="s">
         <v>658</v>
@@ -24317,7 +24314,7 @@
     <row r="210" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="506" t="str">
         <f aca="false">'12.lan'!D527</f>
-        <v>TGO Togo </v>
+        <v>TGO Togo</v>
       </c>
       <c r="B210" s="506" t="s">
         <v>660</v>
@@ -24345,7 +24342,7 @@
     <row r="211" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="506" t="str">
         <f aca="false">'12.lan'!D528</f>
-        <v>THA Thailand </v>
+        <v>THA Thailand</v>
       </c>
       <c r="B211" s="506" t="s">
         <v>662</v>
@@ -24371,7 +24368,7 @@
     <row r="212" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="506" t="str">
         <f aca="false">'12.lan'!D529</f>
-        <v>TJK Tajikistan </v>
+        <v>TJK Tajikistan</v>
       </c>
       <c r="B212" s="506" t="s">
         <v>664</v>
@@ -24399,7 +24396,7 @@
     <row r="213" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="506" t="str">
         <f aca="false">'12.lan'!D530</f>
-        <v>TKM Turkmenistan </v>
+        <v>TKM Turkmenistan</v>
       </c>
       <c r="B213" s="506" t="s">
         <v>666</v>
@@ -24427,7 +24424,7 @@
     <row r="214" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="506" t="str">
         <f aca="false">'12.lan'!D531</f>
-        <v>TLS Timor-Leste </v>
+        <v>TLS Timor-Leste</v>
       </c>
       <c r="B214" s="506" t="s">
         <v>668</v>
@@ -24455,7 +24452,7 @@
     <row r="215" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="506" t="str">
         <f aca="false">'12.lan'!D532</f>
-        <v>TON Tonga </v>
+        <v>TON Tonga</v>
       </c>
       <c r="B215" s="506" t="s">
         <v>670</v>
@@ -24483,7 +24480,7 @@
     <row r="216" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="506" t="str">
         <f aca="false">'12.lan'!D533</f>
-        <v>TTO Trinidad and Tobago </v>
+        <v>TTO Trinidad and Tobago</v>
       </c>
       <c r="B216" s="506" t="s">
         <v>672</v>
@@ -24511,7 +24508,7 @@
     <row r="217" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="506" t="str">
         <f aca="false">'12.lan'!D534</f>
-        <v>TUN Tunisia </v>
+        <v>TUN Tunisia</v>
       </c>
       <c r="B217" s="506" t="s">
         <v>674</v>
@@ -24539,7 +24536,7 @@
     <row r="218" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="506" t="str">
         <f aca="false">'12.lan'!D535</f>
-        <v>TUR Turkey </v>
+        <v>TUR Turkey</v>
       </c>
       <c r="B218" s="506" t="s">
         <v>676</v>
@@ -24565,7 +24562,7 @@
     <row r="219" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="506" t="str">
         <f aca="false">'12.lan'!D536</f>
-        <v>TUV Tuvalu </v>
+        <v>TUV Tuvalu</v>
       </c>
       <c r="B219" s="506" t="s">
         <v>678</v>
@@ -24593,7 +24590,7 @@
     <row r="220" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="506" t="str">
         <f aca="false">'12.lan'!D537</f>
-        <v>TZA Tanzania, United Republic of </v>
+        <v>TZA Tanzania, United Republic of</v>
       </c>
       <c r="B220" s="506" t="s">
         <v>680</v>
@@ -24619,7 +24616,7 @@
     <row r="221" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="506" t="str">
         <f aca="false">'12.lan'!D538</f>
-        <v>UGA Uganda </v>
+        <v>UGA Uganda</v>
       </c>
       <c r="B221" s="506" t="s">
         <v>682</v>
@@ -24645,7 +24642,7 @@
     <row r="222" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="506" t="str">
         <f aca="false">'12.lan'!D539</f>
-        <v>UKR Ukraine </v>
+        <v>UKR Ukraine</v>
       </c>
       <c r="B222" s="506" t="s">
         <v>684</v>
@@ -24671,7 +24668,7 @@
     <row r="223" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="506" t="str">
         <f aca="false">'12.lan'!D540</f>
-        <v>URY Uruguay </v>
+        <v>URY Uruguay</v>
       </c>
       <c r="B223" s="506" t="s">
         <v>686</v>
@@ -24697,7 +24694,7 @@
     <row r="224" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="506" t="str">
         <f aca="false">'12.lan'!D541</f>
-        <v>USA United States </v>
+        <v>USA United States</v>
       </c>
       <c r="B224" s="506" t="s">
         <v>688</v>
@@ -24723,7 +24720,7 @@
     <row r="225" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="506" t="str">
         <f aca="false">'12.lan'!D542</f>
-        <v>UZB Uzbekistan </v>
+        <v>UZB Uzbekistan</v>
       </c>
       <c r="B225" s="506" t="s">
         <v>690</v>
@@ -24751,7 +24748,7 @@
     <row r="226" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="506" t="str">
         <f aca="false">'12.lan'!D543</f>
-        <v>VCT Saint Vincent and the Grenadines </v>
+        <v>VCT Saint Vincent and the Grenadines</v>
       </c>
       <c r="B226" s="506" t="s">
         <v>692</v>
@@ -24779,7 +24776,7 @@
     <row r="227" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="506" t="str">
         <f aca="false">'12.lan'!D544</f>
-        <v>VEN Venezuela, Bolivarian Republic of </v>
+        <v>VEN Venezuela, Bolivarian Republic of</v>
       </c>
       <c r="B227" s="506" t="s">
         <v>694</v>
@@ -24805,7 +24802,7 @@
     <row r="228" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="506" t="str">
         <f aca="false">'12.lan'!D545</f>
-        <v>VGB Virgin Islands, British </v>
+        <v>VGB Virgin Islands, British</v>
       </c>
       <c r="B228" s="506" t="s">
         <v>696</v>
@@ -24833,7 +24830,7 @@
     <row r="229" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="506" t="str">
         <f aca="false">'12.lan'!D546</f>
-        <v>VIR Virgin Islands, U.S. </v>
+        <v>VIR Virgin Islands, U.S.</v>
       </c>
       <c r="B229" s="506" t="s">
         <v>698</v>
@@ -24861,7 +24858,7 @@
     <row r="230" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="506" t="str">
         <f aca="false">'12.lan'!D547</f>
-        <v>VNM Viet Nam </v>
+        <v>VNM Viet Nam</v>
       </c>
       <c r="B230" s="506" t="s">
         <v>700</v>
@@ -24889,7 +24886,7 @@
     <row r="231" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="506" t="str">
         <f aca="false">'12.lan'!D548</f>
-        <v>VUT Vanuatu </v>
+        <v>VUT Vanuatu</v>
       </c>
       <c r="B231" s="506" t="s">
         <v>702</v>
@@ -24917,7 +24914,7 @@
     <row r="232" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="506" t="str">
         <f aca="false">'12.lan'!D549</f>
-        <v>WSM Samoa </v>
+        <v>WSM Samoa</v>
       </c>
       <c r="B232" s="506" t="s">
         <v>704</v>
@@ -24973,7 +24970,7 @@
     <row r="234" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="506" t="str">
         <f aca="false">'12.lan'!D551</f>
-        <v>YEM Yemen </v>
+        <v>YEM Yemen</v>
       </c>
       <c r="B234" s="506" t="s">
         <v>708</v>
@@ -25001,7 +24998,7 @@
     <row r="235" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="506" t="str">
         <f aca="false">'12.lan'!D552</f>
-        <v>ZAF South Africa </v>
+        <v>ZAF South Africa</v>
       </c>
       <c r="B235" s="506" t="s">
         <v>710</v>
@@ -25028,7 +25025,7 @@
     <row r="236" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="506" t="str">
         <f aca="false">'12.lan'!D553</f>
-        <v>ZMB Zambia </v>
+        <v>ZMB Zambia</v>
       </c>
       <c r="B236" s="506" t="s">
         <v>712</v>
@@ -25054,7 +25051,7 @@
     <row r="237" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="506" t="str">
         <f aca="false">'12.lan'!D554</f>
-        <v>ZWE Zimbabwe </v>
+        <v>ZWE Zimbabwe</v>
       </c>
       <c r="B237" s="506" t="s">
         <v>714</v>
@@ -25549,15 +25546,15 @@
   <dimension ref="A1:K65535"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="5235" topLeftCell="A1" activePane="topLeft" state="split"/>
+      <pane xSplit="0" ySplit="5250" topLeftCell="A1" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="520" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="520" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="520" width="27.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="520" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="520" width="56.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="520" width="43"/>
@@ -27602,7 +27599,7 @@
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D94" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D94))</f>
-        <v>Stakeholders </v>
+        <v>Stakeholders</v>
       </c>
       <c r="E94" s="521" t="s">
         <v>1085</v>
@@ -29431,7 +29428,7 @@
       </c>
       <c r="D168" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D168))</f>
-        <v>Environmental cost-benefit ration of products and services (efficiency and consistency) </v>
+        <v>Environmental cost-benefit ration of products and services (efficiency and consistency)</v>
       </c>
       <c r="E168" s="103" t="s">
         <v>1442</v>
@@ -30347,7 +30344,7 @@
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D210" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D210))</f>
-        <v> (scaled for STs)</v>
+        <v>(scaled for STs)</v>
       </c>
       <c r="E210" s="521" t="s">
         <v>1614</v>
@@ -30368,7 +30365,7 @@
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D211" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D211))</f>
-        <v> (not relevant for STs)</v>
+        <v>(not relevant for STs)</v>
       </c>
       <c r="E211" s="521" t="s">
         <v>1619</v>
@@ -30452,7 +30449,7 @@
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D215" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D215))</f>
-        <v> points</v>
+        <v>points</v>
       </c>
       <c r="E215" s="521" t="s">
         <v>1638</v>
@@ -30989,7 +30986,7 @@
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D240" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D240))</f>
-        <v>Weighting changed. Original </v>
+        <v>Weighting changed. Original</v>
       </c>
       <c r="E240" s="521" t="s">
         <v>1740</v>
@@ -31010,7 +31007,7 @@
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D241" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D241))</f>
-        <v>Values star for </v>
+        <v>Values star for</v>
       </c>
       <c r="E241" s="521" t="s">
         <v>1745</v>
@@ -31031,7 +31028,7 @@
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D242" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D242))</f>
-        <v>Group star for </v>
+        <v>Group star for</v>
       </c>
       <c r="E242" s="521" t="s">
         <v>1750</v>
@@ -31052,7 +31049,7 @@
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D243" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D243))</f>
-        <v>Theme star for </v>
+        <v>Theme star for</v>
       </c>
       <c r="E243" s="521" t="s">
         <v>1755</v>
@@ -31077,7 +31074,7 @@
       </c>
       <c r="D244" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D244))</f>
-        <v>The allocation of equal and fixed scores for all companies has been the subject of much discussion within the Matrix-development team during the past few years. Outside sources have also raised many questions and provided feedback. Untill now, the way points are distributed for themes has been the same for all companies (with the exception of one-person companies), regardless of company size, industry and other parameters (regional background, B2B versus B2C, etc.). However, these variables may well have an effect on the relevance to and effect on the common good.For example, the supply chain of an electronics trading company (A1-A4) is more significant than for a mining company, which, in turn, leaves a huge, direct environmental impact, amongst other things (E3). The new weighting model addresses these issues and highlights the significant factors. A survey on the changes was conducted, with feedback clearly favouring a new approach. </v>
+        <v>The allocation of equal and fixed scores for all companies has been the subject of much discussion within the Matrix-development team during the past few years. Outside sources have also raised many questions and provided feedback. Untill now, the way points are distributed for themes has been the same for all companies (with the exception of one-person companies), regardless of company size, industry and other parameters (regional background, B2B versus B2C, etc.). However, these variables may well have an effect on the relevance to and effect on the common good.For example, the supply chain of an electronics trading company (A1-A4) is more significant than for a mining company, which, in turn, leaves a huge, direct environmental impact, amongst other things (E3). The new weighting model addresses these issues and highlights the significant factors. A survey on the changes was conducted, with feedback clearly favouring a new approach.</v>
       </c>
       <c r="E244" s="550" t="s">
         <v>1760</v>
@@ -31383,7 +31380,7 @@
       </c>
       <c r="D257" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D257))</f>
-        <v>The weighting of this theme is dependent on the existence of a canteen for most of the employees as well as an (estimated) average commute to work. </v>
+        <v>The weighting of this theme is dependent on the existence of a canteen for most of the employees as well as an (estimated) average commute to work.</v>
       </c>
       <c r="E257" s="553" t="s">
         <v>1810</v>
@@ -32884,7 +32881,7 @@
     <row r="328" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D328" s="524" t="str">
         <f aca="false">HLOOKUP($C$1,$E$1:$V$4910,ROW(D328))</f>
-        <v>[en]In diesem Tabellenblatt wird die Gemeinwohlbilanz berechnet. </v>
+        <v>[en]In diesem Tabellenblatt wird die Gemeinwohlbilanz berechnet.</v>
       </c>
       <c r="E328" s="527" t="s">
         <v>2125</v>
@@ -32894,7 +32891,7 @@
       </c>
       <c r="G328" s="521" t="str">
         <f aca="false">"[en]"&amp;E328</f>
-        <v>[en]In diesem Tabellenblatt wird die Gemeinwohlbilanz berechnet. </v>
+        <v>[en]In diesem Tabellenblatt wird die Gemeinwohlbilanz berechnet.</v>
       </c>
       <c r="H328" s="521" t="s">
         <v>2127</v>
@@ -33132,7 +33129,7 @@
       </c>
       <c r="D339" s="524" t="str">
         <f aca="false">A339&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D339))</f>
-        <v>ABW Aruba </v>
+        <v>ABW Aruba</v>
       </c>
       <c r="E339" s="562" t="s">
         <v>278</v>
@@ -33169,7 +33166,7 @@
       </c>
       <c r="D340" s="524" t="str">
         <f aca="false">A340&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D340))</f>
-        <v>AFG Afghanistan </v>
+        <v>AFG Afghanistan</v>
       </c>
       <c r="E340" s="562" t="s">
         <v>282</v>
@@ -33206,7 +33203,7 @@
       </c>
       <c r="D341" s="524" t="str">
         <f aca="false">A341&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D341))</f>
-        <v>AGO Angola </v>
+        <v>AGO Angola</v>
       </c>
       <c r="E341" s="562" t="s">
         <v>285</v>
@@ -33243,7 +33240,7 @@
       </c>
       <c r="D342" s="524" t="str">
         <f aca="false">A342&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D342))</f>
-        <v>ALB Albania </v>
+        <v>ALB Albania</v>
       </c>
       <c r="E342" s="562" t="s">
         <v>2175</v>
@@ -33280,7 +33277,7 @@
       </c>
       <c r="D343" s="524" t="str">
         <f aca="false">A343&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D343))</f>
-        <v>AND Andorra </v>
+        <v>AND Andorra</v>
       </c>
       <c r="E343" s="562" t="s">
         <v>291</v>
@@ -33317,7 +33314,7 @@
       </c>
       <c r="D344" s="524" t="str">
         <f aca="false">A344&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D344))</f>
-        <v>ARE United Arab Emirates </v>
+        <v>ARE United Arab Emirates</v>
       </c>
       <c r="E344" s="562" t="s">
         <v>2184</v>
@@ -33354,7 +33351,7 @@
       </c>
       <c r="D345" s="524" t="str">
         <f aca="false">A345&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D345))</f>
-        <v>ARG Argentina </v>
+        <v>ARG Argentina</v>
       </c>
       <c r="E345" s="562" t="s">
         <v>2191</v>
@@ -33391,7 +33388,7 @@
       </c>
       <c r="D346" s="524" t="str">
         <f aca="false">A346&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D346))</f>
-        <v>ARM Armenia </v>
+        <v>ARM Armenia</v>
       </c>
       <c r="E346" s="562" t="s">
         <v>2196</v>
@@ -33428,7 +33425,7 @@
       </c>
       <c r="D347" s="524" t="str">
         <f aca="false">A347&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D347))</f>
-        <v>ASM American Samoa </v>
+        <v>ASM American Samoa</v>
       </c>
       <c r="E347" s="562" t="s">
         <v>2201</v>
@@ -33465,7 +33462,7 @@
       </c>
       <c r="D348" s="524" t="str">
         <f aca="false">A348&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D348))</f>
-        <v>ATG Antigua and Barbuda </v>
+        <v>ATG Antigua and Barbuda</v>
       </c>
       <c r="E348" s="562" t="s">
         <v>2208</v>
@@ -33502,7 +33499,7 @@
       </c>
       <c r="D349" s="524" t="str">
         <f aca="false">A349&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D349))</f>
-        <v>AUS Australia </v>
+        <v>AUS Australia</v>
       </c>
       <c r="E349" s="562" t="s">
         <v>2215</v>
@@ -33539,7 +33536,7 @@
       </c>
       <c r="D350" s="524" t="str">
         <f aca="false">A350&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D350))</f>
-        <v>AUT Austria </v>
+        <v>AUT Austria</v>
       </c>
       <c r="E350" s="562" t="s">
         <v>2220</v>
@@ -33576,7 +33573,7 @@
       </c>
       <c r="D351" s="524" t="str">
         <f aca="false">A351&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D351))</f>
-        <v>AZE Azerbaijan </v>
+        <v>AZE Azerbaijan</v>
       </c>
       <c r="E351" s="562" t="s">
         <v>2225</v>
@@ -33613,7 +33610,7 @@
       </c>
       <c r="D352" s="524" t="str">
         <f aca="false">A352&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D352))</f>
-        <v>BDI Burundi </v>
+        <v>BDI Burundi</v>
       </c>
       <c r="E352" s="562" t="s">
         <v>310</v>
@@ -33650,7 +33647,7 @@
       </c>
       <c r="D353" s="524" t="str">
         <f aca="false">A353&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D353))</f>
-        <v>BEL Belgium </v>
+        <v>BEL Belgium</v>
       </c>
       <c r="E353" s="562" t="s">
         <v>2235</v>
@@ -33687,7 +33684,7 @@
       </c>
       <c r="D354" s="524" t="str">
         <f aca="false">A354&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D354))</f>
-        <v>BEN Benin </v>
+        <v>BEN Benin</v>
       </c>
       <c r="E354" s="562" t="s">
         <v>314</v>
@@ -33724,7 +33721,7 @@
       </c>
       <c r="D355" s="524" t="str">
         <f aca="false">A355&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D355))</f>
-        <v>BFA Burkina Faso </v>
+        <v>BFA Burkina Faso</v>
       </c>
       <c r="E355" s="562" t="s">
         <v>316</v>
@@ -33761,7 +33758,7 @@
       </c>
       <c r="D356" s="524" t="str">
         <f aca="false">A356&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D356))</f>
-        <v>BGD Bangladesh </v>
+        <v>BGD Bangladesh</v>
       </c>
       <c r="E356" s="562" t="s">
         <v>2250</v>
@@ -33798,7 +33795,7 @@
       </c>
       <c r="D357" s="524" t="str">
         <f aca="false">A357&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D357))</f>
-        <v>BGR Bulgaria </v>
+        <v>BGR Bulgaria</v>
       </c>
       <c r="E357" s="562" t="s">
         <v>2255</v>
@@ -33835,7 +33832,7 @@
       </c>
       <c r="D358" s="524" t="str">
         <f aca="false">A358&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D358))</f>
-        <v>BHR Bahrain </v>
+        <v>BHR Bahrain</v>
       </c>
       <c r="E358" s="562" t="s">
         <v>322</v>
@@ -33872,7 +33869,7 @@
       </c>
       <c r="D359" s="524" t="str">
         <f aca="false">A359&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D359))</f>
-        <v>BHS Bahamas </v>
+        <v>BHS Bahamas</v>
       </c>
       <c r="E359" s="562" t="s">
         <v>2265</v>
@@ -33909,7 +33906,7 @@
       </c>
       <c r="D360" s="524" t="str">
         <f aca="false">A360&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D360))</f>
-        <v>BIH Bosnia and Herzegovina </v>
+        <v>BIH Bosnia and Herzegovina</v>
       </c>
       <c r="E360" s="562" t="s">
         <v>2269</v>
@@ -33946,7 +33943,7 @@
       </c>
       <c r="D361" s="524" t="str">
         <f aca="false">A361&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D361))</f>
-        <v>BLR Belarus </v>
+        <v>BLR Belarus</v>
       </c>
       <c r="E361" s="562" t="s">
         <v>328</v>
@@ -33983,7 +33980,7 @@
       </c>
       <c r="D362" s="524" t="str">
         <f aca="false">A362&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D362))</f>
-        <v>BLZ Belize </v>
+        <v>BLZ Belize</v>
       </c>
       <c r="E362" s="562" t="s">
         <v>330</v>
@@ -34020,7 +34017,7 @@
       </c>
       <c r="D363" s="524" t="str">
         <f aca="false">A363&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D363))</f>
-        <v>BMU Bermuda </v>
+        <v>BMU Bermuda</v>
       </c>
       <c r="E363" s="562" t="s">
         <v>332</v>
@@ -34057,7 +34054,7 @@
       </c>
       <c r="D364" s="524" t="str">
         <f aca="false">A364&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D364))</f>
-        <v>BOL Bolivia, Plurinational State of </v>
+        <v>BOL Bolivia, Plurinational State of</v>
       </c>
       <c r="E364" s="562" t="s">
         <v>2291</v>
@@ -34094,7 +34091,7 @@
       </c>
       <c r="D365" s="524" t="str">
         <f aca="false">A365&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D365))</f>
-        <v>BRA Brazil </v>
+        <v>BRA Brazil</v>
       </c>
       <c r="E365" s="562" t="s">
         <v>2297</v>
@@ -34131,7 +34128,7 @@
       </c>
       <c r="D366" s="524" t="str">
         <f aca="false">A366&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D366))</f>
-        <v>BRB Barbados </v>
+        <v>BRB Barbados</v>
       </c>
       <c r="E366" s="562" t="s">
         <v>338</v>
@@ -34168,7 +34165,7 @@
       </c>
       <c r="D367" s="524" t="str">
         <f aca="false">A367&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D367))</f>
-        <v>BRN Brunei Darussalam </v>
+        <v>BRN Brunei Darussalam</v>
       </c>
       <c r="E367" s="562" t="s">
         <v>340</v>
@@ -34205,7 +34202,7 @@
       </c>
       <c r="D368" s="524" t="str">
         <f aca="false">A368&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D368))</f>
-        <v>BTN Bhutan </v>
+        <v>BTN Bhutan</v>
       </c>
       <c r="E368" s="562" t="s">
         <v>342</v>
@@ -34242,7 +34239,7 @@
       </c>
       <c r="D369" s="524" t="str">
         <f aca="false">A369&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D369))</f>
-        <v>BWA Botswana </v>
+        <v>BWA Botswana</v>
       </c>
       <c r="E369" s="562" t="s">
         <v>344</v>
@@ -34279,7 +34276,7 @@
       </c>
       <c r="D370" s="524" t="str">
         <f aca="false">A370&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D370))</f>
-        <v>CAF Central African Republic </v>
+        <v>CAF Central African Republic</v>
       </c>
       <c r="E370" s="562" t="s">
         <v>2323</v>
@@ -34316,7 +34313,7 @@
       </c>
       <c r="D371" s="524" t="str">
         <f aca="false">A371&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D371))</f>
-        <v>CAN Canada </v>
+        <v>CAN Canada</v>
       </c>
       <c r="E371" s="562" t="s">
         <v>2330</v>
@@ -34353,7 +34350,7 @@
       </c>
       <c r="D372" s="524" t="str">
         <f aca="false">A372&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D372))</f>
-        <v>CHE Switzerland </v>
+        <v>CHE Switzerland</v>
       </c>
       <c r="E372" s="562" t="s">
         <v>2335</v>
@@ -34390,7 +34387,7 @@
       </c>
       <c r="D373" s="524" t="str">
         <f aca="false">A373&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D373))</f>
-        <v>CHL Chile </v>
+        <v>CHL Chile</v>
       </c>
       <c r="E373" s="562" t="s">
         <v>352</v>
@@ -34427,7 +34424,7 @@
       </c>
       <c r="D374" s="524" t="str">
         <f aca="false">A374&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D374))</f>
-        <v>CHN China </v>
+        <v>CHN China</v>
       </c>
       <c r="E374" s="562" t="s">
         <v>2347</v>
@@ -34464,7 +34461,7 @@
       </c>
       <c r="D375" s="524" t="str">
         <f aca="false">A375&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D375))</f>
-        <v>CIV Côte d'Ivoire </v>
+        <v>CIV Côte d'Ivoire</v>
       </c>
       <c r="E375" s="562" t="s">
         <v>2353</v>
@@ -34501,7 +34498,7 @@
       </c>
       <c r="D376" s="524" t="str">
         <f aca="false">A376&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D376))</f>
-        <v>CMR Cameroon </v>
+        <v>CMR Cameroon</v>
       </c>
       <c r="E376" s="562" t="s">
         <v>2360</v>
@@ -34538,7 +34535,7 @@
       </c>
       <c r="D377" s="524" t="str">
         <f aca="false">A377&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D377))</f>
-        <v>COD Congo, the Democratic Republic of the </v>
+        <v>COD Congo, the Democratic Republic of the</v>
       </c>
       <c r="E377" s="562" t="s">
         <v>2367</v>
@@ -34575,7 +34572,7 @@
       </c>
       <c r="D378" s="524" t="str">
         <f aca="false">A378&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D378))</f>
-        <v>COG Congo </v>
+        <v>COG Congo</v>
       </c>
       <c r="E378" s="562" t="s">
         <v>2374</v>
@@ -34612,7 +34609,7 @@
       </c>
       <c r="D379" s="524" t="str">
         <f aca="false">A379&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D379))</f>
-        <v>COL Colombia </v>
+        <v>COL Colombia</v>
       </c>
       <c r="E379" s="562" t="s">
         <v>2381</v>
@@ -34649,7 +34646,7 @@
       </c>
       <c r="D380" s="524" t="str">
         <f aca="false">A380&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D380))</f>
-        <v>COM Comoros </v>
+        <v>COM Comoros</v>
       </c>
       <c r="E380" s="562" t="s">
         <v>2386</v>
@@ -34686,7 +34683,7 @@
       </c>
       <c r="D381" s="524" t="str">
         <f aca="false">A381&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D381))</f>
-        <v>CPV Cape Verde </v>
+        <v>CPV Cape Verde</v>
       </c>
       <c r="E381" s="562" t="s">
         <v>2393</v>
@@ -34723,7 +34720,7 @@
       </c>
       <c r="D382" s="524" t="str">
         <f aca="false">A382&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D382))</f>
-        <v>CRI Costa Rica </v>
+        <v>CRI Costa Rica</v>
       </c>
       <c r="E382" s="562" t="s">
         <v>370</v>
@@ -34760,7 +34757,7 @@
       </c>
       <c r="D383" s="524" t="str">
         <f aca="false">A383&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D383))</f>
-        <v>CUB Cuba </v>
+        <v>CUB Cuba</v>
       </c>
       <c r="E383" s="562" t="s">
         <v>2402</v>
@@ -34797,7 +34794,7 @@
       </c>
       <c r="D384" s="524" t="str">
         <f aca="false">A384&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D384))</f>
-        <v>CUW Curaçao </v>
+        <v>CUW Curaçao</v>
       </c>
       <c r="E384" s="520" t="s">
         <v>2406</v>
@@ -34834,7 +34831,7 @@
       </c>
       <c r="D385" s="524" t="str">
         <f aca="false">A385&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D385))</f>
-        <v>CYM Cayman Islands </v>
+        <v>CYM Cayman Islands</v>
       </c>
       <c r="E385" s="562" t="s">
         <v>2411</v>
@@ -34871,7 +34868,7 @@
       </c>
       <c r="D386" s="524" t="str">
         <f aca="false">A386&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D386))</f>
-        <v>CYP Cyprus </v>
+        <v>CYP Cyprus</v>
       </c>
       <c r="E386" s="562" t="s">
         <v>2418</v>
@@ -34908,7 +34905,7 @@
       </c>
       <c r="D387" s="524" t="str">
         <f aca="false">A387&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D387))</f>
-        <v>CZE Czech Republic </v>
+        <v>CZE Czech Republic</v>
       </c>
       <c r="E387" s="562" t="s">
         <v>2425</v>
@@ -34945,7 +34942,7 @@
       </c>
       <c r="D388" s="524" t="str">
         <f aca="false">A388&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D388))</f>
-        <v>DEU Germany </v>
+        <v>DEU Germany</v>
       </c>
       <c r="E388" s="562" t="s">
         <v>10</v>
@@ -34982,7 +34979,7 @@
       </c>
       <c r="D389" s="524" t="str">
         <f aca="false">A389&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D389))</f>
-        <v>DJI Djibouti </v>
+        <v>DJI Djibouti</v>
       </c>
       <c r="E389" s="562" t="s">
         <v>2438</v>
@@ -35019,7 +35016,7 @@
       </c>
       <c r="D390" s="524" t="str">
         <f aca="false">A390&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D390))</f>
-        <v>DMA Dominica </v>
+        <v>DMA Dominica</v>
       </c>
       <c r="E390" s="562" t="s">
         <v>386</v>
@@ -35056,7 +35053,7 @@
       </c>
       <c r="D391" s="524" t="str">
         <f aca="false">A391&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D391))</f>
-        <v>DNK Denmark </v>
+        <v>DNK Denmark</v>
       </c>
       <c r="E391" s="562" t="s">
         <v>2448</v>
@@ -35093,7 +35090,7 @@
       </c>
       <c r="D392" s="524" t="str">
         <f aca="false">A392&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D392))</f>
-        <v>DOM Dominican Republic </v>
+        <v>DOM Dominican Republic</v>
       </c>
       <c r="E392" s="562" t="s">
         <v>2455</v>
@@ -35130,7 +35127,7 @@
       </c>
       <c r="D393" s="524" t="str">
         <f aca="false">A393&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D393))</f>
-        <v>DZA Algeria </v>
+        <v>DZA Algeria</v>
       </c>
       <c r="E393" s="562" t="s">
         <v>2462</v>
@@ -35167,7 +35164,7 @@
       </c>
       <c r="D394" s="524" t="str">
         <f aca="false">A394&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D394))</f>
-        <v>ECU Ecuador </v>
+        <v>ECU Ecuador</v>
       </c>
       <c r="E394" s="562" t="s">
         <v>394</v>
@@ -35204,7 +35201,7 @@
       </c>
       <c r="D395" s="524" t="str">
         <f aca="false">A395&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D395))</f>
-        <v>EGY Egypt </v>
+        <v>EGY Egypt</v>
       </c>
       <c r="E395" s="562" t="s">
         <v>2472</v>
@@ -35241,7 +35238,7 @@
       </c>
       <c r="D396" s="524" t="str">
         <f aca="false">A396&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D396))</f>
-        <v>ERI Eritrea </v>
+        <v>ERI Eritrea</v>
       </c>
       <c r="E396" s="562" t="s">
         <v>398</v>
@@ -35278,7 +35275,7 @@
       </c>
       <c r="D397" s="524" t="str">
         <f aca="false">A397&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D397))</f>
-        <v>ESP Spain </v>
+        <v>ESP Spain</v>
       </c>
       <c r="E397" s="562" t="s">
         <v>2483</v>
@@ -35315,7 +35312,7 @@
       </c>
       <c r="D398" s="524" t="str">
         <f aca="false">A398&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D398))</f>
-        <v>EST Estonia </v>
+        <v>EST Estonia</v>
       </c>
       <c r="E398" s="562" t="s">
         <v>2490</v>
@@ -35352,7 +35349,7 @@
       </c>
       <c r="D399" s="524" t="str">
         <f aca="false">A399&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D399))</f>
-        <v>ETH Ethiopia </v>
+        <v>ETH Ethiopia</v>
       </c>
       <c r="E399" s="562" t="s">
         <v>2495</v>
@@ -35389,7 +35386,7 @@
       </c>
       <c r="D400" s="524" t="str">
         <f aca="false">A400&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D400))</f>
-        <v>FIN Finland </v>
+        <v>FIN Finland</v>
       </c>
       <c r="E400" s="562" t="s">
         <v>2502</v>
@@ -35426,7 +35423,7 @@
       </c>
       <c r="D401" s="524" t="str">
         <f aca="false">A401&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D401))</f>
-        <v>FJI Fiji </v>
+        <v>FJI Fiji</v>
       </c>
       <c r="E401" s="562" t="s">
         <v>2509</v>
@@ -35463,7 +35460,7 @@
       </c>
       <c r="D402" s="524" t="str">
         <f aca="false">A402&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D402))</f>
-        <v>FRA France </v>
+        <v>FRA France</v>
       </c>
       <c r="E402" s="562" t="s">
         <v>2515</v>
@@ -35500,7 +35497,7 @@
       </c>
       <c r="D403" s="524" t="str">
         <f aca="false">A403&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D403))</f>
-        <v>FRO Faroe Islands </v>
+        <v>FRO Faroe Islands</v>
       </c>
       <c r="E403" s="562" t="s">
         <v>2521</v>
@@ -35537,7 +35534,7 @@
       </c>
       <c r="D404" s="524" t="str">
         <f aca="false">A404&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D404))</f>
-        <v>FSM Micronesia, Federated States of </v>
+        <v>FSM Micronesia, Federated States of</v>
       </c>
       <c r="E404" s="562" t="s">
         <v>2528</v>
@@ -35574,7 +35571,7 @@
       </c>
       <c r="D405" s="524" t="str">
         <f aca="false">A405&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D405))</f>
-        <v>GAB Gabon </v>
+        <v>GAB Gabon</v>
       </c>
       <c r="E405" s="562" t="s">
         <v>2535</v>
@@ -35611,7 +35608,7 @@
       </c>
       <c r="D406" s="524" t="str">
         <f aca="false">A406&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D406))</f>
-        <v>GBR United Kingdom </v>
+        <v>GBR United Kingdom</v>
       </c>
       <c r="E406" s="562" t="s">
         <v>2540</v>
@@ -35648,7 +35645,7 @@
       </c>
       <c r="D407" s="524" t="str">
         <f aca="false">A407&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D407))</f>
-        <v>GEO Georgia </v>
+        <v>GEO Georgia</v>
       </c>
       <c r="E407" s="562" t="s">
         <v>2547</v>
@@ -35685,7 +35682,7 @@
       </c>
       <c r="D408" s="524" t="str">
         <f aca="false">A408&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D408))</f>
-        <v>GHA Ghana </v>
+        <v>GHA Ghana</v>
       </c>
       <c r="E408" s="562" t="s">
         <v>422</v>
@@ -35722,7 +35719,7 @@
       </c>
       <c r="D409" s="524" t="str">
         <f aca="false">A409&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D409))</f>
-        <v>GIB Gibraltar </v>
+        <v>GIB Gibraltar</v>
       </c>
       <c r="E409" s="562" t="s">
         <v>424</v>
@@ -35759,7 +35756,7 @@
       </c>
       <c r="D410" s="524" t="str">
         <f aca="false">A410&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D410))</f>
-        <v>GIN Guinea </v>
+        <v>GIN Guinea</v>
       </c>
       <c r="E410" s="562" t="s">
         <v>426</v>
@@ -35796,7 +35793,7 @@
       </c>
       <c r="D411" s="524" t="str">
         <f aca="false">A411&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D411))</f>
-        <v>GMB Gambia </v>
+        <v>GMB Gambia</v>
       </c>
       <c r="E411" s="562" t="s">
         <v>2564</v>
@@ -35833,7 +35830,7 @@
       </c>
       <c r="D412" s="524" t="str">
         <f aca="false">A412&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D412))</f>
-        <v>GNB Guinea-Bissau </v>
+        <v>GNB Guinea-Bissau</v>
       </c>
       <c r="E412" s="562" t="s">
         <v>430</v>
@@ -35870,7 +35867,7 @@
       </c>
       <c r="D413" s="524" t="str">
         <f aca="false">A413&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D413))</f>
-        <v>GNQ Equatorial Guinea </v>
+        <v>GNQ Equatorial Guinea</v>
       </c>
       <c r="E413" s="562" t="s">
         <v>2574</v>
@@ -35907,7 +35904,7 @@
       </c>
       <c r="D414" s="524" t="str">
         <f aca="false">A414&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D414))</f>
-        <v>GRC Greece </v>
+        <v>GRC Greece</v>
       </c>
       <c r="E414" s="562" t="s">
         <v>2581</v>
@@ -35944,7 +35941,7 @@
       </c>
       <c r="D415" s="524" t="str">
         <f aca="false">A415&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D415))</f>
-        <v>GRD Grenada </v>
+        <v>GRD Grenada</v>
       </c>
       <c r="E415" s="562" t="s">
         <v>436</v>
@@ -35981,7 +35978,7 @@
       </c>
       <c r="D416" s="524" t="str">
         <f aca="false">A416&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D416))</f>
-        <v>GRL Greenland </v>
+        <v>GRL Greenland</v>
       </c>
       <c r="E416" s="562" t="s">
         <v>2593</v>
@@ -36018,7 +36015,7 @@
       </c>
       <c r="D417" s="524" t="str">
         <f aca="false">A417&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D417))</f>
-        <v>GTM Guatemala </v>
+        <v>GTM Guatemala</v>
       </c>
       <c r="E417" s="562" t="s">
         <v>440</v>
@@ -36055,7 +36052,7 @@
       </c>
       <c r="D418" s="524" t="str">
         <f aca="false">A418&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D418))</f>
-        <v>GUM Guam </v>
+        <v>GUM Guam</v>
       </c>
       <c r="E418" s="562" t="s">
         <v>442</v>
@@ -36092,7 +36089,7 @@
       </c>
       <c r="D419" s="524" t="str">
         <f aca="false">A419&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D419))</f>
-        <v>GUY Guyana </v>
+        <v>GUY Guyana</v>
       </c>
       <c r="E419" s="562" t="s">
         <v>444</v>
@@ -36129,7 +36126,7 @@
       </c>
       <c r="D420" s="524" t="str">
         <f aca="false">A420&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D420))</f>
-        <v>HKG Hong Kong </v>
+        <v>HKG Hong Kong</v>
       </c>
       <c r="E420" s="562" t="s">
         <v>2611</v>
@@ -36166,7 +36163,7 @@
       </c>
       <c r="D421" s="524" t="str">
         <f aca="false">A421&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D421))</f>
-        <v>HND Honduras </v>
+        <v>HND Honduras</v>
       </c>
       <c r="E421" s="562" t="s">
         <v>448</v>
@@ -36203,7 +36200,7 @@
       </c>
       <c r="D422" s="524" t="str">
         <f aca="false">A422&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D422))</f>
-        <v>HRV Croatia </v>
+        <v>HRV Croatia</v>
       </c>
       <c r="E422" s="562" t="s">
         <v>2619</v>
@@ -36240,7 +36237,7 @@
       </c>
       <c r="D423" s="524" t="str">
         <f aca="false">A423&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D423))</f>
-        <v>HTI Haiti </v>
+        <v>HTI Haiti</v>
       </c>
       <c r="E423" s="562" t="s">
         <v>452</v>
@@ -36277,7 +36274,7 @@
       </c>
       <c r="D424" s="524" t="str">
         <f aca="false">A424&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D424))</f>
-        <v>HUN Hungary </v>
+        <v>HUN Hungary</v>
       </c>
       <c r="E424" s="562" t="s">
         <v>2631</v>
@@ -36314,7 +36311,7 @@
       </c>
       <c r="D425" s="524" t="str">
         <f aca="false">A425&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D425))</f>
-        <v>IDN Indonesia </v>
+        <v>IDN Indonesia</v>
       </c>
       <c r="E425" s="562" t="s">
         <v>2638</v>
@@ -36351,7 +36348,7 @@
       </c>
       <c r="D426" s="524" t="str">
         <f aca="false">A426&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D426))</f>
-        <v>IMN Isle of Man </v>
+        <v>IMN Isle of Man</v>
       </c>
       <c r="E426" s="520" t="s">
         <v>2643</v>
@@ -36388,7 +36385,7 @@
       </c>
       <c r="D427" s="524" t="str">
         <f aca="false">A427&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D427))</f>
-        <v>IND India </v>
+        <v>IND India</v>
       </c>
       <c r="E427" s="520" t="s">
         <v>2650</v>
@@ -36425,7 +36422,7 @@
       </c>
       <c r="D428" s="524" t="str">
         <f aca="false">A428&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D428))</f>
-        <v>IRL Ireland </v>
+        <v>IRL Ireland</v>
       </c>
       <c r="E428" s="562" t="s">
         <v>2655</v>
@@ -36462,7 +36459,7 @@
       </c>
       <c r="D429" s="524" t="str">
         <f aca="false">A429&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D429))</f>
-        <v>IRN Iran, Islamic Republic of </v>
+        <v>IRN Iran, Islamic Republic of</v>
       </c>
       <c r="E429" s="520" t="s">
         <v>2662</v>
@@ -36499,7 +36496,7 @@
       </c>
       <c r="D430" s="524" t="str">
         <f aca="false">A430&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D430))</f>
-        <v>IRQ Iraq </v>
+        <v>IRQ Iraq</v>
       </c>
       <c r="E430" s="520" t="s">
         <v>2669</v>
@@ -36536,7 +36533,7 @@
       </c>
       <c r="D431" s="524" t="str">
         <f aca="false">A431&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D431))</f>
-        <v>ISL Iceland </v>
+        <v>ISL Iceland</v>
       </c>
       <c r="E431" s="520" t="s">
         <v>2673</v>
@@ -36573,7 +36570,7 @@
       </c>
       <c r="D432" s="524" t="str">
         <f aca="false">A432&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D432))</f>
-        <v>ISR Israel </v>
+        <v>ISR Israel</v>
       </c>
       <c r="E432" s="520" t="s">
         <v>470</v>
@@ -36610,7 +36607,7 @@
       </c>
       <c r="D433" s="524" t="str">
         <f aca="false">A433&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D433))</f>
-        <v>ITA Italy </v>
+        <v>ITA Italy</v>
       </c>
       <c r="E433" s="520" t="s">
         <v>2685</v>
@@ -36647,7 +36644,7 @@
       </c>
       <c r="D434" s="524" t="str">
         <f aca="false">A434&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D434))</f>
-        <v>JAM Jamaica </v>
+        <v>JAM Jamaica</v>
       </c>
       <c r="E434" s="520" t="s">
         <v>2692</v>
@@ -36684,7 +36681,7 @@
       </c>
       <c r="D435" s="524" t="str">
         <f aca="false">A435&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D435))</f>
-        <v>JOR Jordan </v>
+        <v>JOR Jordan</v>
       </c>
       <c r="E435" s="520" t="s">
         <v>2698</v>
@@ -36721,7 +36718,7 @@
       </c>
       <c r="D436" s="524" t="str">
         <f aca="false">A436&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D436))</f>
-        <v>JPN Japan </v>
+        <v>JPN Japan</v>
       </c>
       <c r="E436" s="520" t="s">
         <v>478</v>
@@ -36758,7 +36755,7 @@
       </c>
       <c r="D437" s="524" t="str">
         <f aca="false">A437&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D437))</f>
-        <v>KAZ Kazakhstan </v>
+        <v>KAZ Kazakhstan</v>
       </c>
       <c r="E437" s="520" t="s">
         <v>2711</v>
@@ -36795,7 +36792,7 @@
       </c>
       <c r="D438" s="524" t="str">
         <f aca="false">A438&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D438))</f>
-        <v>KEN Kenya </v>
+        <v>KEN Kenya</v>
       </c>
       <c r="E438" s="520" t="s">
         <v>2717</v>
@@ -36832,7 +36829,7 @@
       </c>
       <c r="D439" s="524" t="str">
         <f aca="false">A439&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D439))</f>
-        <v>KGZ Kyrgyzstan </v>
+        <v>KGZ Kyrgyzstan</v>
       </c>
       <c r="E439" s="520" t="s">
         <v>2721</v>
@@ -36869,7 +36866,7 @@
       </c>
       <c r="D440" s="524" t="str">
         <f aca="false">A440&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D440))</f>
-        <v>KHM Cambodia </v>
+        <v>KHM Cambodia</v>
       </c>
       <c r="E440" s="520" t="s">
         <v>2728</v>
@@ -36906,7 +36903,7 @@
       </c>
       <c r="D441" s="524" t="str">
         <f aca="false">A441&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D441))</f>
-        <v>KIR Kiribati </v>
+        <v>KIR Kiribati</v>
       </c>
       <c r="E441" s="520" t="s">
         <v>488</v>
@@ -36943,7 +36940,7 @@
       </c>
       <c r="D442" s="524" t="str">
         <f aca="false">A442&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D442))</f>
-        <v>KNA Saint Kitts and Nevis </v>
+        <v>KNA Saint Kitts and Nevis</v>
       </c>
       <c r="E442" s="520" t="s">
         <v>2738</v>
@@ -36980,7 +36977,7 @@
       </c>
       <c r="D443" s="524" t="str">
         <f aca="false">A443&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D443))</f>
-        <v>KOR Korea, Republic of </v>
+        <v>KOR Korea, Republic of</v>
       </c>
       <c r="E443" s="520" t="s">
         <v>2745</v>
@@ -37017,7 +37014,7 @@
       </c>
       <c r="D444" s="524" t="str">
         <f aca="false">A444&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D444))</f>
-        <v>KWT Kuwait </v>
+        <v>KWT Kuwait</v>
       </c>
       <c r="E444" s="520" t="s">
         <v>494</v>
@@ -37054,7 +37051,7 @@
       </c>
       <c r="D445" s="524" t="str">
         <f aca="false">A445&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D445))</f>
-        <v>LAO Lao People's Democratic Republic </v>
+        <v>LAO Lao People's Democratic Republic</v>
       </c>
       <c r="E445" s="520" t="s">
         <v>2756</v>
@@ -37091,7 +37088,7 @@
       </c>
       <c r="D446" s="524" t="str">
         <f aca="false">A446&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D446))</f>
-        <v>LBN Lebanon </v>
+        <v>LBN Lebanon</v>
       </c>
       <c r="E446" s="520" t="s">
         <v>2762</v>
@@ -37128,7 +37125,7 @@
       </c>
       <c r="D447" s="524" t="str">
         <f aca="false">A447&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D447))</f>
-        <v>LBR Liberia </v>
+        <v>LBR Liberia</v>
       </c>
       <c r="E447" s="520" t="s">
         <v>500</v>
@@ -37165,7 +37162,7 @@
       </c>
       <c r="D448" s="524" t="str">
         <f aca="false">A448&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D448))</f>
-        <v>LBY Libya </v>
+        <v>LBY Libya</v>
       </c>
       <c r="E448" s="520" t="s">
         <v>2773</v>
@@ -37202,7 +37199,7 @@
       </c>
       <c r="D449" s="524" t="str">
         <f aca="false">A449&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D449))</f>
-        <v>LCA Saint Lucia </v>
+        <v>LCA Saint Lucia</v>
       </c>
       <c r="E449" s="520" t="s">
         <v>504</v>
@@ -37239,7 +37236,7 @@
       </c>
       <c r="D450" s="524" t="str">
         <f aca="false">A450&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D450))</f>
-        <v>LIE Liechtenstein </v>
+        <v>LIE Liechtenstein</v>
       </c>
       <c r="E450" s="520" t="s">
         <v>506</v>
@@ -37276,7 +37273,7 @@
       </c>
       <c r="D451" s="524" t="str">
         <f aca="false">A451&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D451))</f>
-        <v>LKA Sri Lanka </v>
+        <v>LKA Sri Lanka</v>
       </c>
       <c r="E451" s="520" t="s">
         <v>508</v>
@@ -37313,7 +37310,7 @@
       </c>
       <c r="D452" s="524" t="str">
         <f aca="false">A452&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D452))</f>
-        <v>LSO Lesotho </v>
+        <v>LSO Lesotho</v>
       </c>
       <c r="E452" s="520" t="s">
         <v>510</v>
@@ -37350,7 +37347,7 @@
       </c>
       <c r="D453" s="524" t="str">
         <f aca="false">A453&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D453))</f>
-        <v>LTU Lithuania </v>
+        <v>LTU Lithuania</v>
       </c>
       <c r="E453" s="520" t="s">
         <v>2796</v>
@@ -37387,7 +37384,7 @@
       </c>
       <c r="D454" s="524" t="str">
         <f aca="false">A454&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D454))</f>
-        <v>LUX Luxembourg </v>
+        <v>LUX Luxembourg</v>
       </c>
       <c r="E454" s="520" t="s">
         <v>2803</v>
@@ -37424,7 +37421,7 @@
       </c>
       <c r="D455" s="524" t="str">
         <f aca="false">A455&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D455))</f>
-        <v>LVA Latvia </v>
+        <v>LVA Latvia</v>
       </c>
       <c r="E455" s="520" t="s">
         <v>2809</v>
@@ -37461,7 +37458,7 @@
       </c>
       <c r="D456" s="524" t="str">
         <f aca="false">A456&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D456))</f>
-        <v>MAC Macao </v>
+        <v>MAC Macao</v>
       </c>
       <c r="E456" s="520" t="s">
         <v>2816</v>
@@ -37498,7 +37495,7 @@
       </c>
       <c r="D457" s="524" t="str">
         <f aca="false">A457&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D457))</f>
-        <v>MAF Saint Martin (French part) </v>
+        <v>MAF Saint Martin (French part)</v>
       </c>
       <c r="E457" s="520" t="s">
         <v>2820</v>
@@ -37535,7 +37532,7 @@
       </c>
       <c r="D458" s="524" t="str">
         <f aca="false">A458&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D458))</f>
-        <v>MAR Morocco </v>
+        <v>MAR Morocco</v>
       </c>
       <c r="E458" s="520" t="s">
         <v>2827</v>
@@ -37572,7 +37569,7 @@
       </c>
       <c r="D459" s="524" t="str">
         <f aca="false">A459&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D459))</f>
-        <v>MCO Monaco </v>
+        <v>MCO Monaco</v>
       </c>
       <c r="E459" s="520" t="s">
         <v>524</v>
@@ -37609,7 +37606,7 @@
       </c>
       <c r="D460" s="524" t="str">
         <f aca="false">A460&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D460))</f>
-        <v>MDA Moldova, Republic of </v>
+        <v>MDA Moldova, Republic of</v>
       </c>
       <c r="E460" s="520" t="s">
         <v>2839</v>
@@ -37646,7 +37643,7 @@
       </c>
       <c r="D461" s="524" t="str">
         <f aca="false">A461&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D461))</f>
-        <v>MDG Madagascar </v>
+        <v>MDG Madagascar</v>
       </c>
       <c r="E461" s="520" t="s">
         <v>2846</v>
@@ -37683,7 +37680,7 @@
       </c>
       <c r="D462" s="524" t="str">
         <f aca="false">A462&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D462))</f>
-        <v>MDV Maldives </v>
+        <v>MDV Maldives</v>
       </c>
       <c r="E462" s="520" t="s">
         <v>2850</v>
@@ -37720,7 +37717,7 @@
       </c>
       <c r="D463" s="524" t="str">
         <f aca="false">A463&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D463))</f>
-        <v>MEX Mexico </v>
+        <v>MEX Mexico</v>
       </c>
       <c r="E463" s="520" t="s">
         <v>2856</v>
@@ -37757,7 +37754,7 @@
       </c>
       <c r="D464" s="524" t="str">
         <f aca="false">A464&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D464))</f>
-        <v>MHL Marshall Islands </v>
+        <v>MHL Marshall Islands</v>
       </c>
       <c r="E464" s="520" t="s">
         <v>2863</v>
@@ -37794,7 +37791,7 @@
       </c>
       <c r="D465" s="524" t="str">
         <f aca="false">A465&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D465))</f>
-        <v>MKD Macedonia, The Former Yugoslav Republic of </v>
+        <v>MKD Macedonia, The Former Yugoslav Republic of</v>
       </c>
       <c r="E465" s="520" t="s">
         <v>2870</v>
@@ -37831,7 +37828,7 @@
       </c>
       <c r="D466" s="524" t="str">
         <f aca="false">A466&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D466))</f>
-        <v>MLI Mali </v>
+        <v>MLI Mali</v>
       </c>
       <c r="E466" s="520" t="s">
         <v>538</v>
@@ -37868,7 +37865,7 @@
       </c>
       <c r="D467" s="524" t="str">
         <f aca="false">A467&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D467))</f>
-        <v>MLT Malta </v>
+        <v>MLT Malta</v>
       </c>
       <c r="E467" s="520" t="s">
         <v>540</v>
@@ -37905,7 +37902,7 @@
       </c>
       <c r="D468" s="524" t="str">
         <f aca="false">A468&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D468))</f>
-        <v>MMR Myanmar </v>
+        <v>MMR Myanmar</v>
       </c>
       <c r="E468" s="520" t="s">
         <v>2885</v>
@@ -37942,7 +37939,7 @@
       </c>
       <c r="D469" s="524" t="str">
         <f aca="false">A469&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D469))</f>
-        <v>MNE Montenegro </v>
+        <v>MNE Montenegro</v>
       </c>
       <c r="E469" s="520" t="s">
         <v>544</v>
@@ -37979,7 +37976,7 @@
       </c>
       <c r="D470" s="524" t="str">
         <f aca="false">A470&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D470))</f>
-        <v>MNG Mongolia </v>
+        <v>MNG Mongolia</v>
       </c>
       <c r="E470" s="520" t="s">
         <v>2895</v>
@@ -38016,7 +38013,7 @@
       </c>
       <c r="D471" s="524" t="str">
         <f aca="false">A471&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D471))</f>
-        <v>MNP Northern Mariana Islands </v>
+        <v>MNP Northern Mariana Islands</v>
       </c>
       <c r="E471" s="520" t="s">
         <v>2900</v>
@@ -38053,7 +38050,7 @@
       </c>
       <c r="D472" s="524" t="str">
         <f aca="false">A472&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D472))</f>
-        <v>MOZ Mozambique </v>
+        <v>MOZ Mozambique</v>
       </c>
       <c r="E472" s="520" t="s">
         <v>2907</v>
@@ -38090,7 +38087,7 @@
       </c>
       <c r="D473" s="524" t="str">
         <f aca="false">A473&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D473))</f>
-        <v>MRT Mauritania </v>
+        <v>MRT Mauritania</v>
       </c>
       <c r="E473" s="520" t="s">
         <v>2912</v>
@@ -38127,7 +38124,7 @@
       </c>
       <c r="D474" s="524" t="str">
         <f aca="false">A474&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D474))</f>
-        <v>MUS Mauritius </v>
+        <v>MUS Mauritius</v>
       </c>
       <c r="E474" s="520" t="s">
         <v>554</v>
@@ -38164,7 +38161,7 @@
       </c>
       <c r="D475" s="524" t="str">
         <f aca="false">A475&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D475))</f>
-        <v>MWI Malawi </v>
+        <v>MWI Malawi</v>
       </c>
       <c r="E475" s="520" t="s">
         <v>556</v>
@@ -38201,7 +38198,7 @@
       </c>
       <c r="D476" s="524" t="str">
         <f aca="false">A476&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D476))</f>
-        <v>MYS Malaysia </v>
+        <v>MYS Malaysia</v>
       </c>
       <c r="E476" s="520" t="s">
         <v>558</v>
@@ -38238,7 +38235,7 @@
       </c>
       <c r="D477" s="524" t="str">
         <f aca="false">A477&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D477))</f>
-        <v>NAM Namibia </v>
+        <v>NAM Namibia</v>
       </c>
       <c r="E477" s="520" t="s">
         <v>560</v>
@@ -38275,7 +38272,7 @@
       </c>
       <c r="D478" s="524" t="str">
         <f aca="false">A478&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D478))</f>
-        <v>NCL New Caledonia </v>
+        <v>NCL New Caledonia</v>
       </c>
       <c r="E478" s="520" t="s">
         <v>2936</v>
@@ -38312,7 +38309,7 @@
       </c>
       <c r="D479" s="524" t="str">
         <f aca="false">A479&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D479))</f>
-        <v>NER Niger </v>
+        <v>NER Niger</v>
       </c>
       <c r="E479" s="520" t="s">
         <v>564</v>
@@ -38349,7 +38346,7 @@
       </c>
       <c r="D480" s="524" t="str">
         <f aca="false">A480&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D480))</f>
-        <v>NGA Nigeria </v>
+        <v>NGA Nigeria</v>
       </c>
       <c r="E480" s="520" t="s">
         <v>566</v>
@@ -38386,7 +38383,7 @@
       </c>
       <c r="D481" s="524" t="str">
         <f aca="false">A481&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D481))</f>
-        <v>NIC Nicaragua </v>
+        <v>NIC Nicaragua</v>
       </c>
       <c r="E481" s="520" t="s">
         <v>568</v>
@@ -38423,7 +38420,7 @@
       </c>
       <c r="D482" s="524" t="str">
         <f aca="false">A482&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D482))</f>
-        <v>NLD Netherlands </v>
+        <v>NLD Netherlands</v>
       </c>
       <c r="E482" s="520" t="s">
         <v>2954</v>
@@ -38460,7 +38457,7 @@
       </c>
       <c r="D483" s="524" t="str">
         <f aca="false">A483&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D483))</f>
-        <v>NOR Norway </v>
+        <v>NOR Norway</v>
       </c>
       <c r="E483" s="520" t="s">
         <v>2961</v>
@@ -38497,7 +38494,7 @@
       </c>
       <c r="D484" s="524" t="str">
         <f aca="false">A484&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D484))</f>
-        <v>NPL Nepal </v>
+        <v>NPL Nepal</v>
       </c>
       <c r="E484" s="520" t="s">
         <v>574</v>
@@ -38534,7 +38531,7 @@
       </c>
       <c r="D485" s="524" t="str">
         <f aca="false">A485&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D485))</f>
-        <v>NRU Nauru </v>
+        <v>NRU Nauru</v>
       </c>
       <c r="E485" s="520" t="s">
         <v>576</v>
@@ -38571,7 +38568,7 @@
       </c>
       <c r="D486" s="524" t="str">
         <f aca="false">A486&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D486))</f>
-        <v>NZL New Zealand </v>
+        <v>NZL New Zealand</v>
       </c>
       <c r="E486" s="520" t="s">
         <v>2975</v>
@@ -38608,7 +38605,7 @@
       </c>
       <c r="D487" s="524" t="str">
         <f aca="false">A487&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D487))</f>
-        <v>OMN Oman </v>
+        <v>OMN Oman</v>
       </c>
       <c r="E487" s="520" t="s">
         <v>580</v>
@@ -38645,7 +38642,7 @@
       </c>
       <c r="D488" s="524" t="str">
         <f aca="false">A488&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D488))</f>
-        <v>PAK Pakistan </v>
+        <v>PAK Pakistan</v>
       </c>
       <c r="E488" s="520" t="s">
         <v>582</v>
@@ -38682,7 +38679,7 @@
       </c>
       <c r="D489" s="524" t="str">
         <f aca="false">A489&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D489))</f>
-        <v>PAN Panama </v>
+        <v>PAN Panama</v>
       </c>
       <c r="E489" s="520" t="s">
         <v>584</v>
@@ -38719,7 +38716,7 @@
       </c>
       <c r="D490" s="524" t="str">
         <f aca="false">A490&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D490))</f>
-        <v>PER Peru </v>
+        <v>PER Peru</v>
       </c>
       <c r="E490" s="520" t="s">
         <v>586</v>
@@ -38756,7 +38753,7 @@
       </c>
       <c r="D491" s="524" t="str">
         <f aca="false">A491&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D491))</f>
-        <v>PHL Philippines </v>
+        <v>PHL Philippines</v>
       </c>
       <c r="E491" s="520" t="s">
         <v>3001</v>
@@ -38793,7 +38790,7 @@
       </c>
       <c r="D492" s="524" t="str">
         <f aca="false">A492&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D492))</f>
-        <v>PLW Palau </v>
+        <v>PLW Palau</v>
       </c>
       <c r="E492" s="520" t="s">
         <v>590</v>
@@ -38830,7 +38827,7 @@
       </c>
       <c r="D493" s="524" t="str">
         <f aca="false">A493&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D493))</f>
-        <v>PNG Papua New Guinea </v>
+        <v>PNG Papua New Guinea</v>
       </c>
       <c r="E493" s="520" t="s">
         <v>3011</v>
@@ -38867,7 +38864,7 @@
       </c>
       <c r="D494" s="524" t="str">
         <f aca="false">A494&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D494))</f>
-        <v>POL Poland </v>
+        <v>POL Poland</v>
       </c>
       <c r="E494" s="520" t="s">
         <v>3018</v>
@@ -38904,7 +38901,7 @@
       </c>
       <c r="D495" s="524" t="str">
         <f aca="false">A495&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D495))</f>
-        <v>PRI Puerto Rico </v>
+        <v>PRI Puerto Rico</v>
       </c>
       <c r="E495" s="520" t="s">
         <v>596</v>
@@ -38941,7 +38938,7 @@
       </c>
       <c r="D496" s="524" t="str">
         <f aca="false">A496&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D496))</f>
-        <v>PRK Korea, Democratic People's Republic of </v>
+        <v>PRK Korea, Democratic People's Republic of</v>
       </c>
       <c r="E496" s="520" t="s">
         <v>3029</v>
@@ -38978,7 +38975,7 @@
       </c>
       <c r="D497" s="524" t="str">
         <f aca="false">A497&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D497))</f>
-        <v>PRT Portugal </v>
+        <v>PRT Portugal</v>
       </c>
       <c r="E497" s="520" t="s">
         <v>600</v>
@@ -39015,7 +39012,7 @@
       </c>
       <c r="D498" s="524" t="str">
         <f aca="false">A498&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D498))</f>
-        <v>PRY Paraguay </v>
+        <v>PRY Paraguay</v>
       </c>
       <c r="E498" s="520" t="s">
         <v>602</v>
@@ -39052,7 +39049,7 @@
       </c>
       <c r="D499" s="524" t="str">
         <f aca="false">A499&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D499))</f>
-        <v>PSE Palestinian Territory, Occupied </v>
+        <v>PSE Palestinian Territory, Occupied</v>
       </c>
       <c r="E499" s="520" t="s">
         <v>3043</v>
@@ -39089,7 +39086,7 @@
       </c>
       <c r="D500" s="524" t="str">
         <f aca="false">A500&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D500))</f>
-        <v>PYF French Polynesia </v>
+        <v>PYF French Polynesia</v>
       </c>
       <c r="E500" s="520" t="s">
         <v>3050</v>
@@ -39126,7 +39123,7 @@
       </c>
       <c r="D501" s="524" t="str">
         <f aca="false">A501&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D501))</f>
-        <v>QAT Qatar </v>
+        <v>QAT Qatar</v>
       </c>
       <c r="E501" s="520" t="s">
         <v>3057</v>
@@ -39163,7 +39160,7 @@
       </c>
       <c r="D502" s="524" t="str">
         <f aca="false">A502&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D502))</f>
-        <v>ROU Romania </v>
+        <v>ROU Romania</v>
       </c>
       <c r="E502" s="520" t="s">
         <v>3062</v>
@@ -39200,7 +39197,7 @@
       </c>
       <c r="D503" s="524" t="str">
         <f aca="false">A503&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D503))</f>
-        <v>RUS Russian Federation </v>
+        <v>RUS Russian Federation</v>
       </c>
       <c r="E503" s="520" t="s">
         <v>3068</v>
@@ -39237,7 +39234,7 @@
       </c>
       <c r="D504" s="524" t="str">
         <f aca="false">A504&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D504))</f>
-        <v>RWA Rwanda </v>
+        <v>RWA Rwanda</v>
       </c>
       <c r="E504" s="520" t="s">
         <v>3075</v>
@@ -39274,7 +39271,7 @@
       </c>
       <c r="D505" s="524" t="str">
         <f aca="false">A505&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D505))</f>
-        <v>SAU Saudi Arabia </v>
+        <v>SAU Saudi Arabia</v>
       </c>
       <c r="E505" s="520" t="s">
         <v>3080</v>
@@ -39311,7 +39308,7 @@
       </c>
       <c r="D506" s="524" t="str">
         <f aca="false">A506&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D506))</f>
-        <v>SDN Sudan </v>
+        <v>SDN Sudan</v>
       </c>
       <c r="E506" s="520" t="s">
         <v>618</v>
@@ -39348,7 +39345,7 @@
       </c>
       <c r="D507" s="524" t="str">
         <f aca="false">A507&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D507))</f>
-        <v>SEN Senegal </v>
+        <v>SEN Senegal</v>
       </c>
       <c r="E507" s="520" t="s">
         <v>620</v>
@@ -39385,7 +39382,7 @@
       </c>
       <c r="D508" s="524" t="str">
         <f aca="false">A508&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D508))</f>
-        <v>SGP Singapore </v>
+        <v>SGP Singapore</v>
       </c>
       <c r="E508" s="520" t="s">
         <v>3096</v>
@@ -39422,7 +39419,7 @@
       </c>
       <c r="D509" s="524" t="str">
         <f aca="false">A509&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D509))</f>
-        <v>SLB Solomon Islands </v>
+        <v>SLB Solomon Islands</v>
       </c>
       <c r="E509" s="520" t="s">
         <v>3101</v>
@@ -39459,7 +39456,7 @@
       </c>
       <c r="D510" s="524" t="str">
         <f aca="false">A510&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D510))</f>
-        <v>SLE Sierra Leone </v>
+        <v>SLE Sierra Leone</v>
       </c>
       <c r="E510" s="520" t="s">
         <v>626</v>
@@ -39496,7 +39493,7 @@
       </c>
       <c r="D511" s="524" t="str">
         <f aca="false">A511&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D511))</f>
-        <v>SLV El Salvador </v>
+        <v>SLV El Salvador</v>
       </c>
       <c r="E511" s="520" t="s">
         <v>628</v>
@@ -39533,7 +39530,7 @@
       </c>
       <c r="D512" s="524" t="str">
         <f aca="false">A512&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D512))</f>
-        <v>SMR San Marino </v>
+        <v>SMR San Marino</v>
       </c>
       <c r="E512" s="520" t="s">
         <v>630</v>
@@ -39570,7 +39567,7 @@
       </c>
       <c r="D513" s="524" t="str">
         <f aca="false">A513&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D513))</f>
-        <v>SOM Somalia </v>
+        <v>SOM Somalia</v>
       </c>
       <c r="E513" s="520" t="s">
         <v>632</v>
@@ -39607,7 +39604,7 @@
       </c>
       <c r="D514" s="524" t="str">
         <f aca="false">A514&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D514))</f>
-        <v>SRB Serbia </v>
+        <v>SRB Serbia</v>
       </c>
       <c r="E514" s="520" t="s">
         <v>3124</v>
@@ -39641,7 +39638,7 @@
       </c>
       <c r="D515" s="524" t="str">
         <f aca="false">A515&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D515))</f>
-        <v>SSD South Sudan </v>
+        <v>SSD South Sudan</v>
       </c>
       <c r="E515" s="520" t="s">
         <v>3128</v>
@@ -39678,7 +39675,7 @@
       </c>
       <c r="D516" s="524" t="str">
         <f aca="false">A516&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D516))</f>
-        <v>STP Sao Tome and Principe </v>
+        <v>STP Sao Tome and Principe</v>
       </c>
       <c r="E516" s="520" t="s">
         <v>3135</v>
@@ -39715,7 +39712,7 @@
       </c>
       <c r="D517" s="524" t="str">
         <f aca="false">A517&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D517))</f>
-        <v>SUR Suriname </v>
+        <v>SUR Suriname</v>
       </c>
       <c r="E517" s="520" t="s">
         <v>640</v>
@@ -39752,7 +39749,7 @@
       </c>
       <c r="D518" s="524" t="str">
         <f aca="false">A518&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D518))</f>
-        <v>SVK Slovakia </v>
+        <v>SVK Slovakia</v>
       </c>
       <c r="E518" s="520" t="s">
         <v>3146</v>
@@ -39789,7 +39786,7 @@
       </c>
       <c r="D519" s="524" t="str">
         <f aca="false">A519&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D519))</f>
-        <v>SVN Slovenia </v>
+        <v>SVN Slovenia</v>
       </c>
       <c r="E519" s="520" t="s">
         <v>3153</v>
@@ -39826,7 +39823,7 @@
       </c>
       <c r="D520" s="524" t="str">
         <f aca="false">A520&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D520))</f>
-        <v>SWE Sweden </v>
+        <v>SWE Sweden</v>
       </c>
       <c r="E520" s="520" t="s">
         <v>3159</v>
@@ -39863,7 +39860,7 @@
       </c>
       <c r="D521" s="524" t="str">
         <f aca="false">A521&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D521))</f>
-        <v>SWZ Swaziland </v>
+        <v>SWZ Swaziland</v>
       </c>
       <c r="E521" s="520" t="s">
         <v>3166</v>
@@ -39900,7 +39897,7 @@
       </c>
       <c r="D522" s="524" t="str">
         <f aca="false">A522&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D522))</f>
-        <v>SXM Sint Maarten (Dutch part) </v>
+        <v>SXM Sint Maarten (Dutch part)</v>
       </c>
       <c r="E522" s="520" t="s">
         <v>3171</v>
@@ -39937,7 +39934,7 @@
       </c>
       <c r="D523" s="524" t="str">
         <f aca="false">A523&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D523))</f>
-        <v>SYC Seychelles </v>
+        <v>SYC Seychelles</v>
       </c>
       <c r="E523" s="520" t="s">
         <v>3177</v>
@@ -39974,7 +39971,7 @@
       </c>
       <c r="D524" s="524" t="str">
         <f aca="false">A524&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D524))</f>
-        <v>SYR Syrian Arab Republic </v>
+        <v>SYR Syrian Arab Republic</v>
       </c>
       <c r="E524" s="520" t="s">
         <v>3181</v>
@@ -40011,7 +40008,7 @@
       </c>
       <c r="D525" s="524" t="str">
         <f aca="false">A525&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D525))</f>
-        <v>TCA Turks and Caicos Islands </v>
+        <v>TCA Turks and Caicos Islands</v>
       </c>
       <c r="E525" s="520" t="s">
         <v>3188</v>
@@ -40048,7 +40045,7 @@
       </c>
       <c r="D526" s="524" t="str">
         <f aca="false">A526&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D526))</f>
-        <v>TCD Chad </v>
+        <v>TCD Chad</v>
       </c>
       <c r="E526" s="520" t="s">
         <v>3195</v>
@@ -40085,7 +40082,7 @@
       </c>
       <c r="D527" s="524" t="str">
         <f aca="false">A527&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D527))</f>
-        <v>TGO Togo </v>
+        <v>TGO Togo</v>
       </c>
       <c r="E527" s="520" t="s">
         <v>660</v>
@@ -40122,7 +40119,7 @@
       </c>
       <c r="D528" s="524" t="str">
         <f aca="false">A528&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D528))</f>
-        <v>THA Thailand </v>
+        <v>THA Thailand</v>
       </c>
       <c r="E528" s="520" t="s">
         <v>662</v>
@@ -40159,7 +40156,7 @@
       </c>
       <c r="D529" s="524" t="str">
         <f aca="false">A529&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D529))</f>
-        <v>TJK Tajikistan </v>
+        <v>TJK Tajikistan</v>
       </c>
       <c r="E529" s="520" t="s">
         <v>3210</v>
@@ -40196,7 +40193,7 @@
       </c>
       <c r="D530" s="524" t="str">
         <f aca="false">A530&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D530))</f>
-        <v>TKM Turkmenistan </v>
+        <v>TKM Turkmenistan</v>
       </c>
       <c r="E530" s="520" t="s">
         <v>666</v>
@@ -40233,7 +40230,7 @@
       </c>
       <c r="D531" s="524" t="str">
         <f aca="false">A531&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D531))</f>
-        <v>TLS Timor-Leste </v>
+        <v>TLS Timor-Leste</v>
       </c>
       <c r="E531" s="520" t="s">
         <v>3221</v>
@@ -40270,7 +40267,7 @@
       </c>
       <c r="D532" s="524" t="str">
         <f aca="false">A532&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D532))</f>
-        <v>TON Tonga </v>
+        <v>TON Tonga</v>
       </c>
       <c r="E532" s="520" t="s">
         <v>670</v>
@@ -40307,7 +40304,7 @@
       </c>
       <c r="D533" s="524" t="str">
         <f aca="false">A533&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D533))</f>
-        <v>TTO Trinidad and Tobago </v>
+        <v>TTO Trinidad and Tobago</v>
       </c>
       <c r="E533" s="520" t="s">
         <v>3231</v>
@@ -40344,7 +40341,7 @@
       </c>
       <c r="D534" s="524" t="str">
         <f aca="false">A534&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D534))</f>
-        <v>TUN Tunisia </v>
+        <v>TUN Tunisia</v>
       </c>
       <c r="E534" s="520" t="s">
         <v>3238</v>
@@ -40381,7 +40378,7 @@
       </c>
       <c r="D535" s="524" t="str">
         <f aca="false">A535&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D535))</f>
-        <v>TUR Turkey </v>
+        <v>TUR Turkey</v>
       </c>
       <c r="E535" s="520" t="s">
         <v>3244</v>
@@ -40418,7 +40415,7 @@
       </c>
       <c r="D536" s="524" t="str">
         <f aca="false">A536&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D536))</f>
-        <v>TUV Tuvalu </v>
+        <v>TUV Tuvalu</v>
       </c>
       <c r="E536" s="520" t="s">
         <v>678</v>
@@ -40455,7 +40452,7 @@
       </c>
       <c r="D537" s="524" t="str">
         <f aca="false">A537&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D537))</f>
-        <v>TZA Tanzania, United Republic of </v>
+        <v>TZA Tanzania, United Republic of</v>
       </c>
       <c r="E537" s="520" t="s">
         <v>3254</v>
@@ -40492,7 +40489,7 @@
       </c>
       <c r="D538" s="524" t="str">
         <f aca="false">A538&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D538))</f>
-        <v>UGA Uganda </v>
+        <v>UGA Uganda</v>
       </c>
       <c r="E538" s="520" t="s">
         <v>682</v>
@@ -40529,7 +40526,7 @@
       </c>
       <c r="D539" s="524" t="str">
         <f aca="false">A539&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D539))</f>
-        <v>UKR Ukraine </v>
+        <v>UKR Ukraine</v>
       </c>
       <c r="E539" s="520" t="s">
         <v>684</v>
@@ -40566,7 +40563,7 @@
       </c>
       <c r="D540" s="524" t="str">
         <f aca="false">A540&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D540))</f>
-        <v>URY Uruguay </v>
+        <v>URY Uruguay</v>
       </c>
       <c r="E540" s="520" t="s">
         <v>686</v>
@@ -40603,7 +40600,7 @@
       </c>
       <c r="D541" s="524" t="str">
         <f aca="false">A541&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D541))</f>
-        <v>USA United States </v>
+        <v>USA United States</v>
       </c>
       <c r="E541" s="520" t="s">
         <v>3272</v>
@@ -40640,7 +40637,7 @@
       </c>
       <c r="D542" s="524" t="str">
         <f aca="false">A542&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D542))</f>
-        <v>UZB Uzbekistan </v>
+        <v>UZB Uzbekistan</v>
       </c>
       <c r="E542" s="520" t="s">
         <v>3279</v>
@@ -40677,7 +40674,7 @@
       </c>
       <c r="D543" s="524" t="str">
         <f aca="false">A543&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D543))</f>
-        <v>VCT Saint Vincent and the Grenadines </v>
+        <v>VCT Saint Vincent and the Grenadines</v>
       </c>
       <c r="E543" s="520" t="s">
         <v>3285</v>
@@ -40714,7 +40711,7 @@
       </c>
       <c r="D544" s="524" t="str">
         <f aca="false">A544&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D544))</f>
-        <v>VEN Venezuela, Bolivarian Republic of </v>
+        <v>VEN Venezuela, Bolivarian Republic of</v>
       </c>
       <c r="E544" s="520" t="s">
         <v>3292</v>
@@ -40751,7 +40748,7 @@
       </c>
       <c r="D545" s="524" t="str">
         <f aca="false">A545&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D545))</f>
-        <v>VGB Virgin Islands, British </v>
+        <v>VGB Virgin Islands, British</v>
       </c>
       <c r="E545" s="520" t="s">
         <v>3298</v>
@@ -40788,7 +40785,7 @@
       </c>
       <c r="D546" s="524" t="str">
         <f aca="false">A546&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D546))</f>
-        <v>VIR Virgin Islands, U.S. </v>
+        <v>VIR Virgin Islands, U.S.</v>
       </c>
       <c r="E546" s="520" t="s">
         <v>3305</v>
@@ -40825,7 +40822,7 @@
       </c>
       <c r="D547" s="524" t="str">
         <f aca="false">A547&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D547))</f>
-        <v>VNM Viet Nam </v>
+        <v>VNM Viet Nam</v>
       </c>
       <c r="E547" s="520" t="s">
         <v>700</v>
@@ -40862,7 +40859,7 @@
       </c>
       <c r="D548" s="524" t="str">
         <f aca="false">A548&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D548))</f>
-        <v>VUT Vanuatu </v>
+        <v>VUT Vanuatu</v>
       </c>
       <c r="E548" s="520" t="s">
         <v>702</v>
@@ -40899,7 +40896,7 @@
       </c>
       <c r="D549" s="524" t="str">
         <f aca="false">A549&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D549))</f>
-        <v>WSM Samoa </v>
+        <v>WSM Samoa</v>
       </c>
       <c r="E549" s="520" t="s">
         <v>704</v>
@@ -40970,7 +40967,7 @@
       </c>
       <c r="D551" s="524" t="str">
         <f aca="false">A551&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D551))</f>
-        <v>YEM Yemen </v>
+        <v>YEM Yemen</v>
       </c>
       <c r="E551" s="520" t="s">
         <v>3323</v>
@@ -41007,7 +41004,7 @@
       </c>
       <c r="D552" s="524" t="str">
         <f aca="false">A552&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D552))</f>
-        <v>ZAF South Africa </v>
+        <v>ZAF South Africa</v>
       </c>
       <c r="E552" s="520" t="s">
         <v>3328</v>
@@ -41044,7 +41041,7 @@
       </c>
       <c r="D553" s="524" t="str">
         <f aca="false">A553&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D553))</f>
-        <v>ZMB Zambia </v>
+        <v>ZMB Zambia</v>
       </c>
       <c r="E553" s="520" t="s">
         <v>3335</v>
@@ -41081,7 +41078,7 @@
       </c>
       <c r="D554" s="524" t="str">
         <f aca="false">A554&amp;" "&amp;HLOOKUP($C$1,$E$1:$V$4910,ROW(D554))</f>
-        <v>ZWE Zimbabwe </v>
+        <v>ZWE Zimbabwe</v>
       </c>
       <c r="E554" s="520" t="s">
         <v>3340</v>
@@ -41557,7 +41554,7 @@
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="58.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.29"/>
@@ -42197,17 +42194,17 @@
   </sheetPr>
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="8" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N88" activeCellId="0" sqref="N88"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="68.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="6.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="60" width="68.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="61" width="6.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="61" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="59" width="42.71"/>
@@ -42215,7 +42212,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="61" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="62" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="63" width="7.28"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="1" width="12"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="1" width="4.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="21.15"/>
@@ -42280,11 +42277,11 @@
       <c r="G4" s="73"/>
       <c r="H4" s="74" t="n">
         <f aca="false">I4/J4</f>
-        <v>-0.377619047619048</v>
+        <v>-0.386829268292683</v>
       </c>
       <c r="I4" s="75" t="n">
         <f aca="false">IF(SUM(I9+I23+I38+I59+I76)*1000/SUM(J9+J23+J38+J59+J76)&lt;-3600,-3600,SUM(I9+I23+I38+I59+I76)*1000/SUM(J9+J23+J38+J59+J76))</f>
-        <v>-377.619047619048</v>
+        <v>-386.829268292683</v>
       </c>
       <c r="J4" s="76" t="n">
         <f aca="false">SUM(J9+J23+J38+J59+J76)*1000/SUM(J9+J23+J38+J59+J76)</f>
@@ -42398,15 +42395,15 @@
       <c r="G9" s="90"/>
       <c r="H9" s="93" t="n">
         <f aca="false">IFERROR(I9/J9,0)</f>
-        <v>-0.875</v>
+        <v>-1.16666666666667</v>
       </c>
       <c r="I9" s="94" t="n">
         <f aca="false">I10+I13+I17+I20</f>
-        <v>-83.3333333333333</v>
+        <v>-85.3658536585366</v>
       </c>
       <c r="J9" s="94" t="n">
         <f aca="false">J10+J13+J17+J20</f>
-        <v>95.2380952380952</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="L9" s="1" t="n">
         <f aca="false">'9. Weighting'!K49</f>
@@ -42445,11 +42442,11 @@
       </c>
       <c r="I10" s="102" t="n">
         <f aca="false">IF(J10=0,0,H10*J10)</f>
-        <v>-42.8571428571429</v>
+        <v>-43.9024390243903</v>
       </c>
       <c r="J10" s="102" t="n">
         <f aca="false">'9. Weighting'!M15</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="L10" s="1" t="n">
         <f aca="false">VLOOKUP(O10,$C$102:$E$106,3,FALSE())</f>
@@ -42489,11 +42486,11 @@
       </c>
       <c r="I11" s="109" t="n">
         <f aca="false">J11*H11/10</f>
-        <v>4.76190476190476</v>
+        <v>4.87804878048781</v>
       </c>
       <c r="J11" s="110" t="n">
         <f aca="false">J10*K11/K11</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>1</v>
@@ -42524,11 +42521,11 @@
       </c>
       <c r="I12" s="109" t="n">
         <f aca="false">H12*J10/50</f>
-        <v>-47.6190476190476</v>
+        <v>-48.7804878048781</v>
       </c>
       <c r="J12" s="110" t="n">
         <f aca="false">-200*J10/50</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42559,11 +42556,11 @@
       </c>
       <c r="I13" s="102" t="n">
         <f aca="false">IF(J13=0,0,H13*J13)</f>
-        <v>-42.8571428571429</v>
+        <v>-43.9024390243903</v>
       </c>
       <c r="J13" s="102" t="n">
         <f aca="false">'9. Weighting'!N15</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K13" s="1" t="str">
         <f aca="false">IF(AND(D14="trifft nicht zu",D15="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -42612,11 +42609,11 @@
       </c>
       <c r="I14" s="109" t="n">
         <f aca="false">IFERROR(J14*H14/10,0)</f>
-        <v>4.76190476190476</v>
+        <v>4.87804878048781</v>
       </c>
       <c r="J14" s="110" t="n">
         <f aca="false">IFERROR(J13*K14/(K15+K14),0)</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K14" s="1" t="n">
         <f aca="false">VLOOKUP(D14,$C$102:$E$106,3,FALSE())</f>
@@ -42668,7 +42665,7 @@
       </c>
       <c r="J15" s="110" t="n">
         <f aca="false">IFERROR(J13*K15/(K14+K15),0)</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">VLOOKUP(D15,$C$102:$E$106,3,FALSE())</f>
@@ -42712,11 +42709,11 @@
       </c>
       <c r="I16" s="109" t="n">
         <f aca="false">H16*J13/50</f>
-        <v>-47.6190476190476</v>
+        <v>-48.7804878048781</v>
       </c>
       <c r="J16" s="110" t="n">
         <f aca="false">-200*J13/50</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42747,11 +42744,11 @@
       </c>
       <c r="I17" s="102" t="n">
         <f aca="false">IF(J17=0,0,H17*J17)</f>
-        <v>2.38095238095238</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="J17" s="102" t="n">
         <f aca="false">'9. Weighting'!O15</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K17" s="1" t="str">
         <f aca="false">IF(D18="trifft nicht zu","trifft nicht zu","")</f>
@@ -42795,11 +42792,11 @@
       </c>
       <c r="I18" s="109" t="n">
         <f aca="false">J18*H18/10</f>
-        <v>2.38095238095238</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="J18" s="110" t="n">
         <f aca="false">J17*K18/K18</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>1</v>
@@ -42832,7 +42829,7 @@
       </c>
       <c r="J19" s="110" t="n">
         <f aca="false">-200*J17/50</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -42845,21 +42842,20 @@
         <v>Transparency &amp; co-determination in the supply chain</v>
       </c>
       <c r="D20" s="98" t="n">
-        <f aca="false">IF(K20="trifft nicht zu",C106,'9. Weighting'!P16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="99" t="str">
         <f aca="false">VLOOKUP(D20,$C$102:$D$106,2,FALSE())</f>
-        <v>medium</v>
+        <v>not applicable</v>
       </c>
       <c r="F20" s="111" t="n">
         <f aca="false">IF(K20="trifft nicht zu","trifft nicht zu",'9. Weighting'!P16)</f>
         <v>1</v>
       </c>
       <c r="G20" s="112"/>
-      <c r="H20" s="101" t="n">
+      <c r="H20" s="101" t="str">
         <f aca="false">IF(J20&lt;&gt;0,SUM(I21:I22)/J20,"-")</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="I20" s="102" t="n">
         <f aca="false">IF(J20=0,0,H20*J20)</f>
@@ -42867,7 +42863,7 @@
       </c>
       <c r="J20" s="102" t="n">
         <f aca="false">'9. Weighting'!P15</f>
-        <v>23.8095238095238</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1" t="str">
         <f aca="false">IF(AND(D21="trifft nicht zu",D22="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -42879,11 +42875,11 @@
       </c>
       <c r="M20" s="1" t="n">
         <f aca="false">VLOOKUP(D20,$C$102:$E$106,3,FALSE())</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="46" t="str">
         <f aca="false">IF(L20=M20,"",'12.lan'!$D$240&amp;VLOOKUP(L20,$C$102:$D$106,2,FALSE())&amp;" ("&amp;L20&amp;")")</f>
-        <v/>
+        <v>Weighting changed. Originalmedium (1)</v>
       </c>
       <c r="O20" s="1" t="n">
         <f aca="false">IF(K20="trifft nicht zu",C106,'9. Weighting'!P16)</f>
@@ -42919,7 +42915,7 @@
       </c>
       <c r="J21" s="110" t="n">
         <f aca="false">IFERROR(J20*K21/(K22+K21),0)</f>
-        <v>11.9047619047619</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1" t="n">
         <f aca="false">VLOOKUP(D21,$C$102:$E$106,3,FALSE())</f>
@@ -42971,7 +42967,7 @@
       </c>
       <c r="J22" s="110" t="n">
         <f aca="false">IFERROR(J20*K22/(K21+K22),0)</f>
-        <v>11.9047619047619</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1" t="n">
         <f aca="false">VLOOKUP(D22,$C$102:$E$106,3,FALSE())</f>
@@ -43019,11 +43015,11 @@
       </c>
       <c r="I23" s="94" t="n">
         <f aca="false">I24+I28+I31+I35</f>
-        <v>15.8730158730159</v>
+        <v>16.260162601626</v>
       </c>
       <c r="J23" s="94" t="n">
         <f aca="false">J24+J28+J31+J35</f>
-        <v>428.571428571429</v>
+        <v>439.024390243902</v>
       </c>
       <c r="L23" s="1" t="n">
         <f aca="false">'9. Weighting'!K50</f>
@@ -43062,11 +43058,11 @@
       </c>
       <c r="I24" s="102" t="n">
         <f aca="false">IF(J24=0,0,H24*J24)</f>
-        <v>15.8730158730159</v>
+        <v>16.260162601626</v>
       </c>
       <c r="J24" s="102" t="n">
         <f aca="false">'9. Weighting'!M23</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="K24" s="1" t="str">
         <f aca="false">IF(AND(D25="trifft nicht zu",D26="trifft nicht zu",,D27="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -43120,7 +43116,7 @@
       </c>
       <c r="J25" s="110" t="n">
         <f aca="false">IFERROR($J$24*K25/($K$27+$K$26+$K$25),0)</f>
-        <v>31.7460317460317</v>
+        <v>32.520325203252</v>
       </c>
       <c r="K25" s="1" t="n">
         <f aca="false">VLOOKUP(D25,$C$102:$E$106,3,FALSE())</f>
@@ -43170,11 +43166,11 @@
       </c>
       <c r="I26" s="109" t="n">
         <f aca="false">IFERROR(J26*H26/10,0)</f>
-        <v>15.8730158730159</v>
+        <v>16.260162601626</v>
       </c>
       <c r="J26" s="110" t="n">
         <f aca="false">IFERROR($J$24*K26/($K$27+$K$26+$K$25),0)</f>
-        <v>31.7460317460317</v>
+        <v>32.520325203252</v>
       </c>
       <c r="K26" s="1" t="n">
         <f aca="false">VLOOKUP(D26,$C$102:$E$106,3,FALSE())</f>
@@ -43228,7 +43224,7 @@
       </c>
       <c r="J27" s="110" t="n">
         <f aca="false">IFERROR($J$24*K27/($K$27+$K$26+$K$25),0)</f>
-        <v>31.7460317460317</v>
+        <v>32.520325203252</v>
       </c>
       <c r="K27" s="1" t="n">
         <f aca="false">VLOOKUP(D27,$C$102:$E$106,3,FALSE())</f>
@@ -43283,7 +43279,7 @@
       </c>
       <c r="J28" s="102" t="n">
         <f aca="false">'9. Weighting'!N23</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="L28" s="1" t="n">
         <f aca="false">VLOOKUP(O28,$C$102:$E$106,3,FALSE())</f>
@@ -43325,7 +43321,7 @@
       </c>
       <c r="J29" s="110" t="n">
         <f aca="false">$J$28*K29/(K29)</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>1</v>
@@ -43363,7 +43359,7 @@
       </c>
       <c r="J30" s="110" t="n">
         <f aca="false">-200*J28/50</f>
-        <v>-571.428571428571</v>
+        <v>-585.365853658537</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -43398,7 +43394,7 @@
       </c>
       <c r="J31" s="102" t="n">
         <f aca="false">'9. Weighting'!O23</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="K31" s="1" t="str">
         <f aca="false">IF(AND(D32="trifft nicht zu",D33="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -43452,7 +43448,7 @@
       </c>
       <c r="J32" s="110" t="n">
         <f aca="false">IFERROR($J$31*K32/($K$32+$K$33),0)</f>
-        <v>71.4285714285714</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="K32" s="1" t="n">
         <f aca="false">VLOOKUP(D32,$C$102:$E$106,3,FALSE())</f>
@@ -43506,7 +43502,7 @@
       </c>
       <c r="J33" s="110" t="n">
         <f aca="false">IFERROR($J$31*K33/($K$32+$K$33),0)</f>
-        <v>71.4285714285714</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="K33" s="1" t="n">
         <f aca="false">VLOOKUP(D33,$C$102:$E$106,3,FALSE())</f>
@@ -43554,7 +43550,7 @@
       </c>
       <c r="J34" s="110" t="n">
         <f aca="false">-200*J31/50</f>
-        <v>-571.428571428571</v>
+        <v>-585.365853658537</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -43589,7 +43585,7 @@
       </c>
       <c r="J35" s="102" t="n">
         <f aca="false">'9. Weighting'!P23</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="L35" s="1" t="n">
         <f aca="false">VLOOKUP(O35,$C$102:$E$106,3,FALSE())</f>
@@ -43631,7 +43627,7 @@
       </c>
       <c r="J36" s="110" t="n">
         <f aca="false">$J$35*K36/(K36)</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>1</v>
@@ -43660,7 +43656,7 @@
       </c>
       <c r="J37" s="110" t="n">
         <f aca="false">-200*J35/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -43688,11 +43684,11 @@
       </c>
       <c r="I38" s="94" t="n">
         <f aca="false">I39+I44+I49+I54</f>
-        <v>-10.3968253968254</v>
+        <v>-10.650406504065</v>
       </c>
       <c r="J38" s="94" t="n">
         <f aca="false">J39+J44+J49+J54</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="L38" s="1" t="n">
         <f aca="false">'9. Weighting'!K51</f>
@@ -43731,11 +43727,11 @@
       </c>
       <c r="I39" s="102" t="n">
         <f aca="false">IF(J39=0,0,H39*J39)</f>
-        <v>0.793650793650794</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="J39" s="102" t="n">
         <f aca="false">'9. Weighting'!M29</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K39" s="1" t="str">
         <f aca="false">IF(AND(D40="trifft nicht zu",D41="trifft nicht zu",,D42="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -43785,11 +43781,11 @@
       </c>
       <c r="I40" s="109" t="n">
         <f aca="false">IFERROR(J40*H40/10,0)</f>
-        <v>0.793650793650794</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="J40" s="110" t="n">
         <f aca="false">IFERROR($J$39*K40/(SUM($K$40:$K$42)),0)</f>
-        <v>7.93650793650794</v>
+        <v>8.13008130081301</v>
       </c>
       <c r="K40" s="1" t="n">
         <f aca="false">VLOOKUP(D40,$C$102:$E$106,3,FALSE())</f>
@@ -43841,7 +43837,7 @@
       </c>
       <c r="J41" s="110" t="n">
         <f aca="false">IFERROR($J$39*K41/(SUM($K$40:$K$42)),0)</f>
-        <v>7.93650793650794</v>
+        <v>8.13008130081301</v>
       </c>
       <c r="K41" s="1" t="n">
         <f aca="false">VLOOKUP(D41,$C$102:$E$106,3,FALSE())</f>
@@ -43893,7 +43889,7 @@
       </c>
       <c r="J42" s="110" t="n">
         <f aca="false">IFERROR($J$39*K42/(SUM($K$40:$K$42)),0)</f>
-        <v>7.93650793650794</v>
+        <v>8.13008130081301</v>
       </c>
       <c r="K42" s="1" t="n">
         <f aca="false">VLOOKUP(D42,$C$102:$E$106,3,FALSE())</f>
@@ -43941,7 +43937,7 @@
       </c>
       <c r="J43" s="110" t="n">
         <f aca="false">-200*J39/50</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -43972,11 +43968,11 @@
       </c>
       <c r="I44" s="102" t="n">
         <f aca="false">IF(J44=0,0,H44*J44)</f>
-        <v>-0.476190476190476</v>
+        <v>-0.487804878048781</v>
       </c>
       <c r="J44" s="102" t="n">
         <f aca="false">'9. Weighting'!N29</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K44" s="1" t="str">
         <f aca="false">IF(AND(D45="trifft nicht zu",D46="trifft nicht zu",,D47="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -44028,7 +44024,7 @@
       </c>
       <c r="J45" s="110" t="n">
         <f aca="false">IFERROR($J$44*K45/(SUM($K$45:$K$47)),0)</f>
-        <v>7.93650793650794</v>
+        <v>8.13008130081301</v>
       </c>
       <c r="K45" s="1" t="n">
         <f aca="false">VLOOKUP(D45,$C$102:$E$106,3,FALSE())</f>
@@ -44080,7 +44076,7 @@
       </c>
       <c r="J46" s="110" t="n">
         <f aca="false">IFERROR($J$44*K46/(SUM($K$45:$K$47)),0)</f>
-        <v>7.93650793650794</v>
+        <v>8.13008130081301</v>
       </c>
       <c r="K46" s="1" t="n">
         <f aca="false">VLOOKUP(D46,$C$102:$E$106,3,FALSE())</f>
@@ -44132,7 +44128,7 @@
       </c>
       <c r="J47" s="110" t="n">
         <f aca="false">IFERROR($J$44*K47/(SUM($K$45:$K$47)),0)</f>
-        <v>7.93650793650794</v>
+        <v>8.13008130081301</v>
       </c>
       <c r="K47" s="1" t="n">
         <f aca="false">VLOOKUP(D47,$C$102:$E$106,3,FALSE())</f>
@@ -44176,11 +44172,11 @@
       </c>
       <c r="I48" s="109" t="n">
         <f aca="false">H48*J44/50</f>
-        <v>-0.476190476190476</v>
+        <v>-0.487804878048781</v>
       </c>
       <c r="J48" s="110" t="n">
         <f aca="false">-200*J44/50</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44211,11 +44207,11 @@
       </c>
       <c r="I49" s="102" t="n">
         <f aca="false">IF(J49=0,0,H49*J49)</f>
-        <v>-10.7142857142857</v>
+        <v>-10.9756097560976</v>
       </c>
       <c r="J49" s="102" t="n">
         <f aca="false">'9. Weighting'!O29</f>
-        <v>35.7142857142857</v>
+        <v>36.5853658536585</v>
       </c>
       <c r="K49" s="1" t="str">
         <f aca="false">IF(AND(D50="trifft nicht zu",D51="trifft nicht zu",,D52="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -44269,7 +44265,7 @@
       </c>
       <c r="J50" s="110" t="n">
         <f aca="false">IFERROR($J$49*K50/(SUM($K$50:$K$52)),0)</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K50" s="1" t="n">
         <f aca="false">VLOOKUP(D50,$C$102:$E$106,3,FALSE())</f>
@@ -44321,7 +44317,7 @@
       </c>
       <c r="J51" s="110" t="n">
         <f aca="false">IFERROR($J$49*K51/(SUM($K$50:$K$52)),0)</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K51" s="1" t="n">
         <f aca="false">VLOOKUP(D51,$C$102:$E$106,3,FALSE())</f>
@@ -44371,11 +44367,11 @@
       </c>
       <c r="I52" s="109" t="n">
         <f aca="false">IFERROR(J52*H52/10,0)</f>
-        <v>3.57142857142857</v>
+        <v>3.65853658536585</v>
       </c>
       <c r="J52" s="110" t="n">
         <f aca="false">IFERROR($J$49*K52/(SUM($K$50:$K$52)),0)</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K52" s="1" t="n">
         <f aca="false">VLOOKUP(D52,$C$102:$E$106,3,FALSE())</f>
@@ -44419,11 +44415,11 @@
       </c>
       <c r="I53" s="109" t="n">
         <f aca="false">H53*J49/50</f>
-        <v>-14.2857142857143</v>
+        <v>-14.6341463414634</v>
       </c>
       <c r="J53" s="110" t="n">
         <f aca="false">-200*J49/50</f>
-        <v>-142.857142857143</v>
+        <v>-146.341463414634</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44458,7 +44454,7 @@
       </c>
       <c r="J54" s="102" t="n">
         <f aca="false">'9. Weighting'!P29</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K54" s="1" t="str">
         <f aca="false">IF(AND(D55="trifft nicht zu",D56="trifft nicht zu",,D57="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -44510,7 +44506,7 @@
       </c>
       <c r="J55" s="110" t="n">
         <f aca="false">IFERROR($J$54*K55/(SUM($K$55:$K$57)),0)</f>
-        <v>3.96825396825397</v>
+        <v>4.0650406504065</v>
       </c>
       <c r="K55" s="1" t="n">
         <f aca="false">VLOOKUP(D55,$C$102:$E$106,3,FALSE())</f>
@@ -44562,7 +44558,7 @@
       </c>
       <c r="J56" s="110" t="n">
         <f aca="false">IFERROR($J$54*K56/(SUM($K$55:$K$57)),0)</f>
-        <v>3.96825396825397</v>
+        <v>4.0650406504065</v>
       </c>
       <c r="K56" s="1" t="n">
         <f aca="false">VLOOKUP(D56,$C$102:$E$106,3,FALSE())</f>
@@ -44614,7 +44610,7 @@
       </c>
       <c r="J57" s="110" t="n">
         <f aca="false">IFERROR($J$54*K57/(SUM($K$55:$K$57)),0)</f>
-        <v>3.96825396825397</v>
+        <v>4.0650406504065</v>
       </c>
       <c r="K57" s="1" t="n">
         <f aca="false">VLOOKUP(D57,$C$102:$E$106,3,FALSE())</f>
@@ -44660,7 +44656,7 @@
       </c>
       <c r="J58" s="110" t="n">
         <f aca="false">-200*J54/50</f>
-        <v>-47.6190476190476</v>
+        <v>-48.7804878048781</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44688,11 +44684,11 @@
       </c>
       <c r="I59" s="94" t="n">
         <f aca="false">I60+I64+I68+I72</f>
-        <v>-214.285714285714</v>
+        <v>-219.512195121951</v>
       </c>
       <c r="J59" s="94" t="n">
         <f aca="false">J60+J64+J68+J72</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="L59" s="1" t="n">
         <f aca="false">'9. Weighting'!K52</f>
@@ -44731,11 +44727,11 @@
       </c>
       <c r="I60" s="102" t="n">
         <f aca="false">IF(J60=0,0,H60*J60)</f>
-        <v>-161.904761904762</v>
+        <v>-165.853658536585</v>
       </c>
       <c r="J60" s="102" t="n">
         <f aca="false">'9. Weighting'!M36</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="K60" s="1" t="str">
         <f aca="false">IF(AND(D61="trifft nicht zu",D62="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -44785,11 +44781,11 @@
       </c>
       <c r="I61" s="109" t="n">
         <f aca="false">IFERROR(J61*H61/10,0)</f>
-        <v>14.2857142857143</v>
+        <v>14.6341463414634</v>
       </c>
       <c r="J61" s="110" t="n">
         <f aca="false">IFERROR($J$60*K61/(SUM($K$61:$K$62)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K61" s="1" t="n">
         <f aca="false">VLOOKUP(D61,$C$102:$E$106,3,FALSE())</f>
@@ -44839,11 +44835,11 @@
       </c>
       <c r="I62" s="109" t="n">
         <f aca="false">IFERROR(J62*H62/10,0)</f>
-        <v>14.2857142857143</v>
+        <v>14.6341463414634</v>
       </c>
       <c r="J62" s="110" t="n">
         <f aca="false">IFERROR($J$60*K62/(SUM($K$61:$K$62)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K62" s="1" t="n">
         <f aca="false">VLOOKUP(D62,$C$102:$E$106,3,FALSE())</f>
@@ -44887,11 +44883,11 @@
       </c>
       <c r="I63" s="109" t="n">
         <f aca="false">H63*J60/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
       <c r="J63" s="110" t="n">
         <f aca="false">-200*J60/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -44926,7 +44922,7 @@
       </c>
       <c r="J64" s="102" t="n">
         <f aca="false">'9. Weighting'!N36</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="K64" s="1" t="str">
         <f aca="false">IF(AND(D65="trifft nicht zu",D66="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -44978,7 +44974,7 @@
       </c>
       <c r="J65" s="110" t="n">
         <f aca="false">IFERROR($J$64*K65/(SUM($K$65:$K$66)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K65" s="1" t="n">
         <f aca="false">VLOOKUP(D65,$C$102:$E$106,3,FALSE())</f>
@@ -45030,7 +45026,7 @@
       </c>
       <c r="J66" s="110" t="n">
         <f aca="false">IFERROR($J$64*K66/(SUM($K$65:$K$66)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K66" s="1" t="n">
         <f aca="false">VLOOKUP(D66,$C$102:$E$106,3,FALSE())</f>
@@ -45076,7 +45072,7 @@
       </c>
       <c r="J67" s="110" t="n">
         <f aca="false">-200*J64/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45111,7 +45107,7 @@
       </c>
       <c r="J68" s="102" t="n">
         <f aca="false">'9. Weighting'!O36</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="K68" s="1" t="str">
         <f aca="false">IF(AND(D69="trifft nicht zu",D70="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -45141,7 +45137,7 @@
       </c>
       <c r="C69" s="103" t="str">
         <f aca="false">'12.lan'!D168</f>
-        <v>Environmental cost-benefit ration of products and services (efficiency and consistency) </v>
+        <v>Environmental cost-benefit ration of products and services (efficiency and consistency)</v>
       </c>
       <c r="D69" s="104" t="n">
         <f aca="false">C104</f>
@@ -45163,7 +45159,7 @@
       </c>
       <c r="J69" s="110" t="n">
         <f aca="false">IFERROR($J$68*K69/(SUM($K$69:$K$70)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K69" s="1" t="n">
         <f aca="false">VLOOKUP(D69,$C$102:$E$106,3,FALSE())</f>
@@ -45215,7 +45211,7 @@
       </c>
       <c r="J70" s="110" t="n">
         <f aca="false">IFERROR($J$68*K70/(SUM($K$69:$K$70)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K70" s="1" t="n">
         <f aca="false">VLOOKUP(D70,$C$102:$E$106,3,FALSE())</f>
@@ -45261,7 +45257,7 @@
       </c>
       <c r="J71" s="110" t="n">
         <f aca="false">-200*J68/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45292,11 +45288,11 @@
       </c>
       <c r="I72" s="102" t="n">
         <f aca="false">IF(J72=0,0,H72*J72)</f>
-        <v>-52.3809523809524</v>
+        <v>-53.6585365853659</v>
       </c>
       <c r="J72" s="102" t="n">
         <f aca="false">'9. Weighting'!P36</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="K72" s="1" t="str">
         <f aca="false">IF(AND(D73="trifft nicht zu",D74="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -45350,7 +45346,7 @@
       </c>
       <c r="J73" s="110" t="n">
         <f aca="false">IFERROR($J$72*K73/(SUM($K$73:$K$74)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K73" s="1" t="n">
         <f aca="false">VLOOKUP(D73,$C$102:$E$106,3,FALSE())</f>
@@ -45402,7 +45398,7 @@
       </c>
       <c r="J74" s="110" t="n">
         <f aca="false">IFERROR($J$72*K74/(SUM($K$73:$K$74)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K74" s="1" t="n">
         <f aca="false">VLOOKUP(D74,$C$102:$E$106,3,FALSE())</f>
@@ -45446,11 +45442,11 @@
       </c>
       <c r="I75" s="109" t="n">
         <f aca="false">H75*J72/50</f>
-        <v>-52.3809523809524</v>
+        <v>-53.6585365853659</v>
       </c>
       <c r="J75" s="110" t="n">
         <f aca="false">-200*J72/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45478,11 +45474,11 @@
       </c>
       <c r="I76" s="94" t="n">
         <f aca="false">I77+I81+I86+I90</f>
-        <v>-85.4761904761905</v>
+        <v>-87.5609756097561</v>
       </c>
       <c r="J76" s="94" t="n">
         <f aca="false">J77+J81+J86+J90</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="L76" s="1" t="n">
         <f aca="false">'9. Weighting'!K53</f>
@@ -45521,11 +45517,11 @@
       </c>
       <c r="I77" s="102" t="n">
         <f aca="false">IF(J77=0,0,H77*J77)</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
       <c r="J77" s="102" t="n">
         <f aca="false">'9. Weighting'!M42</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="K77" s="1" t="str">
         <f aca="false">IF(AND(D78="trifft nicht zu",D79="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -45577,7 +45573,7 @@
       </c>
       <c r="J78" s="110" t="n">
         <f aca="false">IFERROR($J$77*K78/(SUM($K$78:$K$79)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K78" s="1" t="n">
         <f aca="false">VLOOKUP(D78,$C$102:$E$106,3,FALSE())</f>
@@ -45629,7 +45625,7 @@
       </c>
       <c r="J79" s="110" t="n">
         <f aca="false">IFERROR($J$77*K79/(SUM($K$78:$K$79)),0)</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K79" s="1" t="n">
         <f aca="false">VLOOKUP(D79,$C$102:$E$106,3,FALSE())</f>
@@ -45673,11 +45669,11 @@
       </c>
       <c r="I80" s="109" t="n">
         <f aca="false">H80*J77/50</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
       <c r="J80" s="110" t="n">
         <f aca="false">-200*J77/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45712,7 +45708,7 @@
       </c>
       <c r="J81" s="102" t="n">
         <f aca="false">'9. Weighting'!N42</f>
-        <v>71.4285714285714</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="K81" s="1" t="str">
         <f aca="false">IF(AND(D82="trifft nicht zu",D83="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -45764,7 +45760,7 @@
       </c>
       <c r="J82" s="110" t="n">
         <f aca="false">IFERROR($J$81*K82/SUM($K$82:$K$83),0)</f>
-        <v>35.7142857142857</v>
+        <v>36.5853658536585</v>
       </c>
       <c r="K82" s="1" t="n">
         <f aca="false">VLOOKUP(D82,$C$102:$E$106,3,FALSE())</f>
@@ -45815,7 +45811,7 @@
       </c>
       <c r="J83" s="110" t="n">
         <f aca="false">IFERROR($J$81*K83/SUM($K$82:$K$83),0)</f>
-        <v>35.7142857142857</v>
+        <v>36.5853658536585</v>
       </c>
       <c r="K83" s="1" t="n">
         <f aca="false">VLOOKUP(D83,$C$102:$E$106,3,FALSE())</f>
@@ -45861,7 +45857,7 @@
       </c>
       <c r="J84" s="110" t="n">
         <f aca="false">-200*J81/50</f>
-        <v>-285.714285714286</v>
+        <v>-292.682926829268</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45889,7 +45885,7 @@
       </c>
       <c r="J85" s="110" t="n">
         <f aca="false">-200*J81/50</f>
-        <v>-285.714285714286</v>
+        <v>-292.682926829268</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -45917,11 +45913,11 @@
       </c>
       <c r="I86" s="102" t="n">
         <f aca="false">IF(J86=0,0,H86*J86)</f>
-        <v>8.57142857142857</v>
+        <v>8.78048780487805</v>
       </c>
       <c r="J86" s="102" t="n">
         <f aca="false">'9. Weighting'!O42</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="K86" s="1" t="str">
         <f aca="false">IF(AND(D87="trifft nicht zu",D88="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -45973,7 +45969,7 @@
       </c>
       <c r="J87" s="110" t="n">
         <f aca="false">IFERROR(J86*K87/SUM($K$87:$K$88),0)</f>
-        <v>19.047619047619</v>
+        <v>19.5121951219512</v>
       </c>
       <c r="K87" s="1" t="n">
         <f aca="false">VLOOKUP(D87,$C$102:$E$106,3,FALSE())</f>
@@ -46022,11 +46018,11 @@
       </c>
       <c r="I88" s="109" t="n">
         <f aca="false">IFERROR(J88*H88/10,0)</f>
-        <v>11.4285714285714</v>
+        <v>11.7073170731707</v>
       </c>
       <c r="J88" s="110" t="n">
         <f aca="false">IFERROR(J86*K88/SUM($K$87:$K$88),0)</f>
-        <v>28.5714285714286</v>
+        <v>29.2682926829268</v>
       </c>
       <c r="K88" s="1" t="n">
         <f aca="false">VLOOKUP(D88,$C$102:$E$106,3,FALSE())</f>
@@ -46070,11 +46066,11 @@
       </c>
       <c r="I89" s="109" t="n">
         <f aca="false">H89*J86/50</f>
-        <v>-2.85714285714286</v>
+        <v>-2.92682926829268</v>
       </c>
       <c r="J89" s="110" t="n">
         <f aca="false">-200*J86/50</f>
-        <v>-190.47619047619</v>
+        <v>-195.121951219512</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -46102,11 +46098,11 @@
       </c>
       <c r="I90" s="102" t="n">
         <f aca="false">IF(J90=0,0,H90*J90)</f>
-        <v>1.19047619047619</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="J90" s="102" t="n">
         <f aca="false">'9. Weighting'!P42</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="K90" s="1" t="str">
         <f aca="false">IF(AND(D91="trifft nicht zu",D92="trifft nicht zu"),"trifft nicht zu","")</f>
@@ -46157,7 +46153,7 @@
       </c>
       <c r="J91" s="110" t="n">
         <f aca="false">IFERROR($J$90*K91/SUM($K$91:$K$92),0)</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K91" s="1" t="n">
         <f aca="false">VLOOKUP(D91,$C$102:$E$106,3,FALSE())</f>
@@ -46207,11 +46203,11 @@
       </c>
       <c r="I92" s="109" t="n">
         <f aca="false">IFERROR(J92*H92/10,0)</f>
-        <v>1.19047619047619</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="J92" s="110" t="n">
         <f aca="false">IFERROR($J$90*K92/SUM($K$91:$K$92),0)</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="K92" s="1" t="n">
         <f aca="false">VLOOKUP(D92,$C$102:$E$106,3,FALSE())</f>
@@ -46257,7 +46253,7 @@
       </c>
       <c r="J93" s="110" t="n">
         <f aca="false">-200*J90/50</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -46285,11 +46281,11 @@
       <c r="G95" s="130"/>
       <c r="H95" s="131" t="n">
         <f aca="false">H4</f>
-        <v>-0.377619047619048</v>
+        <v>-0.386829268292683</v>
       </c>
       <c r="I95" s="132" t="n">
         <f aca="false">I4</f>
-        <v>-377.619047619048</v>
+        <v>-386.829268292683</v>
       </c>
       <c r="J95" s="132" t="n">
         <f aca="false">J4</f>
@@ -46497,13 +46493,13 @@
       <selection pane="bottomRight" activeCell="D69" activeCellId="0" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2890625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.28125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="134" width="1.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="134" width="2.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="134" width="8.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="134" width="40.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="134" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="134" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="134" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="134" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="134" width="36.28"/>
@@ -46714,19 +46710,19 @@
       <c r="L9" s="160"/>
       <c r="M9" s="162" t="n">
         <f aca="false">M15+M23+M29+M36+M42</f>
-        <v>238.095238095238</v>
+        <v>243.90243902439</v>
       </c>
       <c r="N9" s="162" t="n">
         <f aca="false">N15+N23+N29+N36+N42</f>
-        <v>309.52380952381</v>
+        <v>317.073170731707</v>
       </c>
       <c r="O9" s="162" t="n">
         <f aca="false">O15+O23+O29+O36+O42</f>
-        <v>297.619047619048</v>
+        <v>304.878048780488</v>
       </c>
       <c r="P9" s="162" t="n">
         <f aca="false">P15+P23+P29+P36+P42</f>
-        <v>154.761904761905</v>
+        <v>134.146341463415</v>
       </c>
       <c r="Q9" s="149"/>
       <c r="R9" s="136"/>
@@ -46755,7 +46751,7 @@
       </c>
       <c r="L10" s="171" t="n">
         <f aca="false">M15+N15+O15+P15</f>
-        <v>95.2380952380952</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="M10" s="172" t="s">
         <v>39</v>
@@ -46828,7 +46824,7 @@
       <c r="D13" s="156"/>
       <c r="E13" s="177" t="str">
         <f aca="false">LEFT(F13,2)</f>
-        <v>A </v>
+        <v>A</v>
       </c>
       <c r="F13" s="184" t="str">
         <f aca="false">'2. Company Facts'!B10</f>
@@ -46898,7 +46894,7 @@
       </c>
       <c r="P14" s="198" t="n">
         <f aca="false">'3. Calc'!D20</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="199" t="n">
         <f aca="false">'11.Region'!U10</f>
@@ -46913,7 +46909,7 @@
       <c r="D15" s="191"/>
       <c r="E15" s="177" t="str">
         <f aca="false">LEFT(F15,2)</f>
-        <v>A </v>
+        <v>A</v>
       </c>
       <c r="F15" s="200" t="str">
         <f aca="false">'2. Company Facts'!B12</f>
@@ -46936,19 +46932,19 @@
       <c r="L15" s="169"/>
       <c r="M15" s="201" t="n">
         <f aca="false">M49</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="N15" s="202" t="n">
         <f aca="false">N49</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="O15" s="202" t="n">
         <f aca="false">O49</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="P15" s="203" t="n">
         <f aca="false">P49</f>
-        <v>23.8095238095238</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="199"/>
       <c r="R15" s="136"/>
@@ -46960,7 +46956,7 @@
       <c r="D16" s="150"/>
       <c r="E16" s="177" t="str">
         <f aca="false">LEFT(F16,2)</f>
-        <v>A </v>
+        <v>A</v>
       </c>
       <c r="F16" s="200" t="str">
         <f aca="false">'2. Company Facts'!B13</f>
@@ -47087,7 +47083,7 @@
       </c>
       <c r="L19" s="171" t="n">
         <f aca="false">M23+N23+O23+P23</f>
-        <v>428.571428571429</v>
+        <v>439.024390243902</v>
       </c>
       <c r="M19" s="224" t="s">
         <v>53</v>
@@ -47221,19 +47217,19 @@
       <c r="L23" s="222"/>
       <c r="M23" s="201" t="n">
         <f aca="false">M50</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="N23" s="202" t="n">
         <f aca="false">N50</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="O23" s="202" t="n">
         <f aca="false">O50</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="P23" s="203" t="n">
         <f aca="false">P50</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="Q23" s="239"/>
       <c r="R23" s="136"/>
@@ -47304,7 +47300,7 @@
       </c>
       <c r="L25" s="171" t="n">
         <f aca="false">M29+N29+O29+P29</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="M25" s="254" t="s">
         <v>68</v>
@@ -47437,19 +47433,19 @@
       <c r="L29" s="222"/>
       <c r="M29" s="201" t="n">
         <f aca="false">M51</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="N29" s="202" t="n">
         <f aca="false">N51</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="O29" s="202" t="n">
         <f aca="false">O51</f>
-        <v>35.7142857142857</v>
+        <v>36.5853658536585</v>
       </c>
       <c r="P29" s="203" t="n">
         <f aca="false">P51</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="Q29" s="239"/>
       <c r="R29" s="136"/>
@@ -47539,7 +47535,7 @@
       </c>
       <c r="L32" s="171" t="n">
         <f aca="false">M36+N36+O36+P36</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="M32" s="269" t="s">
         <v>89</v>
@@ -47625,7 +47621,7 @@
       </c>
       <c r="H35" s="272" t="str">
         <f aca="false">LEFT(F35,2)</f>
-        <v>J </v>
+        <v>J</v>
       </c>
       <c r="I35" s="276" t="n">
         <f aca="false">'2. Company Facts'!D41</f>
@@ -47680,19 +47676,19 @@
       <c r="L36" s="222"/>
       <c r="M36" s="201" t="n">
         <f aca="false">M52</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="N36" s="202" t="n">
         <f aca="false">N52</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="O36" s="202" t="n">
         <f aca="false">O52</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="P36" s="203" t="n">
         <f aca="false">P52</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="Q36" s="239"/>
       <c r="R36" s="136"/>
@@ -47763,7 +47759,7 @@
       </c>
       <c r="L38" s="171" t="n">
         <f aca="false">M42+N42+O42+P42</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="M38" s="254" t="s">
         <v>105</v>
@@ -47875,19 +47871,19 @@
       <c r="L42" s="169"/>
       <c r="M42" s="289" t="n">
         <f aca="false">M53</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="N42" s="290" t="n">
         <f aca="false">N53</f>
-        <v>71.4285714285714</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="O42" s="290" t="n">
         <f aca="false">O53</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="P42" s="291" t="n">
         <f aca="false">P53</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="Q42" s="250"/>
       <c r="R42" s="136"/>
@@ -48065,23 +48061,23 @@
       <c r="L49" s="299"/>
       <c r="M49" s="300" t="n">
         <f aca="false">M62/$Q$67*1000</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="N49" s="300" t="n">
         <f aca="false">N62/$Q$67*1000</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="O49" s="300" t="n">
         <f aca="false">O62/$Q$67*1000</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="P49" s="300" t="n">
         <f aca="false">P62/$Q$67*1000</f>
-        <v>23.8095238095238</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="301" t="n">
         <f aca="false">SUM(M49:P49)</f>
-        <v>95.2380952380952</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="R49" s="137" t="n">
         <f aca="false">'3. Calc'!D9</f>
@@ -48116,23 +48112,23 @@
       <c r="L50" s="299"/>
       <c r="M50" s="300" t="n">
         <f aca="false">M63/$Q$67*1000</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="N50" s="300" t="n">
         <f aca="false">N63/$Q$67*1000</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="O50" s="300" t="n">
         <f aca="false">O63/$Q$67*1000</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="P50" s="300" t="n">
         <f aca="false">P63/$Q$67*1000</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="Q50" s="301" t="n">
         <f aca="false">SUM(M50:P50)</f>
-        <v>428.571428571429</v>
+        <v>439.024390243902</v>
       </c>
       <c r="R50" s="137" t="n">
         <f aca="false">'3. Calc'!D23</f>
@@ -48167,23 +48163,23 @@
       <c r="L51" s="299"/>
       <c r="M51" s="300" t="n">
         <f aca="false">M64/$Q$67*1000</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="N51" s="300" t="n">
         <f aca="false">N64/$Q$67*1000</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="O51" s="300" t="n">
         <f aca="false">O64/$Q$67*1000</f>
-        <v>35.7142857142857</v>
+        <v>36.5853658536585</v>
       </c>
       <c r="P51" s="300" t="n">
         <f aca="false">P64/$Q$67*1000</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="Q51" s="301" t="n">
         <f aca="false">SUM(M51:P51)</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="R51" s="137" t="n">
         <f aca="false">'3. Calc'!D38</f>
@@ -48212,23 +48208,23 @@
       <c r="L52" s="299"/>
       <c r="M52" s="300" t="n">
         <f aca="false">M65/$Q$67*1000</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="N52" s="300" t="n">
         <f aca="false">N65/$Q$67*1000</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="O52" s="300" t="n">
         <f aca="false">O65/$Q$67*1000</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="P52" s="300" t="n">
         <f aca="false">P65/$Q$67*1000</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="Q52" s="301" t="n">
         <f aca="false">SUM(M52:P52)</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="R52" s="137" t="n">
         <f aca="false">'3. Calc'!D59</f>
@@ -48257,23 +48253,23 @@
       <c r="L53" s="299"/>
       <c r="M53" s="300" t="n">
         <f aca="false">M66/$Q$67*1000</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="N53" s="300" t="n">
         <f aca="false">N66/$Q$67*1000</f>
-        <v>71.4285714285714</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="O53" s="300" t="n">
         <f aca="false">O66/$Q$67*1000</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="P53" s="300" t="n">
         <f aca="false">P66/$Q$67*1000</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="Q53" s="301" t="n">
         <f aca="false">SUM(M53:P53)</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="R53" s="137" t="n">
         <f aca="false">'3. Calc'!D76</f>
@@ -48295,19 +48291,19 @@
       <c r="L54" s="303"/>
       <c r="M54" s="304" t="n">
         <f aca="false">SUM(M49:M53)</f>
-        <v>238.095238095238</v>
+        <v>243.90243902439</v>
       </c>
       <c r="N54" s="304" t="n">
         <f aca="false">SUM(N49:N53)</f>
-        <v>309.52380952381</v>
+        <v>317.073170731707</v>
       </c>
       <c r="O54" s="304" t="n">
         <f aca="false">SUM(O49:O53)</f>
-        <v>297.619047619048</v>
+        <v>304.878048780488</v>
       </c>
       <c r="P54" s="304" t="n">
         <f aca="false">SUM(P49:P53)</f>
-        <v>154.761904761905</v>
+        <v>134.146341463415</v>
       </c>
       <c r="Q54" s="305" t="n">
         <f aca="false">SUM(Q49:Q53)</f>
@@ -48501,11 +48497,11 @@
       </c>
       <c r="P62" s="308" t="n">
         <f aca="false">P14*$K$62</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="301" t="n">
         <f aca="false">SUM(M62:P62)</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="R62" s="136"/>
     </row>
@@ -48688,11 +48684,11 @@
       </c>
       <c r="P67" s="304" t="n">
         <f aca="false">SUM(P62:P66)</f>
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q67" s="305" t="n">
         <f aca="false">SUM(Q62:Q66)</f>
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="R67" s="136"/>
     </row>
@@ -49933,12 +49929,12 @@
       <c r="J4" s="317"/>
       <c r="K4" s="318" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-377.619047619048</v>
+        <v>-386.829268292683</v>
       </c>
       <c r="L4" s="318"/>
       <c r="M4" s="319" t="str">
         <f aca="false">'12.lan'!D214&amp;" "&amp;'3. Calc'!$J$4&amp;'12.lan'!D215</f>
-        <v>of 1000 points</v>
+        <v>of 1000points</v>
       </c>
       <c r="N4" s="319"/>
       <c r="O4" s="319"/>
@@ -50065,7 +50061,7 @@
       <c r="B9" s="325"/>
       <c r="C9" s="327" t="n">
         <f aca="false">'3. Calc'!I10</f>
-        <v>-42.8571428571429</v>
+        <v>-43.9024390243903</v>
       </c>
       <c r="D9" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50073,7 +50069,7 @@
       </c>
       <c r="E9" s="329" t="n">
         <f aca="false">'3. Calc'!J10</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F9" s="330" t="n">
         <f aca="false">'3. Calc'!H10</f>
@@ -50081,7 +50077,7 @@
       </c>
       <c r="G9" s="327" t="n">
         <f aca="false">'3. Calc'!I13</f>
-        <v>-42.8571428571429</v>
+        <v>-43.9024390243903</v>
       </c>
       <c r="H9" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50089,7 +50085,7 @@
       </c>
       <c r="I9" s="329" t="n">
         <f aca="false">'3. Calc'!J13</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="J9" s="330" t="n">
         <f aca="false">'3. Calc'!H13</f>
@@ -50097,7 +50093,7 @@
       </c>
       <c r="K9" s="327" t="n">
         <f aca="false">'3. Calc'!I17</f>
-        <v>2.38095238095238</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="L9" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50105,7 +50101,7 @@
       </c>
       <c r="M9" s="329" t="n">
         <f aca="false">'3. Calc'!J17</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="N9" s="330" t="n">
         <f aca="false">'3. Calc'!H17</f>
@@ -50121,11 +50117,11 @@
       </c>
       <c r="Q9" s="329" t="n">
         <f aca="false">'3. Calc'!J20</f>
-        <v>23.8095238095238</v>
-      </c>
-      <c r="R9" s="330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="330" t="str">
         <f aca="false">'3. Calc'!H20</f>
-        <v>0</v>
+        <v>-</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -50168,7 +50164,7 @@
       <c r="B11" s="331"/>
       <c r="C11" s="327" t="n">
         <f aca="false">'3. Calc'!I24</f>
-        <v>15.8730158730159</v>
+        <v>16.260162601626</v>
       </c>
       <c r="D11" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50176,7 +50172,7 @@
       </c>
       <c r="E11" s="329" t="n">
         <f aca="false">'3. Calc'!J24</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="F11" s="330" t="n">
         <f aca="false">'3. Calc'!H24</f>
@@ -50192,7 +50188,7 @@
       </c>
       <c r="I11" s="329" t="n">
         <f aca="false">'3. Calc'!J28</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="J11" s="330" t="n">
         <f aca="false">'3. Calc'!H28</f>
@@ -50208,7 +50204,7 @@
       </c>
       <c r="M11" s="329" t="n">
         <f aca="false">'3. Calc'!J31</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="N11" s="330" t="n">
         <f aca="false">'3. Calc'!H31</f>
@@ -50224,7 +50220,7 @@
       </c>
       <c r="Q11" s="329" t="n">
         <f aca="false">'3. Calc'!J35</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="R11" s="330" t="n">
         <f aca="false">'3. Calc'!H35</f>
@@ -50271,7 +50267,7 @@
       <c r="B13" s="332"/>
       <c r="C13" s="327" t="n">
         <f aca="false">'3. Calc'!I39</f>
-        <v>0.793650793650794</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="D13" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50279,7 +50275,7 @@
       </c>
       <c r="E13" s="329" t="n">
         <f aca="false">'3. Calc'!J39</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F13" s="330" t="n">
         <f aca="false">'3. Calc'!H39</f>
@@ -50287,7 +50283,7 @@
       </c>
       <c r="G13" s="327" t="n">
         <f aca="false">'3. Calc'!I44</f>
-        <v>-0.476190476190476</v>
+        <v>-0.487804878048781</v>
       </c>
       <c r="H13" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50295,7 +50291,7 @@
       </c>
       <c r="I13" s="329" t="n">
         <f aca="false">'3. Calc'!J44</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="J13" s="330" t="n">
         <f aca="false">'3. Calc'!H44</f>
@@ -50303,7 +50299,7 @@
       </c>
       <c r="K13" s="327" t="n">
         <f aca="false">'3. Calc'!I49</f>
-        <v>-10.7142857142857</v>
+        <v>-10.9756097560976</v>
       </c>
       <c r="L13" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50311,7 +50307,7 @@
       </c>
       <c r="M13" s="329" t="n">
         <f aca="false">'3. Calc'!J49</f>
-        <v>35.7142857142857</v>
+        <v>36.5853658536585</v>
       </c>
       <c r="N13" s="330" t="n">
         <f aca="false">'3. Calc'!H49</f>
@@ -50327,7 +50323,7 @@
       </c>
       <c r="Q13" s="329" t="n">
         <f aca="false">'3. Calc'!J54</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="R13" s="330" t="n">
         <f aca="false">'3. Calc'!H54</f>
@@ -50374,7 +50370,7 @@
       <c r="B15" s="332"/>
       <c r="C15" s="327" t="n">
         <f aca="false">'3. Calc'!I60</f>
-        <v>-161.904761904762</v>
+        <v>-165.853658536585</v>
       </c>
       <c r="D15" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50382,7 +50378,7 @@
       </c>
       <c r="E15" s="329" t="n">
         <f aca="false">'3. Calc'!J60</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F15" s="330" t="n">
         <f aca="false">'3. Calc'!H60</f>
@@ -50398,7 +50394,7 @@
       </c>
       <c r="I15" s="329" t="n">
         <f aca="false">'3. Calc'!J64</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="J15" s="330" t="n">
         <f aca="false">'3. Calc'!H64</f>
@@ -50414,7 +50410,7 @@
       </c>
       <c r="M15" s="329" t="n">
         <f aca="false">'3. Calc'!J68</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="N15" s="330" t="n">
         <f aca="false">'3. Calc'!H68</f>
@@ -50422,7 +50418,7 @@
       </c>
       <c r="O15" s="327" t="n">
         <f aca="false">'3. Calc'!I72</f>
-        <v>-52.3809523809524</v>
+        <v>-53.6585365853659</v>
       </c>
       <c r="P15" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50430,7 +50426,7 @@
       </c>
       <c r="Q15" s="329" t="n">
         <f aca="false">'3. Calc'!J72</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="R15" s="330" t="n">
         <f aca="false">'3. Calc'!H72</f>
@@ -50477,7 +50473,7 @@
       <c r="B17" s="332"/>
       <c r="C17" s="327" t="n">
         <f aca="false">'3. Calc'!I77</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
       <c r="D17" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50485,7 +50481,7 @@
       </c>
       <c r="E17" s="329" t="n">
         <f aca="false">'3. Calc'!J77</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F17" s="330" t="n">
         <f aca="false">'3. Calc'!H77</f>
@@ -50501,7 +50497,7 @@
       </c>
       <c r="I17" s="329" t="n">
         <f aca="false">'3. Calc'!J81</f>
-        <v>71.4285714285714</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="J17" s="330" t="n">
         <f aca="false">'3. Calc'!H81</f>
@@ -50509,7 +50505,7 @@
       </c>
       <c r="K17" s="327" t="n">
         <f aca="false">'3. Calc'!I86</f>
-        <v>8.57142857142857</v>
+        <v>8.78048780487805</v>
       </c>
       <c r="L17" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50517,7 +50513,7 @@
       </c>
       <c r="M17" s="329" t="n">
         <f aca="false">'3. Calc'!J86</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="N17" s="330" t="n">
         <f aca="false">'3. Calc'!H86</f>
@@ -50525,7 +50521,7 @@
       </c>
       <c r="O17" s="327" t="n">
         <f aca="false">'3. Calc'!I90</f>
-        <v>1.19047619047619</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="P17" s="328" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50533,7 +50529,7 @@
       </c>
       <c r="Q17" s="329" t="n">
         <f aca="false">'3. Calc'!J90</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="R17" s="330" t="n">
         <f aca="false">'3. Calc'!H90</f>
@@ -50619,7 +50615,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="334" width="49.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="334" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="335" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="334" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="334" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="336" width="15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="334" width="10.71"/>
   </cols>
@@ -50777,7 +50773,7 @@
       </c>
       <c r="C18" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!C9+'4. ECG-Matrix'!C11+'4. ECG-Matrix'!C13+'4. ECG-Matrix'!C15+'4. ECG-Matrix'!C17</f>
-        <v>-283.333333333333</v>
+        <v>-290.243902439024</v>
       </c>
       <c r="D18" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50785,7 +50781,7 @@
       </c>
       <c r="E18" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!E9+'4. ECG-Matrix'!E11+'4. ECG-Matrix'!E13+'4. ECG-Matrix'!E15+'4. ECG-Matrix'!E17</f>
-        <v>238.095238095238</v>
+        <v>243.90243902439</v>
       </c>
       <c r="F18" s="353" t="n">
         <f aca="false">C18/E18</f>
@@ -50804,7 +50800,7 @@
       </c>
       <c r="C19" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!G9+'4. ECG-Matrix'!G11+'4. ECG-Matrix'!G13+'4. ECG-Matrix'!G15+'4. ECG-Matrix'!G17</f>
-        <v>-43.3333333333333</v>
+        <v>-44.390243902439</v>
       </c>
       <c r="D19" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50812,7 +50808,7 @@
       </c>
       <c r="E19" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!I9+'4. ECG-Matrix'!I11+'4. ECG-Matrix'!I13+'4. ECG-Matrix'!I15+'4. ECG-Matrix'!I17</f>
-        <v>309.52380952381</v>
+        <v>317.073170731707</v>
       </c>
       <c r="F19" s="353" t="n">
         <f aca="false">C19/E19</f>
@@ -50831,7 +50827,7 @@
       </c>
       <c r="C20" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!K9+'4. ECG-Matrix'!K11+'4. ECG-Matrix'!K13+'4. ECG-Matrix'!K15+'4. ECG-Matrix'!K17</f>
-        <v>0.238095238095234</v>
+        <v>0.243902439024389</v>
       </c>
       <c r="D20" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50839,15 +50835,15 @@
       </c>
       <c r="E20" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!M9+'4. ECG-Matrix'!M11+'4. ECG-Matrix'!M13+'4. ECG-Matrix'!M15+'4. ECG-Matrix'!M17</f>
-        <v>297.619047619048</v>
+        <v>304.878048780488</v>
       </c>
       <c r="F20" s="353" t="n">
         <f aca="false">C20/E20</f>
-        <v>0.000799999999999985</v>
+        <v>0.000799999999999995</v>
       </c>
       <c r="G20" s="354" t="n">
         <f aca="false">IF(F20&lt;0,0,F20)</f>
-        <v>0.000799999999999985</v>
+        <v>0.000799999999999995</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -50858,7 +50854,7 @@
       </c>
       <c r="C21" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!O9+'4. ECG-Matrix'!O11+'4. ECG-Matrix'!O13+'4. ECG-Matrix'!O15+'4. ECG-Matrix'!O17</f>
-        <v>-51.1904761904762</v>
+        <v>-52.4390243902439</v>
       </c>
       <c r="D21" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50866,11 +50862,11 @@
       </c>
       <c r="E21" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!Q9+'4. ECG-Matrix'!Q11+'4. ECG-Matrix'!Q13+'4. ECG-Matrix'!Q15+'4. ECG-Matrix'!Q17</f>
-        <v>154.761904761905</v>
+        <v>134.146341463415</v>
       </c>
       <c r="F21" s="353" t="n">
         <f aca="false">C21/E21</f>
-        <v>-0.330769230769231</v>
+        <v>-0.390909090909091</v>
       </c>
       <c r="G21" s="354" t="n">
         <f aca="false">IF(F21&lt;0,0,F21)</f>
@@ -50885,7 +50881,7 @@
       </c>
       <c r="C22" s="356" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-377.619047619048</v>
+        <v>-386.829268292683</v>
       </c>
       <c r="D22" s="357" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -50897,7 +50893,7 @@
       </c>
       <c r="F22" s="359" t="n">
         <f aca="false">C22/E22</f>
-        <v>-0.377619047619048</v>
+        <v>-0.386829268292683</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -50955,7 +50951,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="334" width="54.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="334" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="335" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="334" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="334" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="336" width="15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="334" width="10.71"/>
   </cols>
@@ -51113,7 +51109,7 @@
       </c>
       <c r="C18" s="350" t="n">
         <f aca="false">'3. Calc'!I9</f>
-        <v>-83.3333333333333</v>
+        <v>-85.3658536585366</v>
       </c>
       <c r="D18" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51121,11 +51117,11 @@
       </c>
       <c r="E18" s="352" t="n">
         <f aca="false">'3. Calc'!J9</f>
-        <v>95.2380952380952</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="F18" s="353" t="n">
         <f aca="false">C18/E18</f>
-        <v>-0.875</v>
+        <v>-1.16666666666667</v>
       </c>
       <c r="G18" s="354" t="n">
         <f aca="false">IF(F18&lt;0,0,F18)</f>
@@ -51140,7 +51136,7 @@
       </c>
       <c r="C19" s="350" t="n">
         <f aca="false">'3. Calc'!I23</f>
-        <v>15.8730158730159</v>
+        <v>16.260162601626</v>
       </c>
       <c r="D19" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51148,7 +51144,7 @@
       </c>
       <c r="E19" s="352" t="n">
         <f aca="false">'3. Calc'!J23</f>
-        <v>428.571428571429</v>
+        <v>439.024390243902</v>
       </c>
       <c r="F19" s="353" t="n">
         <f aca="false">C19/E19</f>
@@ -51167,7 +51163,7 @@
       </c>
       <c r="C20" s="350" t="n">
         <f aca="false">'3. Calc'!I38</f>
-        <v>-10.3968253968254</v>
+        <v>-10.650406504065</v>
       </c>
       <c r="D20" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51175,7 +51171,7 @@
       </c>
       <c r="E20" s="352" t="n">
         <f aca="false">'3. Calc'!J38</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="F20" s="353" t="n">
         <f aca="false">C20/E20</f>
@@ -51194,7 +51190,7 @@
       </c>
       <c r="C21" s="350" t="n">
         <f aca="false">'3. Calc'!I59</f>
-        <v>-214.285714285714</v>
+        <v>-219.512195121951</v>
       </c>
       <c r="D21" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51202,7 +51198,7 @@
       </c>
       <c r="E21" s="352" t="n">
         <f aca="false">'3. Calc'!J59</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="F21" s="353" t="n">
         <f aca="false">C21/E21</f>
@@ -51221,7 +51217,7 @@
       </c>
       <c r="C22" s="350" t="n">
         <f aca="false">'3. Calc'!I76</f>
-        <v>-85.4761904761905</v>
+        <v>-87.5609756097561</v>
       </c>
       <c r="D22" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51229,7 +51225,7 @@
       </c>
       <c r="E22" s="352" t="n">
         <f aca="false">'3. Calc'!J76</f>
-        <v>190.47619047619</v>
+        <v>195.121951219512</v>
       </c>
       <c r="F22" s="353" t="n">
         <f aca="false">C22/E22</f>
@@ -51248,7 +51244,7 @@
       </c>
       <c r="C23" s="356" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-377.619047619048</v>
+        <v>-386.829268292683</v>
       </c>
       <c r="D23" s="357" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51260,7 +51256,7 @@
       </c>
       <c r="F23" s="359" t="n">
         <f aca="false">C23/E23</f>
-        <v>-0.377619047619048</v>
+        <v>-0.386829268292683</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -51318,7 +51314,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="334" width="49.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="334" width="7.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="335" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="334" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="334" width="6.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="336" width="15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="334" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="334" width="43.28"/>
@@ -51479,7 +51475,7 @@
       </c>
       <c r="C18" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!C9</f>
-        <v>-42.8571428571429</v>
+        <v>-43.9024390243903</v>
       </c>
       <c r="D18" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51487,7 +51483,7 @@
       </c>
       <c r="E18" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!E9</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F18" s="360" t="n">
         <f aca="false">C18/E18</f>
@@ -51507,7 +51503,7 @@
       </c>
       <c r="C19" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!G9</f>
-        <v>-42.8571428571429</v>
+        <v>-43.9024390243903</v>
       </c>
       <c r="D19" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51515,7 +51511,7 @@
       </c>
       <c r="E19" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!I9</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F19" s="360" t="n">
         <f aca="false">C19/E19</f>
@@ -51535,7 +51531,7 @@
       </c>
       <c r="C20" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!K9</f>
-        <v>2.38095238095238</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="D20" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51543,7 +51539,7 @@
       </c>
       <c r="E20" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!M9</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F20" s="360" t="n">
         <f aca="false">C20/E20</f>
@@ -51571,15 +51567,15 @@
       </c>
       <c r="E21" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!Q9</f>
-        <v>23.8095238095238</v>
-      </c>
-      <c r="F21" s="360" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="360" t="e">
         <f aca="false">C21/E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="354" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="354" t="e">
         <f aca="false">IF(F21&lt;0,0,F21)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AI21" s="361"/>
       <c r="AM21" s="361"/>
@@ -51591,7 +51587,7 @@
       </c>
       <c r="C22" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!C11</f>
-        <v>15.8730158730159</v>
+        <v>16.260162601626</v>
       </c>
       <c r="D22" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51599,7 +51595,7 @@
       </c>
       <c r="E22" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!E11</f>
-        <v>95.2380952380952</v>
+        <v>97.5609756097561</v>
       </c>
       <c r="F22" s="360" t="n">
         <f aca="false">C22/E22</f>
@@ -51627,7 +51623,7 @@
       </c>
       <c r="E23" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!I11</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="F23" s="360" t="n">
         <f aca="false">C23/E23</f>
@@ -51655,7 +51651,7 @@
       </c>
       <c r="E24" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!M11</f>
-        <v>142.857142857143</v>
+        <v>146.341463414634</v>
       </c>
       <c r="F24" s="360" t="n">
         <f aca="false">C24/E24</f>
@@ -51683,7 +51679,7 @@
       </c>
       <c r="E25" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!Q11</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F25" s="360" t="n">
         <f aca="false">C25/E25</f>
@@ -51703,7 +51699,7 @@
       </c>
       <c r="C26" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!C13</f>
-        <v>0.793650793650794</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="D26" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51711,7 +51707,7 @@
       </c>
       <c r="E26" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!E13</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F26" s="360" t="n">
         <f aca="false">C26/E26</f>
@@ -51731,7 +51727,7 @@
       </c>
       <c r="C27" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!G13</f>
-        <v>-0.476190476190476</v>
+        <v>-0.487804878048781</v>
       </c>
       <c r="D27" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51739,7 +51735,7 @@
       </c>
       <c r="E27" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!I13</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F27" s="360" t="n">
         <f aca="false">C27/E27</f>
@@ -51759,7 +51755,7 @@
       </c>
       <c r="C28" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!K13</f>
-        <v>-10.7142857142857</v>
+        <v>-10.9756097560976</v>
       </c>
       <c r="D28" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51767,7 +51763,7 @@
       </c>
       <c r="E28" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!M13</f>
-        <v>35.7142857142857</v>
+        <v>36.5853658536585</v>
       </c>
       <c r="F28" s="360" t="n">
         <f aca="false">C28/E28</f>
@@ -51795,7 +51791,7 @@
       </c>
       <c r="E29" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!Q13</f>
-        <v>11.9047619047619</v>
+        <v>12.1951219512195</v>
       </c>
       <c r="F29" s="360" t="n">
         <f aca="false">C29/E29</f>
@@ -51815,7 +51811,7 @@
       </c>
       <c r="C30" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!C15</f>
-        <v>-161.904761904762</v>
+        <v>-165.853658536585</v>
       </c>
       <c r="D30" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51823,7 +51819,7 @@
       </c>
       <c r="E30" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!E15</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F30" s="360" t="n">
         <f aca="false">C30/E30</f>
@@ -51851,7 +51847,7 @@
       </c>
       <c r="E31" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!I15</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F31" s="360" t="n">
         <f aca="false">C31/E31</f>
@@ -51879,7 +51875,7 @@
       </c>
       <c r="E32" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!M15</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F32" s="360" t="n">
         <f aca="false">C32/E32</f>
@@ -51899,7 +51895,7 @@
       </c>
       <c r="C33" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!O15</f>
-        <v>-52.3809523809524</v>
+        <v>-53.6585365853659</v>
       </c>
       <c r="D33" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51907,7 +51903,7 @@
       </c>
       <c r="E33" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!Q15</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F33" s="360" t="n">
         <f aca="false">C33/E33</f>
@@ -51927,7 +51923,7 @@
       </c>
       <c r="C34" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!C17</f>
-        <v>-95.2380952380952</v>
+        <v>-97.5609756097561</v>
       </c>
       <c r="D34" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51935,7 +51931,7 @@
       </c>
       <c r="E34" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!E17</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F34" s="360" t="n">
         <f aca="false">C34/E34</f>
@@ -51963,7 +51959,7 @@
       </c>
       <c r="E35" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!I17</f>
-        <v>71.4285714285714</v>
+        <v>73.1707317073171</v>
       </c>
       <c r="F35" s="360" t="n">
         <f aca="false">C35/E35</f>
@@ -51983,7 +51979,7 @@
       </c>
       <c r="C36" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!K17</f>
-        <v>8.57142857142857</v>
+        <v>8.78048780487805</v>
       </c>
       <c r="D36" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -51991,7 +51987,7 @@
       </c>
       <c r="E36" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!M17</f>
-        <v>47.6190476190476</v>
+        <v>48.7804878048781</v>
       </c>
       <c r="F36" s="360" t="n">
         <f aca="false">C36/E36</f>
@@ -52011,7 +52007,7 @@
       </c>
       <c r="C37" s="350" t="n">
         <f aca="false">'4. ECG-Matrix'!O17</f>
-        <v>1.19047619047619</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="D37" s="351" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -52019,7 +52015,7 @@
       </c>
       <c r="E37" s="352" t="n">
         <f aca="false">'4. ECG-Matrix'!Q17</f>
-        <v>23.8095238095238</v>
+        <v>24.390243902439</v>
       </c>
       <c r="F37" s="360" t="n">
         <f aca="false">C37/E37</f>
@@ -52040,7 +52036,7 @@
       </c>
       <c r="C38" s="356" t="n">
         <f aca="false">'3. Calc'!I4</f>
-        <v>-377.619047619048</v>
+        <v>-386.829268292683</v>
       </c>
       <c r="D38" s="362" t="str">
         <f aca="false">'12.lan'!$D$214</f>
@@ -52052,7 +52048,7 @@
       </c>
       <c r="F38" s="363" t="n">
         <f aca="false">C38/E38</f>
-        <v>-0.377619047619048</v>
+        <v>-0.386829268292683</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
